--- a/data/fleas_model_data.xlsx
+++ b/data/fleas_model_data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t xml:space="preserve">.id</t>
   </si>
@@ -29,6 +29,21 @@
     <t xml:space="preserve">hatched</t>
   </si>
   <si>
+    <t xml:space="preserve">K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BSG</t>
+  </si>
+  <si>
     <t xml:space="preserve">jump_length</t>
   </si>
   <si>
@@ -47,13 +62,28 @@
     <t xml:space="preserve">adult</t>
   </si>
   <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
     <t xml:space="preserve">5</t>
   </si>
   <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
+    <t xml:space="preserve">juvenile</t>
   </si>
   <si>
     <t xml:space="preserve">8</t>
@@ -62,19 +92,10 @@
     <t xml:space="preserve">6</t>
   </si>
   <si>
-    <t xml:space="preserve">juvenile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7</t>
+    <t xml:space="preserve">blood</t>
   </si>
   <si>
     <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
   </si>
   <si>
     <t xml:space="preserve">ketchup</t>
@@ -437,34 +458,64 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>15.32</v>
+        <v>16.42</v>
       </c>
       <c r="E2" t="n">
-        <v>534.58</v>
+        <v>516.41</v>
       </c>
       <c r="F2" t="n">
-        <v>70.4</v>
+        <v>19.31</v>
       </c>
       <c r="G2" t="n">
-        <v>24.53</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" t="s">
-        <v>12</v>
+        <v>17.93</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="I2" t="n">
+        <v>120.56</v>
+      </c>
+      <c r="J2" t="n">
+        <v>45.59</v>
+      </c>
+      <c r="K2" t="n">
+        <v>70.9</v>
+      </c>
+      <c r="L2" t="n">
+        <v>63.4</v>
+      </c>
+      <c r="M2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -472,28 +523,43 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>14.47</v>
+        <v>12.62</v>
       </c>
       <c r="E3" t="n">
-        <v>395.87</v>
+        <v>363.5</v>
       </c>
       <c r="F3" t="n">
-        <v>59.28</v>
+        <v>20.48</v>
       </c>
       <c r="G3" t="n">
-        <v>16.16</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" t="s">
-        <v>12</v>
+        <v>21.04</v>
+      </c>
+      <c r="H3" t="n">
+        <v>8.39</v>
+      </c>
+      <c r="I3" t="n">
+        <v>121.13</v>
+      </c>
+      <c r="J3" t="n">
+        <v>53.58</v>
+      </c>
+      <c r="K3" t="n">
+        <v>50.75</v>
+      </c>
+      <c r="L3" t="n">
+        <v>53.96</v>
+      </c>
+      <c r="M3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -501,28 +567,43 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>18.4</v>
+        <v>15.57</v>
       </c>
       <c r="E4" t="n">
-        <v>452.24</v>
+        <v>303.01</v>
       </c>
       <c r="F4" t="n">
-        <v>68.04</v>
+        <v>17.32</v>
       </c>
       <c r="G4" t="n">
-        <v>61.92</v>
-      </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" t="s">
-        <v>12</v>
+        <v>17.49</v>
+      </c>
+      <c r="H4" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="I4" t="n">
+        <v>118.77</v>
+      </c>
+      <c r="J4" t="n">
+        <v>49.55</v>
+      </c>
+      <c r="K4" t="n">
+        <v>62.22</v>
+      </c>
+      <c r="L4" t="n">
+        <v>120.44</v>
+      </c>
+      <c r="M4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -530,28 +611,43 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>14.75</v>
+        <v>24.39</v>
       </c>
       <c r="E5" t="n">
-        <v>332.3</v>
+        <v>257.13</v>
       </c>
       <c r="F5" t="n">
-        <v>57.16</v>
+        <v>18.35</v>
       </c>
       <c r="G5" t="n">
-        <v>143.37</v>
-      </c>
-      <c r="H5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" t="s">
-        <v>12</v>
+        <v>18.55</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="I5" t="n">
+        <v>118.02</v>
+      </c>
+      <c r="J5" t="n">
+        <v>48.43</v>
+      </c>
+      <c r="K5" t="n">
+        <v>66.07</v>
+      </c>
+      <c r="L5" t="n">
+        <v>191.11</v>
+      </c>
+      <c r="M5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -559,28 +655,43 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>16.5</v>
+        <v>16.45</v>
       </c>
       <c r="E6" t="n">
-        <v>354.75</v>
+        <v>254.16</v>
       </c>
       <c r="F6" t="n">
-        <v>56.34</v>
+        <v>21.05</v>
       </c>
       <c r="G6" t="n">
-        <v>49.37</v>
-      </c>
-      <c r="H6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" t="s">
-        <v>12</v>
+        <v>21.36</v>
+      </c>
+      <c r="H6" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="I6" t="n">
+        <v>120.1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>51.07</v>
+      </c>
+      <c r="K6" t="n">
+        <v>62.58</v>
+      </c>
+      <c r="L6" t="n">
+        <v>164.31</v>
+      </c>
+      <c r="M6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7">
@@ -588,28 +699,43 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>14.01</v>
+        <v>14.8</v>
       </c>
       <c r="E7" t="n">
-        <v>416.89</v>
+        <v>604.06</v>
       </c>
       <c r="F7" t="n">
-        <v>66.5</v>
+        <v>19.67</v>
       </c>
       <c r="G7" t="n">
-        <v>113.1</v>
-      </c>
-      <c r="H7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" t="s">
-        <v>12</v>
+        <v>19.92</v>
+      </c>
+      <c r="H7" t="n">
+        <v>7.46</v>
+      </c>
+      <c r="I7" t="n">
+        <v>121.01</v>
+      </c>
+      <c r="J7" t="n">
+        <v>52.4</v>
+      </c>
+      <c r="K7" t="n">
+        <v>74.44</v>
+      </c>
+      <c r="L7" t="n">
+        <v>25.31</v>
+      </c>
+      <c r="M7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8">
@@ -617,28 +743,43 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D8" t="n">
-        <v>21.36</v>
+        <v>17.02</v>
       </c>
       <c r="E8" t="n">
-        <v>568.07</v>
+        <v>828.59</v>
       </c>
       <c r="F8" t="n">
-        <v>84.17</v>
+        <v>21.99</v>
       </c>
       <c r="G8" t="n">
-        <v>11.08</v>
-      </c>
-      <c r="H8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" t="s">
-        <v>12</v>
+        <v>22.5</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="I8" t="n">
+        <v>119.3</v>
+      </c>
+      <c r="J8" t="n">
+        <v>50.57</v>
+      </c>
+      <c r="K8" t="n">
+        <v>82.95</v>
+      </c>
+      <c r="L8" t="n">
+        <v>68.38</v>
+      </c>
+      <c r="M8" t="s">
+        <v>16</v>
+      </c>
+      <c r="N8" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="9">
@@ -646,28 +787,43 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D9" t="n">
-        <v>19.23</v>
+        <v>18.19</v>
       </c>
       <c r="E9" t="n">
-        <v>379.71</v>
+        <v>818.44</v>
       </c>
       <c r="F9" t="n">
-        <v>65.42</v>
+        <v>16.88</v>
       </c>
       <c r="G9" t="n">
-        <v>77.46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" t="s">
-        <v>12</v>
+        <v>17.28</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="I9" t="n">
+        <v>118.05</v>
+      </c>
+      <c r="J9" t="n">
+        <v>49.55</v>
+      </c>
+      <c r="K9" t="n">
+        <v>81.21</v>
+      </c>
+      <c r="L9" t="n">
+        <v>115.11</v>
+      </c>
+      <c r="M9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10">
@@ -675,28 +831,43 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D10" t="n">
-        <v>5.36</v>
+        <v>7.31</v>
       </c>
       <c r="E10" t="n">
-        <v>146.82</v>
+        <v>595.05</v>
       </c>
       <c r="F10" t="n">
-        <v>41.97</v>
+        <v>17.68</v>
       </c>
       <c r="G10" t="n">
-        <v>107.78</v>
-      </c>
-      <c r="H10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" t="s">
-        <v>12</v>
+        <v>18</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I10" t="n">
+        <v>117.8</v>
+      </c>
+      <c r="J10" t="n">
+        <v>48.76</v>
+      </c>
+      <c r="K10" t="n">
+        <v>69.48</v>
+      </c>
+      <c r="L10" t="n">
+        <v>22.49</v>
+      </c>
+      <c r="M10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11">
@@ -704,28 +875,43 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D11" t="n">
-        <v>4.51</v>
+        <v>4.62</v>
       </c>
       <c r="E11" t="n">
-        <v>429.08</v>
+        <v>294.64</v>
       </c>
       <c r="F11" t="n">
-        <v>51.16</v>
+        <v>19.02</v>
       </c>
       <c r="G11" t="n">
-        <v>177.86</v>
-      </c>
-      <c r="H11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" t="s">
-        <v>13</v>
+        <v>18.94</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I11" t="n">
+        <v>119.05</v>
+      </c>
+      <c r="J11" t="n">
+        <v>48.59</v>
+      </c>
+      <c r="K11" t="n">
+        <v>57.17</v>
+      </c>
+      <c r="L11" t="n">
+        <v>27.88</v>
+      </c>
+      <c r="M11" t="s">
+        <v>24</v>
+      </c>
+      <c r="N11" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12">
@@ -733,28 +919,43 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D12" t="n">
-        <v>5.43</v>
+        <v>3.26</v>
       </c>
       <c r="E12" t="n">
-        <v>341.34</v>
+        <v>460.29</v>
       </c>
       <c r="F12" t="n">
-        <v>52.06</v>
+        <v>18.37</v>
       </c>
       <c r="G12" t="n">
-        <v>77.74</v>
-      </c>
-      <c r="H12" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" t="s">
-        <v>13</v>
+        <v>18.62</v>
+      </c>
+      <c r="H12" t="n">
+        <v>9.11</v>
+      </c>
+      <c r="I12" t="n">
+        <v>121.83</v>
+      </c>
+      <c r="J12" t="n">
+        <v>53.78</v>
+      </c>
+      <c r="K12" t="n">
+        <v>47.21</v>
+      </c>
+      <c r="L12" t="n">
+        <v>60.51</v>
+      </c>
+      <c r="M12" t="s">
+        <v>22</v>
+      </c>
+      <c r="N12" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="13">
@@ -762,28 +963,43 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D13" t="n">
-        <v>5.51</v>
+        <v>4.91</v>
       </c>
       <c r="E13" t="n">
-        <v>279.87</v>
+        <v>183.54</v>
       </c>
       <c r="F13" t="n">
-        <v>45.21</v>
+        <v>19.99</v>
       </c>
       <c r="G13" t="n">
-        <v>92.45</v>
-      </c>
-      <c r="H13" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" t="s">
-        <v>13</v>
+        <v>19.78</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="I13" t="n">
+        <v>119.64</v>
+      </c>
+      <c r="J13" t="n">
+        <v>48.71</v>
+      </c>
+      <c r="K13" t="n">
+        <v>46.99</v>
+      </c>
+      <c r="L13" t="n">
+        <v>13.52</v>
+      </c>
+      <c r="M13" t="s">
+        <v>21</v>
+      </c>
+      <c r="N13" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="14">
@@ -791,28 +1007,43 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D14" t="n">
-        <v>5.22</v>
+        <v>5.31</v>
       </c>
       <c r="E14" t="n">
-        <v>669.45</v>
+        <v>522.25</v>
       </c>
       <c r="F14" t="n">
-        <v>63.61</v>
+        <v>15.95</v>
       </c>
       <c r="G14" t="n">
-        <v>39.31</v>
-      </c>
-      <c r="H14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" t="s">
-        <v>12</v>
+        <v>17.32</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="I14" t="n">
+        <v>114.48</v>
+      </c>
+      <c r="J14" t="n">
+        <v>48.68</v>
+      </c>
+      <c r="K14" t="n">
+        <v>59.84</v>
+      </c>
+      <c r="L14" t="n">
+        <v>87.54</v>
+      </c>
+      <c r="M14" t="s">
+        <v>25</v>
+      </c>
+      <c r="N14" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="15">
@@ -820,28 +1051,43 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D15" t="n">
-        <v>6.66</v>
+        <v>5.71</v>
       </c>
       <c r="E15" t="n">
-        <v>1218.17</v>
+        <v>486.27</v>
       </c>
       <c r="F15" t="n">
-        <v>93.99</v>
+        <v>19.44</v>
       </c>
       <c r="G15" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="H15" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" t="s">
-        <v>12</v>
+        <v>19.94</v>
+      </c>
+      <c r="H15" t="n">
+        <v>7.51</v>
+      </c>
+      <c r="I15" t="n">
+        <v>120.53</v>
+      </c>
+      <c r="J15" t="n">
+        <v>52.77</v>
+      </c>
+      <c r="K15" t="n">
+        <v>59.81</v>
+      </c>
+      <c r="L15" t="n">
+        <v>24.43</v>
+      </c>
+      <c r="M15" t="s">
+        <v>20</v>
+      </c>
+      <c r="N15" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="16">
@@ -849,28 +1095,43 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D16" t="n">
-        <v>4.75</v>
+        <v>4.59</v>
       </c>
       <c r="E16" t="n">
-        <v>428.77</v>
+        <v>424.9</v>
       </c>
       <c r="F16" t="n">
-        <v>59.7</v>
+        <v>21.01</v>
       </c>
       <c r="G16" t="n">
-        <v>924.44</v>
-      </c>
-      <c r="H16" t="s">
+        <v>19.94</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="I16" t="n">
+        <v>120.45</v>
+      </c>
+      <c r="J16" t="n">
+        <v>46.26</v>
+      </c>
+      <c r="K16" t="n">
+        <v>66.55</v>
+      </c>
+      <c r="L16" t="n">
+        <v>22.78</v>
+      </c>
+      <c r="M16" t="s">
+        <v>25</v>
+      </c>
+      <c r="N16" t="s">
         <v>18</v>
-      </c>
-      <c r="I16" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="17">
@@ -878,28 +1139,43 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D17" t="n">
-        <v>5.04</v>
+        <v>2.71</v>
       </c>
       <c r="E17" t="n">
-        <v>689.13</v>
+        <v>475.93</v>
       </c>
       <c r="F17" t="n">
-        <v>64.96</v>
+        <v>19.64</v>
       </c>
       <c r="G17" t="n">
-        <v>115.34</v>
-      </c>
-      <c r="H17" t="s">
-        <v>15</v>
-      </c>
-      <c r="I17" t="s">
-        <v>13</v>
+        <v>19.66</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="I17" t="n">
+        <v>118.8</v>
+      </c>
+      <c r="J17" t="n">
+        <v>48.52</v>
+      </c>
+      <c r="K17" t="n">
+        <v>51.12</v>
+      </c>
+      <c r="L17" t="n">
+        <v>55.36</v>
+      </c>
+      <c r="M17" t="s">
+        <v>19</v>
+      </c>
+      <c r="N17" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="18">
@@ -907,28 +1183,43 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D18" t="n">
-        <v>13.08</v>
+        <v>11.13</v>
       </c>
       <c r="E18" t="n">
-        <v>336.28</v>
+        <v>642.75</v>
       </c>
       <c r="F18" t="n">
-        <v>69.41</v>
+        <v>47.09</v>
       </c>
       <c r="G18" t="n">
-        <v>232.12</v>
-      </c>
-      <c r="H18" t="s">
-        <v>15</v>
-      </c>
-      <c r="I18" t="s">
-        <v>13</v>
+        <v>16.6</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="I18" t="n">
+        <v>157.82</v>
+      </c>
+      <c r="J18" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="K18" t="n">
+        <v>103.08</v>
+      </c>
+      <c r="L18" t="n">
+        <v>469.3</v>
+      </c>
+      <c r="M18" t="s">
+        <v>16</v>
+      </c>
+      <c r="N18" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="19">
@@ -936,28 +1227,43 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D19" t="n">
-        <v>10.85</v>
+        <v>9.77</v>
       </c>
       <c r="E19" t="n">
-        <v>155.54</v>
+        <v>302.72</v>
       </c>
       <c r="F19" t="n">
-        <v>66.27</v>
+        <v>49.57</v>
       </c>
       <c r="G19" t="n">
-        <v>212.6</v>
-      </c>
-      <c r="H19" t="s">
-        <v>11</v>
-      </c>
-      <c r="I19" t="s">
-        <v>13</v>
+        <v>20.24</v>
+      </c>
+      <c r="H19" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="I19" t="n">
+        <v>158.77</v>
+      </c>
+      <c r="J19" t="n">
+        <v>21.01</v>
+      </c>
+      <c r="K19" t="n">
+        <v>78.67</v>
+      </c>
+      <c r="L19" t="n">
+        <v>164.18</v>
+      </c>
+      <c r="M19" t="s">
+        <v>25</v>
+      </c>
+      <c r="N19" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="20">
@@ -965,28 +1271,43 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D20" t="n">
-        <v>14.38</v>
+        <v>12.72</v>
       </c>
       <c r="E20" t="n">
-        <v>306.53</v>
+        <v>183.81</v>
       </c>
       <c r="F20" t="n">
-        <v>75.51</v>
+        <v>47.42</v>
       </c>
       <c r="G20" t="n">
-        <v>40.75</v>
-      </c>
-      <c r="H20" t="s">
-        <v>11</v>
-      </c>
-      <c r="I20" t="s">
-        <v>13</v>
+        <v>17.29</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="I20" t="n">
+        <v>157.84</v>
+      </c>
+      <c r="J20" t="n">
+        <v>17.12</v>
+      </c>
+      <c r="K20" t="n">
+        <v>66.23</v>
+      </c>
+      <c r="L20" t="n">
+        <v>34.23</v>
+      </c>
+      <c r="M20" t="s">
+        <v>24</v>
+      </c>
+      <c r="N20" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="21">
@@ -994,28 +1315,43 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D21" t="n">
-        <v>4.88</v>
+        <v>25.73</v>
       </c>
       <c r="E21" t="n">
-        <v>437.25</v>
+        <v>504.66</v>
       </c>
       <c r="F21" t="n">
-        <v>87.65</v>
+        <v>51.28</v>
       </c>
       <c r="G21" t="n">
-        <v>44.92</v>
-      </c>
-      <c r="H21" t="s">
-        <v>15</v>
-      </c>
-      <c r="I21" t="s">
-        <v>13</v>
+        <v>20.93</v>
+      </c>
+      <c r="H21" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="I21" t="n">
+        <v>162.46</v>
+      </c>
+      <c r="J21" t="n">
+        <v>21.72</v>
+      </c>
+      <c r="K21" t="n">
+        <v>104.75</v>
+      </c>
+      <c r="L21" t="n">
+        <v>243.55</v>
+      </c>
+      <c r="M21" t="s">
+        <v>27</v>
+      </c>
+      <c r="N21" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="22">
@@ -1023,28 +1359,43 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D22" t="n">
-        <v>12.03</v>
+        <v>12.18</v>
       </c>
       <c r="E22" t="n">
-        <v>411.81</v>
+        <v>380.48</v>
       </c>
       <c r="F22" t="n">
-        <v>88.13</v>
+        <v>52.85</v>
       </c>
       <c r="G22" t="n">
-        <v>32.21</v>
-      </c>
-      <c r="H22" t="s">
-        <v>15</v>
-      </c>
-      <c r="I22" t="s">
-        <v>13</v>
+        <v>22.65</v>
+      </c>
+      <c r="H22" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="I22" t="n">
+        <v>160.63</v>
+      </c>
+      <c r="J22" t="n">
+        <v>19.44</v>
+      </c>
+      <c r="K22" t="n">
+        <v>81.19</v>
+      </c>
+      <c r="L22" t="n">
+        <v>12.86</v>
+      </c>
+      <c r="M22" t="s">
+        <v>16</v>
+      </c>
+      <c r="N22" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="23">
@@ -1052,28 +1403,43 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D23" t="n">
-        <v>17.5</v>
+        <v>6.44</v>
       </c>
       <c r="E23" t="n">
-        <v>675.74</v>
+        <v>131.11</v>
       </c>
       <c r="F23" t="n">
-        <v>113.67</v>
+        <v>49.98</v>
       </c>
       <c r="G23" t="n">
-        <v>61.35</v>
-      </c>
-      <c r="H23" t="s">
-        <v>17</v>
-      </c>
-      <c r="I23" t="s">
-        <v>13</v>
+        <v>20.23</v>
+      </c>
+      <c r="H23" t="n">
+        <v>6.59</v>
+      </c>
+      <c r="I23" t="n">
+        <v>160.51</v>
+      </c>
+      <c r="J23" t="n">
+        <v>21.67</v>
+      </c>
+      <c r="K23" t="n">
+        <v>54.73</v>
+      </c>
+      <c r="L23" t="n">
+        <v>201.49</v>
+      </c>
+      <c r="M23" t="s">
+        <v>25</v>
+      </c>
+      <c r="N23" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="24">
@@ -1081,28 +1447,43 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D24" t="n">
-        <v>14.78</v>
+        <v>13.52</v>
       </c>
       <c r="E24" t="n">
-        <v>268.08</v>
+        <v>264.4</v>
       </c>
       <c r="F24" t="n">
-        <v>80.18</v>
+        <v>51.73</v>
       </c>
       <c r="G24" t="n">
-        <v>329.2</v>
-      </c>
-      <c r="H24" t="s">
-        <v>14</v>
-      </c>
-      <c r="I24" t="s">
-        <v>13</v>
+        <v>22.34</v>
+      </c>
+      <c r="H24" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="I24" t="n">
+        <v>160.63</v>
+      </c>
+      <c r="J24" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="K24" t="n">
+        <v>74.2</v>
+      </c>
+      <c r="L24" t="n">
+        <v>100.48</v>
+      </c>
+      <c r="M24" t="s">
+        <v>20</v>
+      </c>
+      <c r="N24" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="25">
@@ -1110,28 +1491,43 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D25" t="n">
-        <v>9.1</v>
+        <v>11.62</v>
       </c>
       <c r="E25" t="n">
-        <v>461.97</v>
+        <v>492.03</v>
       </c>
       <c r="F25" t="n">
-        <v>86.24</v>
+        <v>52.27</v>
       </c>
       <c r="G25" t="n">
-        <v>111.08</v>
-      </c>
-      <c r="H25" t="s">
-        <v>17</v>
-      </c>
-      <c r="I25" t="s">
-        <v>13</v>
+        <v>23.29</v>
+      </c>
+      <c r="H25" t="n">
+        <v>9.54</v>
+      </c>
+      <c r="I25" t="n">
+        <v>161.26</v>
+      </c>
+      <c r="J25" t="n">
+        <v>25.13</v>
+      </c>
+      <c r="K25" t="n">
+        <v>93.75</v>
+      </c>
+      <c r="L25" t="n">
+        <v>173.25</v>
+      </c>
+      <c r="M25" t="s">
+        <v>27</v>
+      </c>
+      <c r="N25" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="26">
@@ -1139,28 +1535,43 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D26" t="n">
-        <v>6.1</v>
+        <v>4.71</v>
       </c>
       <c r="E26" t="n">
-        <v>608.7</v>
+        <v>610.66</v>
       </c>
       <c r="F26" t="n">
-        <v>82.12</v>
+        <v>49.65</v>
       </c>
       <c r="G26" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="H26" t="s">
-        <v>15</v>
-      </c>
-      <c r="I26" t="s">
-        <v>12</v>
+        <v>19.32</v>
+      </c>
+      <c r="H26" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="I26" t="n">
+        <v>161.62</v>
+      </c>
+      <c r="J26" t="n">
+        <v>20.99</v>
+      </c>
+      <c r="K26" t="n">
+        <v>75.14</v>
+      </c>
+      <c r="L26" t="n">
+        <v>117.08</v>
+      </c>
+      <c r="M26" t="s">
+        <v>21</v>
+      </c>
+      <c r="N26" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="27">
@@ -1168,28 +1579,43 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D27" t="n">
-        <v>5.99</v>
+        <v>5.11</v>
       </c>
       <c r="E27" t="n">
-        <v>356.57</v>
+        <v>152.78</v>
       </c>
       <c r="F27" t="n">
-        <v>70.53</v>
+        <v>48.2</v>
       </c>
       <c r="G27" t="n">
-        <v>111.74</v>
-      </c>
-      <c r="H27" t="s">
+        <v>17.36</v>
+      </c>
+      <c r="H27" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="I27" t="n">
+        <v>161.02</v>
+      </c>
+      <c r="J27" t="n">
+        <v>18.56</v>
+      </c>
+      <c r="K27" t="n">
+        <v>39.86</v>
+      </c>
+      <c r="L27" t="n">
+        <v>594.77</v>
+      </c>
+      <c r="M27" t="s">
         <v>20</v>
       </c>
-      <c r="I27" t="s">
-        <v>13</v>
+      <c r="N27" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="28">
@@ -1197,28 +1623,43 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D28" t="n">
-        <v>4.61</v>
+        <v>5.85</v>
       </c>
       <c r="E28" t="n">
-        <v>99.73</v>
+        <v>815.91</v>
       </c>
       <c r="F28" t="n">
-        <v>43.96</v>
+        <v>51.16</v>
       </c>
       <c r="G28" t="n">
-        <v>362.47</v>
-      </c>
-      <c r="H28" t="s">
-        <v>15</v>
-      </c>
-      <c r="I28" t="s">
-        <v>12</v>
+        <v>21.72</v>
+      </c>
+      <c r="H28" t="n">
+        <v>7.11</v>
+      </c>
+      <c r="I28" t="n">
+        <v>160.45</v>
+      </c>
+      <c r="J28" t="n">
+        <v>22.49</v>
+      </c>
+      <c r="K28" t="n">
+        <v>90.83</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1357.2</v>
+      </c>
+      <c r="M28" t="s">
+        <v>21</v>
+      </c>
+      <c r="N28" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="29">
@@ -1226,28 +1667,43 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D29" t="n">
-        <v>5.34</v>
+        <v>8.13</v>
       </c>
       <c r="E29" t="n">
-        <v>433.78</v>
+        <v>615.64</v>
       </c>
       <c r="F29" t="n">
-        <v>64.27</v>
+        <v>52.22</v>
       </c>
       <c r="G29" t="n">
-        <v>211.52</v>
-      </c>
-      <c r="H29" t="s">
-        <v>14</v>
-      </c>
-      <c r="I29" t="s">
-        <v>13</v>
+        <v>21.23</v>
+      </c>
+      <c r="H29" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="I29" t="n">
+        <v>163.73</v>
+      </c>
+      <c r="J29" t="n">
+        <v>20.75</v>
+      </c>
+      <c r="K29" t="n">
+        <v>81.46</v>
+      </c>
+      <c r="L29" t="n">
+        <v>390.86</v>
+      </c>
+      <c r="M29" t="s">
+        <v>25</v>
+      </c>
+      <c r="N29" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="30">
@@ -1255,28 +1711,43 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D30" t="n">
-        <v>5.49</v>
+        <v>5.18</v>
       </c>
       <c r="E30" t="n">
-        <v>546.88</v>
+        <v>707.14</v>
       </c>
       <c r="F30" t="n">
-        <v>68.57</v>
+        <v>50.89</v>
       </c>
       <c r="G30" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="H30" t="s">
-        <v>14</v>
-      </c>
-      <c r="I30" t="s">
-        <v>12</v>
+        <v>20.83</v>
+      </c>
+      <c r="H30" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="I30" t="n">
+        <v>160.72</v>
+      </c>
+      <c r="J30" t="n">
+        <v>20.57</v>
+      </c>
+      <c r="K30" t="n">
+        <v>90.66</v>
+      </c>
+      <c r="L30" t="n">
+        <v>140.24</v>
+      </c>
+      <c r="M30" t="s">
+        <v>22</v>
+      </c>
+      <c r="N30" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="31">
@@ -1284,28 +1755,43 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C31" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D31" t="n">
-        <v>4.54</v>
+        <v>7.11</v>
       </c>
       <c r="E31" t="n">
-        <v>698.5</v>
+        <v>237.03</v>
       </c>
       <c r="F31" t="n">
-        <v>78.62</v>
+        <v>49.07</v>
       </c>
       <c r="G31" t="n">
-        <v>579.01</v>
-      </c>
-      <c r="H31" t="s">
-        <v>14</v>
-      </c>
-      <c r="I31" t="s">
-        <v>13</v>
+        <v>18.25</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="I31" t="n">
+        <v>159.46</v>
+      </c>
+      <c r="J31" t="n">
+        <v>16.32</v>
+      </c>
+      <c r="K31" t="n">
+        <v>49.13</v>
+      </c>
+      <c r="L31" t="n">
+        <v>314.41</v>
+      </c>
+      <c r="M31" t="s">
+        <v>21</v>
+      </c>
+      <c r="N31" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="32">
@@ -1313,28 +1799,43 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C32" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D32" t="n">
-        <v>6.54</v>
+        <v>5.74</v>
       </c>
       <c r="E32" t="n">
-        <v>162.83</v>
+        <v>267.33</v>
       </c>
       <c r="F32" t="n">
-        <v>51.48</v>
+        <v>52.22</v>
       </c>
       <c r="G32" t="n">
-        <v>165.29</v>
-      </c>
-      <c r="H32" t="s">
-        <v>15</v>
-      </c>
-      <c r="I32" t="s">
-        <v>12</v>
+        <v>23.22</v>
+      </c>
+      <c r="H32" t="n">
+        <v>8.05</v>
+      </c>
+      <c r="I32" t="n">
+        <v>160.36</v>
+      </c>
+      <c r="J32" t="n">
+        <v>23.86</v>
+      </c>
+      <c r="K32" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="L32" t="n">
+        <v>509.58</v>
+      </c>
+      <c r="M32" t="s">
+        <v>24</v>
+      </c>
+      <c r="N32" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="33">
@@ -1342,28 +1843,43 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C33" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D33" t="n">
-        <v>4.89</v>
+        <v>6.58</v>
       </c>
       <c r="E33" t="n">
-        <v>611.36</v>
+        <v>319.09</v>
       </c>
       <c r="F33" t="n">
-        <v>81.19</v>
+        <v>46.99</v>
       </c>
       <c r="G33" t="n">
-        <v>835.14</v>
-      </c>
-      <c r="H33" t="s">
-        <v>15</v>
-      </c>
-      <c r="I33" t="s">
-        <v>13</v>
+        <v>17.66</v>
+      </c>
+      <c r="H33" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="I33" t="n">
+        <v>157.27</v>
+      </c>
+      <c r="J33" t="n">
+        <v>19.54</v>
+      </c>
+      <c r="K33" t="n">
+        <v>66.25</v>
+      </c>
+      <c r="L33" t="n">
+        <v>353.79</v>
+      </c>
+      <c r="M33" t="s">
+        <v>27</v>
+      </c>
+      <c r="N33" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="34">
@@ -1371,28 +1887,43 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C34" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D34" t="n">
-        <v>8.46</v>
+        <v>7.86</v>
       </c>
       <c r="E34" t="n">
-        <v>398.48</v>
+        <v>452.56</v>
       </c>
       <c r="F34" t="n">
-        <v>51.27</v>
+        <v>19.27</v>
       </c>
       <c r="G34" t="n">
-        <v>24.56</v>
-      </c>
-      <c r="H34" t="s">
-        <v>11</v>
-      </c>
-      <c r="I34" t="s">
-        <v>12</v>
+        <v>20</v>
+      </c>
+      <c r="H34" t="n">
+        <v>13.04</v>
+      </c>
+      <c r="I34" t="n">
+        <v>77.32</v>
+      </c>
+      <c r="J34" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="K34" t="n">
+        <v>72.81</v>
+      </c>
+      <c r="L34" t="n">
+        <v>187.13</v>
+      </c>
+      <c r="M34" t="s">
+        <v>20</v>
+      </c>
+      <c r="N34" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="35">
@@ -1400,28 +1931,43 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C35" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D35" t="n">
-        <v>7.56</v>
+        <v>9.36</v>
       </c>
       <c r="E35" t="n">
-        <v>651.03</v>
+        <v>327.23</v>
       </c>
       <c r="F35" t="n">
-        <v>80.72</v>
+        <v>19.4</v>
       </c>
       <c r="G35" t="n">
-        <v>181.25</v>
-      </c>
-      <c r="H35" t="s">
+        <v>19.07</v>
+      </c>
+      <c r="H35" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="I35" t="n">
+        <v>80.04</v>
+      </c>
+      <c r="J35" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="K35" t="n">
+        <v>56.02</v>
+      </c>
+      <c r="L35" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="M35" t="s">
         <v>20</v>
       </c>
-      <c r="I35" t="s">
-        <v>12</v>
+      <c r="N35" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="36">
@@ -1429,28 +1975,43 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C36" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D36" t="n">
-        <v>7.28</v>
+        <v>21.28</v>
       </c>
       <c r="E36" t="n">
-        <v>267.75</v>
+        <v>702.86</v>
       </c>
       <c r="F36" t="n">
-        <v>50.64</v>
+        <v>15.31</v>
       </c>
       <c r="G36" t="n">
-        <v>31.15</v>
-      </c>
-      <c r="H36" t="s">
-        <v>15</v>
-      </c>
-      <c r="I36" t="s">
-        <v>12</v>
+        <v>14.73</v>
+      </c>
+      <c r="H36" t="n">
+        <v>8.69</v>
+      </c>
+      <c r="I36" t="n">
+        <v>76.43</v>
+      </c>
+      <c r="J36" t="n">
+        <v>8.98</v>
+      </c>
+      <c r="K36" t="n">
+        <v>101.37</v>
+      </c>
+      <c r="L36" t="n">
+        <v>59.8</v>
+      </c>
+      <c r="M36" t="s">
+        <v>17</v>
+      </c>
+      <c r="N36" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="37">
@@ -1458,28 +2019,43 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C37" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D37" t="n">
-        <v>18.62</v>
+        <v>13.47</v>
       </c>
       <c r="E37" t="n">
-        <v>628.36</v>
+        <v>353.9</v>
       </c>
       <c r="F37" t="n">
-        <v>87.41</v>
+        <v>21.76</v>
       </c>
       <c r="G37" t="n">
-        <v>110.03</v>
-      </c>
-      <c r="H37" t="s">
+        <v>20.62</v>
+      </c>
+      <c r="H37" t="n">
+        <v>13.18</v>
+      </c>
+      <c r="I37" t="n">
+        <v>81.29</v>
+      </c>
+      <c r="J37" t="n">
+        <v>11.97</v>
+      </c>
+      <c r="K37" t="n">
+        <v>59.6</v>
+      </c>
+      <c r="L37" t="n">
+        <v>21.15</v>
+      </c>
+      <c r="M37" t="s">
+        <v>20</v>
+      </c>
+      <c r="N37" t="s">
         <v>18</v>
-      </c>
-      <c r="I37" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="38">
@@ -1487,28 +2063,43 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C38" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D38" t="n">
-        <v>14.45</v>
+        <v>14.1</v>
       </c>
       <c r="E38" t="n">
-        <v>647.55</v>
+        <v>614.77</v>
       </c>
       <c r="F38" t="n">
-        <v>93.06</v>
+        <v>22.07</v>
       </c>
       <c r="G38" t="n">
-        <v>43.79</v>
-      </c>
-      <c r="H38" t="s">
-        <v>11</v>
-      </c>
-      <c r="I38" t="s">
-        <v>12</v>
+        <v>20.66</v>
+      </c>
+      <c r="H38" t="n">
+        <v>15.71</v>
+      </c>
+      <c r="I38" t="n">
+        <v>83.4</v>
+      </c>
+      <c r="J38" t="n">
+        <v>13.73</v>
+      </c>
+      <c r="K38" t="n">
+        <v>75.92</v>
+      </c>
+      <c r="L38" t="n">
+        <v>142.28</v>
+      </c>
+      <c r="M38" t="s">
+        <v>22</v>
+      </c>
+      <c r="N38" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="39">
@@ -1516,28 +2107,43 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C39" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D39" t="n">
-        <v>9.74</v>
+        <v>13.27</v>
       </c>
       <c r="E39" t="n">
-        <v>437.19</v>
+        <v>1048.33</v>
       </c>
       <c r="F39" t="n">
-        <v>64.2</v>
+        <v>19.65</v>
       </c>
       <c r="G39" t="n">
-        <v>61.91</v>
-      </c>
-      <c r="H39" t="s">
-        <v>11</v>
-      </c>
-      <c r="I39" t="s">
-        <v>12</v>
+        <v>19.18</v>
+      </c>
+      <c r="H39" t="n">
+        <v>14.22</v>
+      </c>
+      <c r="I39" t="n">
+        <v>80.35</v>
+      </c>
+      <c r="J39" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="K39" t="n">
+        <v>123.21</v>
+      </c>
+      <c r="L39" t="n">
+        <v>31.09</v>
+      </c>
+      <c r="M39" t="s">
+        <v>16</v>
+      </c>
+      <c r="N39" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="40">
@@ -1545,28 +2151,43 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C40" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D40" t="n">
-        <v>11.47</v>
+        <v>11.69</v>
       </c>
       <c r="E40" t="n">
-        <v>368.5</v>
+        <v>254.37</v>
       </c>
       <c r="F40" t="n">
-        <v>65.12</v>
+        <v>18.48</v>
       </c>
       <c r="G40" t="n">
-        <v>195.46</v>
-      </c>
-      <c r="H40" t="s">
-        <v>11</v>
-      </c>
-      <c r="I40" t="s">
-        <v>12</v>
+        <v>18.72</v>
+      </c>
+      <c r="H40" t="n">
+        <v>15.48</v>
+      </c>
+      <c r="I40" t="n">
+        <v>79.61</v>
+      </c>
+      <c r="J40" t="n">
+        <v>15.73</v>
+      </c>
+      <c r="K40" t="n">
+        <v>49.56</v>
+      </c>
+      <c r="L40" t="n">
+        <v>241.38</v>
+      </c>
+      <c r="M40" t="s">
+        <v>20</v>
+      </c>
+      <c r="N40" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="41">
@@ -1574,28 +2195,43 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C41" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D41" t="n">
-        <v>0.49</v>
+        <v>7.68</v>
       </c>
       <c r="E41" t="n">
-        <v>204.48</v>
+        <v>1007.6</v>
       </c>
       <c r="F41" t="n">
-        <v>35.15</v>
+        <v>20.48</v>
       </c>
       <c r="G41" t="n">
-        <v>130.55</v>
-      </c>
-      <c r="H41" t="s">
-        <v>15</v>
-      </c>
-      <c r="I41" t="s">
-        <v>12</v>
+        <v>21.12</v>
+      </c>
+      <c r="H41" t="n">
+        <v>15.19</v>
+      </c>
+      <c r="I41" t="n">
+        <v>79</v>
+      </c>
+      <c r="J41" t="n">
+        <v>15.99</v>
+      </c>
+      <c r="K41" t="n">
+        <v>110.6</v>
+      </c>
+      <c r="L41" t="n">
+        <v>204.12</v>
+      </c>
+      <c r="M41" t="s">
+        <v>22</v>
+      </c>
+      <c r="N41" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="42">
@@ -1603,28 +2239,43 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C42" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D42" t="n">
-        <v>10.6</v>
+        <v>7.05</v>
       </c>
       <c r="E42" t="n">
-        <v>491.14</v>
+        <v>308.59</v>
       </c>
       <c r="F42" t="n">
-        <v>47.86</v>
+        <v>18.39</v>
       </c>
       <c r="G42" t="n">
-        <v>213.98</v>
-      </c>
-      <c r="H42" t="s">
-        <v>17</v>
-      </c>
-      <c r="I42" t="s">
-        <v>13</v>
+        <v>19.1</v>
+      </c>
+      <c r="H42" t="n">
+        <v>16.35</v>
+      </c>
+      <c r="I42" t="n">
+        <v>79.25</v>
+      </c>
+      <c r="J42" t="n">
+        <v>17.08</v>
+      </c>
+      <c r="K42" t="n">
+        <v>51.99</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1049.97</v>
+      </c>
+      <c r="M42" t="s">
+        <v>22</v>
+      </c>
+      <c r="N42" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="43">
@@ -1632,28 +2283,43 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C43" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D43" t="n">
-        <v>6.3</v>
+        <v>3.99</v>
       </c>
       <c r="E43" t="n">
-        <v>694.65</v>
+        <v>554.62</v>
       </c>
       <c r="F43" t="n">
-        <v>54.42</v>
+        <v>19.54</v>
       </c>
       <c r="G43" t="n">
-        <v>277.25</v>
-      </c>
-      <c r="H43" t="s">
-        <v>17</v>
-      </c>
-      <c r="I43" t="s">
-        <v>13</v>
+        <v>18.69</v>
+      </c>
+      <c r="H43" t="n">
+        <v>15.61</v>
+      </c>
+      <c r="I43" t="n">
+        <v>81.89</v>
+      </c>
+      <c r="J43" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K43" t="n">
+        <v>52.54</v>
+      </c>
+      <c r="L43" t="n">
+        <v>420.44</v>
+      </c>
+      <c r="M43" t="s">
+        <v>22</v>
+      </c>
+      <c r="N43" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="44">
@@ -1661,28 +2327,43 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C44" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D44" t="n">
-        <v>9.57</v>
+        <v>8.85</v>
       </c>
       <c r="E44" t="n">
-        <v>457.02</v>
+        <v>447.11</v>
       </c>
       <c r="F44" t="n">
-        <v>52.37</v>
+        <v>15.01</v>
       </c>
       <c r="G44" t="n">
-        <v>253.24</v>
-      </c>
-      <c r="H44" t="s">
-        <v>15</v>
-      </c>
-      <c r="I44" t="s">
-        <v>13</v>
+        <v>16.34</v>
+      </c>
+      <c r="H44" t="n">
+        <v>12.76</v>
+      </c>
+      <c r="I44" t="n">
+        <v>75.33</v>
+      </c>
+      <c r="J44" t="n">
+        <v>14.91</v>
+      </c>
+      <c r="K44" t="n">
+        <v>54.27</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1100.8</v>
+      </c>
+      <c r="M44" t="s">
+        <v>20</v>
+      </c>
+      <c r="N44" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="45">
@@ -1690,28 +2371,43 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C45" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D45" t="n">
-        <v>7.62</v>
+        <v>6.97</v>
       </c>
       <c r="E45" t="n">
-        <v>513.29</v>
+        <v>654.27</v>
       </c>
       <c r="F45" t="n">
-        <v>50.43</v>
+        <v>18.34</v>
       </c>
       <c r="G45" t="n">
-        <v>486.6</v>
-      </c>
-      <c r="H45" t="s">
-        <v>15</v>
-      </c>
-      <c r="I45" t="s">
-        <v>13</v>
+        <v>17.35</v>
+      </c>
+      <c r="H45" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="I45" t="n">
+        <v>81.15</v>
+      </c>
+      <c r="J45" t="n">
+        <v>13.13</v>
+      </c>
+      <c r="K45" t="n">
+        <v>59.78</v>
+      </c>
+      <c r="L45" t="n">
+        <v>409.38</v>
+      </c>
+      <c r="M45" t="s">
+        <v>22</v>
+      </c>
+      <c r="N45" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="46">
@@ -1719,28 +2415,43 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C46" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D46" t="n">
-        <v>8.65</v>
+        <v>8.84</v>
       </c>
       <c r="E46" t="n">
-        <v>405.3</v>
+        <v>364.9</v>
       </c>
       <c r="F46" t="n">
-        <v>53.58</v>
+        <v>21.95</v>
       </c>
       <c r="G46" t="n">
-        <v>702.69</v>
-      </c>
-      <c r="H46" t="s">
-        <v>15</v>
-      </c>
-      <c r="I46" t="s">
-        <v>13</v>
+        <v>22.31</v>
+      </c>
+      <c r="H46" t="n">
+        <v>18.01</v>
+      </c>
+      <c r="I46" t="n">
+        <v>81.49</v>
+      </c>
+      <c r="J46" t="n">
+        <v>17.98</v>
+      </c>
+      <c r="K46" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="L46" t="n">
+        <v>63.24</v>
+      </c>
+      <c r="M46" t="s">
+        <v>25</v>
+      </c>
+      <c r="N46" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="47">
@@ -1748,28 +2459,43 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C47" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="E47" t="n">
+        <v>429.18</v>
+      </c>
+      <c r="F47" t="n">
+        <v>17.68</v>
+      </c>
+      <c r="G47" t="n">
+        <v>18.77</v>
+      </c>
+      <c r="H47" t="n">
+        <v>14.42</v>
+      </c>
+      <c r="I47" t="n">
+        <v>77.24</v>
+      </c>
+      <c r="J47" t="n">
+        <v>15.96</v>
+      </c>
+      <c r="K47" t="n">
+        <v>41.08</v>
+      </c>
+      <c r="L47" t="n">
+        <v>423.07</v>
+      </c>
+      <c r="M47" t="s">
         <v>16</v>
       </c>
-      <c r="D47" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="E47" t="n">
-        <v>445.34</v>
-      </c>
-      <c r="F47" t="n">
-        <v>53.2</v>
-      </c>
-      <c r="G47" t="n">
-        <v>207.16</v>
-      </c>
-      <c r="H47" t="s">
-        <v>14</v>
-      </c>
-      <c r="I47" t="s">
-        <v>12</v>
+      <c r="N47" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="48">
@@ -1777,28 +2503,43 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C48" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D48" t="n">
-        <v>9.4</v>
+        <v>6.6</v>
       </c>
       <c r="E48" t="n">
-        <v>236.4</v>
+        <v>629.58</v>
       </c>
       <c r="F48" t="n">
-        <v>53.21</v>
+        <v>21.42</v>
       </c>
       <c r="G48" t="n">
-        <v>119.79</v>
-      </c>
-      <c r="H48" t="s">
-        <v>14</v>
-      </c>
-      <c r="I48" t="s">
-        <v>13</v>
+        <v>21.38</v>
+      </c>
+      <c r="H48" t="n">
+        <v>15.87</v>
+      </c>
+      <c r="I48" t="n">
+        <v>80.84</v>
+      </c>
+      <c r="J48" t="n">
+        <v>15.66</v>
+      </c>
+      <c r="K48" t="n">
+        <v>49.68</v>
+      </c>
+      <c r="L48" t="n">
+        <v>550.97</v>
+      </c>
+      <c r="M48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N48" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="49">
@@ -1806,28 +2547,43 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C49" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D49" t="n">
-        <v>8.99</v>
+        <v>4.19</v>
       </c>
       <c r="E49" t="n">
-        <v>121.5</v>
+        <v>192.66</v>
       </c>
       <c r="F49" t="n">
-        <v>43.06</v>
+        <v>15.14</v>
       </c>
       <c r="G49" t="n">
-        <v>237.09</v>
-      </c>
-      <c r="H49" t="s">
-        <v>11</v>
-      </c>
-      <c r="I49" t="s">
-        <v>13</v>
+        <v>16.3</v>
+      </c>
+      <c r="H49" t="n">
+        <v>11.47</v>
+      </c>
+      <c r="I49" t="n">
+        <v>74.89</v>
+      </c>
+      <c r="J49" t="n">
+        <v>13.59</v>
+      </c>
+      <c r="K49" t="n">
+        <v>43.28</v>
+      </c>
+      <c r="L49" t="n">
+        <v>873.28</v>
+      </c>
+      <c r="M49" t="s">
+        <v>22</v>
+      </c>
+      <c r="N49" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/data/fleas_model_data.xlsx
+++ b/data/fleas_model_data.xlsx
@@ -491,16 +491,16 @@
         <v>516.41</v>
       </c>
       <c r="F2" t="n">
-        <v>19.31</v>
+        <v>39.31</v>
       </c>
       <c r="G2" t="n">
         <v>17.93</v>
       </c>
       <c r="H2" t="n">
-        <v>1.9</v>
+        <v>6.9</v>
       </c>
       <c r="I2" t="n">
-        <v>120.56</v>
+        <v>110.56</v>
       </c>
       <c r="J2" t="n">
         <v>45.59</v>
@@ -535,16 +535,16 @@
         <v>363.5</v>
       </c>
       <c r="F3" t="n">
-        <v>20.48</v>
+        <v>40.48</v>
       </c>
       <c r="G3" t="n">
         <v>21.04</v>
       </c>
       <c r="H3" t="n">
-        <v>8.39</v>
+        <v>13.39</v>
       </c>
       <c r="I3" t="n">
-        <v>121.13</v>
+        <v>111.13</v>
       </c>
       <c r="J3" t="n">
         <v>53.58</v>
@@ -579,16 +579,16 @@
         <v>303.01</v>
       </c>
       <c r="F4" t="n">
-        <v>17.32</v>
+        <v>37.32</v>
       </c>
       <c r="G4" t="n">
         <v>17.49</v>
       </c>
       <c r="H4" t="n">
-        <v>4.18</v>
+        <v>9.18</v>
       </c>
       <c r="I4" t="n">
-        <v>118.77</v>
+        <v>108.77</v>
       </c>
       <c r="J4" t="n">
         <v>49.55</v>
@@ -623,16 +623,16 @@
         <v>257.13</v>
       </c>
       <c r="F5" t="n">
-        <v>18.35</v>
+        <v>38.35</v>
       </c>
       <c r="G5" t="n">
         <v>18.55</v>
       </c>
       <c r="H5" t="n">
-        <v>2.81</v>
+        <v>7.81</v>
       </c>
       <c r="I5" t="n">
-        <v>118.02</v>
+        <v>108.02</v>
       </c>
       <c r="J5" t="n">
         <v>48.43</v>
@@ -667,16 +667,16 @@
         <v>254.16</v>
       </c>
       <c r="F6" t="n">
-        <v>21.05</v>
+        <v>41.05</v>
       </c>
       <c r="G6" t="n">
         <v>21.36</v>
       </c>
       <c r="H6" t="n">
-        <v>5.81</v>
+        <v>10.81</v>
       </c>
       <c r="I6" t="n">
-        <v>120.1</v>
+        <v>110.1</v>
       </c>
       <c r="J6" t="n">
         <v>51.07</v>
@@ -711,16 +711,16 @@
         <v>604.06</v>
       </c>
       <c r="F7" t="n">
-        <v>19.67</v>
+        <v>39.67</v>
       </c>
       <c r="G7" t="n">
         <v>19.92</v>
       </c>
       <c r="H7" t="n">
-        <v>7.46</v>
+        <v>12.46</v>
       </c>
       <c r="I7" t="n">
-        <v>121.01</v>
+        <v>111.01</v>
       </c>
       <c r="J7" t="n">
         <v>52.4</v>
@@ -755,16 +755,16 @@
         <v>828.59</v>
       </c>
       <c r="F8" t="n">
-        <v>21.99</v>
+        <v>41.99</v>
       </c>
       <c r="G8" t="n">
         <v>22.5</v>
       </c>
       <c r="H8" t="n">
-        <v>4.9</v>
+        <v>9.9</v>
       </c>
       <c r="I8" t="n">
-        <v>119.3</v>
+        <v>109.3</v>
       </c>
       <c r="J8" t="n">
         <v>50.57</v>
@@ -799,16 +799,16 @@
         <v>818.44</v>
       </c>
       <c r="F9" t="n">
-        <v>16.88</v>
+        <v>36.88</v>
       </c>
       <c r="G9" t="n">
         <v>17.28</v>
       </c>
       <c r="H9" t="n">
-        <v>3.82</v>
+        <v>8.82</v>
       </c>
       <c r="I9" t="n">
-        <v>118.05</v>
+        <v>108.05</v>
       </c>
       <c r="J9" t="n">
         <v>49.55</v>
@@ -843,10 +843,10 @@
         <v>595.05</v>
       </c>
       <c r="F10" t="n">
-        <v>17.68</v>
+        <v>27.68</v>
       </c>
       <c r="G10" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="H10" t="n">
         <v>3</v>
@@ -855,7 +855,7 @@
         <v>117.8</v>
       </c>
       <c r="J10" t="n">
-        <v>48.76</v>
+        <v>68.76</v>
       </c>
       <c r="K10" t="n">
         <v>69.48</v>
@@ -887,10 +887,10 @@
         <v>294.64</v>
       </c>
       <c r="F11" t="n">
-        <v>19.02</v>
+        <v>29.02</v>
       </c>
       <c r="G11" t="n">
-        <v>18.94</v>
+        <v>8.94</v>
       </c>
       <c r="H11" t="n">
         <v>3.45</v>
@@ -899,7 +899,7 @@
         <v>119.05</v>
       </c>
       <c r="J11" t="n">
-        <v>48.59</v>
+        <v>68.59</v>
       </c>
       <c r="K11" t="n">
         <v>57.17</v>
@@ -931,10 +931,10 @@
         <v>460.29</v>
       </c>
       <c r="F12" t="n">
-        <v>18.37</v>
+        <v>28.37</v>
       </c>
       <c r="G12" t="n">
-        <v>18.62</v>
+        <v>8.62</v>
       </c>
       <c r="H12" t="n">
         <v>9.11</v>
@@ -943,7 +943,7 @@
         <v>121.83</v>
       </c>
       <c r="J12" t="n">
-        <v>53.78</v>
+        <v>73.78</v>
       </c>
       <c r="K12" t="n">
         <v>47.21</v>
@@ -975,10 +975,10 @@
         <v>183.54</v>
       </c>
       <c r="F13" t="n">
-        <v>19.99</v>
+        <v>29.99</v>
       </c>
       <c r="G13" t="n">
-        <v>19.78</v>
+        <v>9.78</v>
       </c>
       <c r="H13" t="n">
         <v>3.79</v>
@@ -987,7 +987,7 @@
         <v>119.64</v>
       </c>
       <c r="J13" t="n">
-        <v>48.71</v>
+        <v>68.71</v>
       </c>
       <c r="K13" t="n">
         <v>46.99</v>
@@ -1019,10 +1019,10 @@
         <v>522.25</v>
       </c>
       <c r="F14" t="n">
-        <v>15.95</v>
+        <v>25.95</v>
       </c>
       <c r="G14" t="n">
-        <v>17.32</v>
+        <v>7.32</v>
       </c>
       <c r="H14" t="n">
         <v>1.25</v>
@@ -1031,7 +1031,7 @@
         <v>114.48</v>
       </c>
       <c r="J14" t="n">
-        <v>48.68</v>
+        <v>68.68</v>
       </c>
       <c r="K14" t="n">
         <v>59.84</v>
@@ -1063,10 +1063,10 @@
         <v>486.27</v>
       </c>
       <c r="F15" t="n">
-        <v>19.44</v>
+        <v>29.44</v>
       </c>
       <c r="G15" t="n">
-        <v>19.94</v>
+        <v>9.94</v>
       </c>
       <c r="H15" t="n">
         <v>7.51</v>
@@ -1075,7 +1075,7 @@
         <v>120.53</v>
       </c>
       <c r="J15" t="n">
-        <v>52.77</v>
+        <v>72.77</v>
       </c>
       <c r="K15" t="n">
         <v>59.81</v>
@@ -1107,10 +1107,10 @@
         <v>424.9</v>
       </c>
       <c r="F16" t="n">
-        <v>21.01</v>
+        <v>31.01</v>
       </c>
       <c r="G16" t="n">
-        <v>19.94</v>
+        <v>9.94</v>
       </c>
       <c r="H16" t="n">
         <v>2.23</v>
@@ -1119,7 +1119,7 @@
         <v>120.45</v>
       </c>
       <c r="J16" t="n">
-        <v>46.26</v>
+        <v>66.26</v>
       </c>
       <c r="K16" t="n">
         <v>66.55</v>
@@ -1151,10 +1151,10 @@
         <v>475.93</v>
       </c>
       <c r="F17" t="n">
-        <v>19.64</v>
+        <v>29.64</v>
       </c>
       <c r="G17" t="n">
-        <v>19.66</v>
+        <v>9.66</v>
       </c>
       <c r="H17" t="n">
         <v>3.21</v>
@@ -1163,7 +1163,7 @@
         <v>118.8</v>
       </c>
       <c r="J17" t="n">
-        <v>48.52</v>
+        <v>68.52</v>
       </c>
       <c r="K17" t="n">
         <v>51.12</v>
@@ -1195,7 +1195,7 @@
         <v>642.75</v>
       </c>
       <c r="F18" t="n">
-        <v>47.09</v>
+        <v>17.09</v>
       </c>
       <c r="G18" t="n">
         <v>16.6</v>
@@ -1204,7 +1204,7 @@
         <v>0.73</v>
       </c>
       <c r="I18" t="n">
-        <v>157.82</v>
+        <v>117.82</v>
       </c>
       <c r="J18" t="n">
         <v>15.79</v>
@@ -1239,7 +1239,7 @@
         <v>302.72</v>
       </c>
       <c r="F19" t="n">
-        <v>49.57</v>
+        <v>19.57</v>
       </c>
       <c r="G19" t="n">
         <v>20.24</v>
@@ -1248,7 +1248,7 @@
         <v>5.15</v>
       </c>
       <c r="I19" t="n">
-        <v>158.77</v>
+        <v>118.77</v>
       </c>
       <c r="J19" t="n">
         <v>21.01</v>
@@ -1283,7 +1283,7 @@
         <v>183.81</v>
       </c>
       <c r="F20" t="n">
-        <v>47.42</v>
+        <v>17.42</v>
       </c>
       <c r="G20" t="n">
         <v>17.29</v>
@@ -1292,7 +1292,7 @@
         <v>1.76</v>
       </c>
       <c r="I20" t="n">
-        <v>157.84</v>
+        <v>117.84</v>
       </c>
       <c r="J20" t="n">
         <v>17.12</v>
@@ -1327,7 +1327,7 @@
         <v>504.66</v>
       </c>
       <c r="F21" t="n">
-        <v>51.28</v>
+        <v>21.28</v>
       </c>
       <c r="G21" t="n">
         <v>20.93</v>
@@ -1336,7 +1336,7 @@
         <v>7.6</v>
       </c>
       <c r="I21" t="n">
-        <v>162.46</v>
+        <v>122.46</v>
       </c>
       <c r="J21" t="n">
         <v>21.72</v>
@@ -1371,7 +1371,7 @@
         <v>380.48</v>
       </c>
       <c r="F22" t="n">
-        <v>52.85</v>
+        <v>22.85</v>
       </c>
       <c r="G22" t="n">
         <v>22.65</v>
@@ -1380,7 +1380,7 @@
         <v>4.68</v>
       </c>
       <c r="I22" t="n">
-        <v>160.63</v>
+        <v>120.63</v>
       </c>
       <c r="J22" t="n">
         <v>19.44</v>
@@ -1415,7 +1415,7 @@
         <v>131.11</v>
       </c>
       <c r="F23" t="n">
-        <v>49.98</v>
+        <v>19.98</v>
       </c>
       <c r="G23" t="n">
         <v>20.23</v>
@@ -1424,7 +1424,7 @@
         <v>6.59</v>
       </c>
       <c r="I23" t="n">
-        <v>160.51</v>
+        <v>120.51</v>
       </c>
       <c r="J23" t="n">
         <v>21.67</v>
@@ -1459,7 +1459,7 @@
         <v>264.4</v>
       </c>
       <c r="F24" t="n">
-        <v>51.73</v>
+        <v>21.73</v>
       </c>
       <c r="G24" t="n">
         <v>22.34</v>
@@ -1468,7 +1468,7 @@
         <v>7.41</v>
       </c>
       <c r="I24" t="n">
-        <v>160.63</v>
+        <v>120.63</v>
       </c>
       <c r="J24" t="n">
         <v>22.8</v>
@@ -1503,7 +1503,7 @@
         <v>492.03</v>
       </c>
       <c r="F25" t="n">
-        <v>52.27</v>
+        <v>22.27</v>
       </c>
       <c r="G25" t="n">
         <v>23.29</v>
@@ -1512,7 +1512,7 @@
         <v>9.54</v>
       </c>
       <c r="I25" t="n">
-        <v>161.26</v>
+        <v>121.26</v>
       </c>
       <c r="J25" t="n">
         <v>25.13</v>
@@ -1547,16 +1547,16 @@
         <v>610.66</v>
       </c>
       <c r="F26" t="n">
-        <v>49.65</v>
+        <v>39.65</v>
       </c>
       <c r="G26" t="n">
-        <v>19.32</v>
+        <v>9.32</v>
       </c>
       <c r="H26" t="n">
-        <v>6.7</v>
+        <v>11.7</v>
       </c>
       <c r="I26" t="n">
-        <v>161.62</v>
+        <v>141.62</v>
       </c>
       <c r="J26" t="n">
         <v>20.99</v>
@@ -1591,16 +1591,16 @@
         <v>152.78</v>
       </c>
       <c r="F27" t="n">
-        <v>48.2</v>
+        <v>38.2</v>
       </c>
       <c r="G27" t="n">
-        <v>17.36</v>
+        <v>7.36</v>
       </c>
       <c r="H27" t="n">
-        <v>4.57</v>
+        <v>9.57</v>
       </c>
       <c r="I27" t="n">
-        <v>161.02</v>
+        <v>141.02</v>
       </c>
       <c r="J27" t="n">
         <v>18.56</v>
@@ -1635,16 +1635,16 @@
         <v>815.91</v>
       </c>
       <c r="F28" t="n">
-        <v>51.16</v>
+        <v>41.16</v>
       </c>
       <c r="G28" t="n">
-        <v>21.72</v>
+        <v>11.72</v>
       </c>
       <c r="H28" t="n">
-        <v>7.11</v>
+        <v>12.11</v>
       </c>
       <c r="I28" t="n">
-        <v>160.45</v>
+        <v>140.45</v>
       </c>
       <c r="J28" t="n">
         <v>22.49</v>
@@ -1679,16 +1679,16 @@
         <v>615.64</v>
       </c>
       <c r="F29" t="n">
-        <v>52.22</v>
+        <v>42.22</v>
       </c>
       <c r="G29" t="n">
-        <v>21.23</v>
+        <v>11.23</v>
       </c>
       <c r="H29" t="n">
-        <v>7.47</v>
+        <v>12.47</v>
       </c>
       <c r="I29" t="n">
-        <v>163.73</v>
+        <v>143.73</v>
       </c>
       <c r="J29" t="n">
         <v>20.75</v>
@@ -1723,16 +1723,16 @@
         <v>707.14</v>
       </c>
       <c r="F30" t="n">
-        <v>50.89</v>
+        <v>40.89</v>
       </c>
       <c r="G30" t="n">
-        <v>20.83</v>
+        <v>10.83</v>
       </c>
       <c r="H30" t="n">
-        <v>5.77</v>
+        <v>10.77</v>
       </c>
       <c r="I30" t="n">
-        <v>160.72</v>
+        <v>140.72</v>
       </c>
       <c r="J30" t="n">
         <v>20.57</v>
@@ -1767,16 +1767,16 @@
         <v>237.03</v>
       </c>
       <c r="F31" t="n">
-        <v>49.07</v>
+        <v>39.07</v>
       </c>
       <c r="G31" t="n">
-        <v>18.25</v>
+        <v>8.25</v>
       </c>
       <c r="H31" t="n">
-        <v>1.89</v>
+        <v>6.89</v>
       </c>
       <c r="I31" t="n">
-        <v>159.46</v>
+        <v>139.46</v>
       </c>
       <c r="J31" t="n">
         <v>16.32</v>
@@ -1811,16 +1811,16 @@
         <v>267.33</v>
       </c>
       <c r="F32" t="n">
-        <v>52.22</v>
+        <v>42.22</v>
       </c>
       <c r="G32" t="n">
-        <v>23.22</v>
+        <v>13.22</v>
       </c>
       <c r="H32" t="n">
-        <v>8.05</v>
+        <v>13.05</v>
       </c>
       <c r="I32" t="n">
-        <v>160.36</v>
+        <v>140.36</v>
       </c>
       <c r="J32" t="n">
         <v>23.86</v>
@@ -1855,16 +1855,16 @@
         <v>319.09</v>
       </c>
       <c r="F33" t="n">
-        <v>46.99</v>
+        <v>36.99</v>
       </c>
       <c r="G33" t="n">
-        <v>17.66</v>
+        <v>7.66</v>
       </c>
       <c r="H33" t="n">
-        <v>3.38</v>
+        <v>8.38</v>
       </c>
       <c r="I33" t="n">
-        <v>157.27</v>
+        <v>137.27</v>
       </c>
       <c r="J33" t="n">
         <v>19.54</v>
@@ -1908,7 +1908,7 @@
         <v>13.04</v>
       </c>
       <c r="I34" t="n">
-        <v>77.32</v>
+        <v>97.32</v>
       </c>
       <c r="J34" t="n">
         <v>14.3</v>
@@ -1952,7 +1952,7 @@
         <v>14.2</v>
       </c>
       <c r="I35" t="n">
-        <v>80.04</v>
+        <v>100.04</v>
       </c>
       <c r="J35" t="n">
         <v>13.9</v>
@@ -1996,7 +1996,7 @@
         <v>8.69</v>
       </c>
       <c r="I36" t="n">
-        <v>76.43</v>
+        <v>96.43</v>
       </c>
       <c r="J36" t="n">
         <v>8.98</v>
@@ -2040,7 +2040,7 @@
         <v>13.18</v>
       </c>
       <c r="I37" t="n">
-        <v>81.29</v>
+        <v>101.29</v>
       </c>
       <c r="J37" t="n">
         <v>11.97</v>
@@ -2084,7 +2084,7 @@
         <v>15.71</v>
       </c>
       <c r="I38" t="n">
-        <v>83.4</v>
+        <v>103.4</v>
       </c>
       <c r="J38" t="n">
         <v>13.73</v>
@@ -2128,7 +2128,7 @@
         <v>14.22</v>
       </c>
       <c r="I39" t="n">
-        <v>80.35</v>
+        <v>100.35</v>
       </c>
       <c r="J39" t="n">
         <v>13.72</v>
@@ -2172,7 +2172,7 @@
         <v>15.48</v>
       </c>
       <c r="I40" t="n">
-        <v>79.61</v>
+        <v>99.61</v>
       </c>
       <c r="J40" t="n">
         <v>15.73</v>
@@ -2216,7 +2216,7 @@
         <v>15.19</v>
       </c>
       <c r="I41" t="n">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="J41" t="n">
         <v>15.99</v>
@@ -2251,7 +2251,7 @@
         <v>308.59</v>
       </c>
       <c r="F42" t="n">
-        <v>18.39</v>
+        <v>28.39</v>
       </c>
       <c r="G42" t="n">
         <v>19.1</v>
@@ -2295,7 +2295,7 @@
         <v>554.62</v>
       </c>
       <c r="F43" t="n">
-        <v>19.54</v>
+        <v>29.54</v>
       </c>
       <c r="G43" t="n">
         <v>18.69</v>
@@ -2339,7 +2339,7 @@
         <v>447.11</v>
       </c>
       <c r="F44" t="n">
-        <v>15.01</v>
+        <v>25.01</v>
       </c>
       <c r="G44" t="n">
         <v>16.34</v>
@@ -2383,7 +2383,7 @@
         <v>654.27</v>
       </c>
       <c r="F45" t="n">
-        <v>18.34</v>
+        <v>28.34</v>
       </c>
       <c r="G45" t="n">
         <v>17.35</v>
@@ -2427,7 +2427,7 @@
         <v>364.9</v>
       </c>
       <c r="F46" t="n">
-        <v>21.95</v>
+        <v>31.95</v>
       </c>
       <c r="G46" t="n">
         <v>22.31</v>
@@ -2471,7 +2471,7 @@
         <v>429.18</v>
       </c>
       <c r="F47" t="n">
-        <v>17.68</v>
+        <v>27.68</v>
       </c>
       <c r="G47" t="n">
         <v>18.77</v>
@@ -2515,7 +2515,7 @@
         <v>629.58</v>
       </c>
       <c r="F48" t="n">
-        <v>21.42</v>
+        <v>31.42</v>
       </c>
       <c r="G48" t="n">
         <v>21.38</v>
@@ -2559,7 +2559,7 @@
         <v>192.66</v>
       </c>
       <c r="F49" t="n">
-        <v>15.14</v>
+        <v>25.14</v>
       </c>
       <c r="G49" t="n">
         <v>16.3</v>

--- a/data/fleas_model_data.xlsx
+++ b/data/fleas_model_data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t xml:space="preserve">.id</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t xml:space="preserve">infected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M</t>
   </si>
   <si>
     <t xml:space="preserve">sugar_water</t>
@@ -473,16 +476,19 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
         <v>16.42</v>
@@ -491,19 +497,19 @@
         <v>516.41</v>
       </c>
       <c r="F2" t="n">
-        <v>39.31</v>
+        <v>39.28</v>
       </c>
       <c r="G2" t="n">
-        <v>17.93</v>
+        <v>17.79</v>
       </c>
       <c r="H2" t="n">
-        <v>6.9</v>
+        <v>6.57</v>
       </c>
       <c r="I2" t="n">
-        <v>110.56</v>
+        <v>110.66</v>
       </c>
       <c r="J2" t="n">
-        <v>45.59</v>
+        <v>46.38</v>
       </c>
       <c r="K2" t="n">
         <v>70.9</v>
@@ -512,10 +518,13 @@
         <v>63.4</v>
       </c>
       <c r="M2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="O2" t="n">
+        <v>3.74</v>
       </c>
     </row>
     <row r="3">
@@ -523,10 +532,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" t="n">
         <v>12.62</v>
@@ -535,19 +544,19 @@
         <v>363.5</v>
       </c>
       <c r="F3" t="n">
-        <v>40.48</v>
+        <v>41.84</v>
       </c>
       <c r="G3" t="n">
-        <v>21.04</v>
+        <v>20.99</v>
       </c>
       <c r="H3" t="n">
-        <v>13.39</v>
+        <v>11.85</v>
       </c>
       <c r="I3" t="n">
-        <v>111.13</v>
+        <v>112.99</v>
       </c>
       <c r="J3" t="n">
-        <v>53.58</v>
+        <v>48.15</v>
       </c>
       <c r="K3" t="n">
         <v>50.75</v>
@@ -556,10 +565,13 @@
         <v>53.96</v>
       </c>
       <c r="M3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N3" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.56</v>
       </c>
     </row>
     <row r="4">
@@ -567,10 +579,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" t="n">
         <v>15.57</v>
@@ -579,19 +591,19 @@
         <v>303.01</v>
       </c>
       <c r="F4" t="n">
-        <v>37.32</v>
+        <v>39.71</v>
       </c>
       <c r="G4" t="n">
-        <v>17.49</v>
+        <v>20.08</v>
       </c>
       <c r="H4" t="n">
-        <v>9.18</v>
+        <v>8.97</v>
       </c>
       <c r="I4" t="n">
-        <v>108.77</v>
+        <v>108.59</v>
       </c>
       <c r="J4" t="n">
-        <v>49.55</v>
+        <v>47.86</v>
       </c>
       <c r="K4" t="n">
         <v>62.22</v>
@@ -600,10 +612,13 @@
         <v>120.44</v>
       </c>
       <c r="M4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" t="s">
         <v>19</v>
       </c>
-      <c r="N4" t="s">
-        <v>18</v>
+      <c r="O4" t="n">
+        <v>2.59</v>
       </c>
     </row>
     <row r="5">
@@ -611,10 +626,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" t="n">
         <v>24.39</v>
@@ -623,19 +638,19 @@
         <v>257.13</v>
       </c>
       <c r="F5" t="n">
-        <v>38.35</v>
+        <v>41.7</v>
       </c>
       <c r="G5" t="n">
-        <v>18.55</v>
+        <v>20.31</v>
       </c>
       <c r="H5" t="n">
-        <v>7.81</v>
+        <v>9.93</v>
       </c>
       <c r="I5" t="n">
-        <v>108.02</v>
+        <v>112.93</v>
       </c>
       <c r="J5" t="n">
-        <v>48.43</v>
+        <v>50.14</v>
       </c>
       <c r="K5" t="n">
         <v>66.07</v>
@@ -644,10 +659,13 @@
         <v>191.11</v>
       </c>
       <c r="M5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N5" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="O5" t="n">
+        <v>5.9</v>
       </c>
     </row>
     <row r="6">
@@ -655,10 +673,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" t="n">
         <v>16.45</v>
@@ -667,19 +685,19 @@
         <v>254.16</v>
       </c>
       <c r="F6" t="n">
-        <v>41.05</v>
+        <v>39.4</v>
       </c>
       <c r="G6" t="n">
-        <v>21.36</v>
+        <v>18.93</v>
       </c>
       <c r="H6" t="n">
-        <v>10.81</v>
+        <v>8.89</v>
       </c>
       <c r="I6" t="n">
-        <v>110.1</v>
+        <v>110.19</v>
       </c>
       <c r="J6" t="n">
-        <v>51.07</v>
+        <v>51.76</v>
       </c>
       <c r="K6" t="n">
         <v>62.58</v>
@@ -688,10 +706,13 @@
         <v>164.31</v>
       </c>
       <c r="M6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N6" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="O6" t="n">
+        <v>8.58</v>
       </c>
     </row>
     <row r="7">
@@ -699,10 +720,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" t="n">
         <v>14.8</v>
@@ -711,19 +732,19 @@
         <v>604.06</v>
       </c>
       <c r="F7" t="n">
-        <v>39.67</v>
+        <v>41.84</v>
       </c>
       <c r="G7" t="n">
-        <v>19.92</v>
+        <v>22.6</v>
       </c>
       <c r="H7" t="n">
-        <v>12.46</v>
+        <v>10.32</v>
       </c>
       <c r="I7" t="n">
-        <v>111.01</v>
+        <v>109.06</v>
       </c>
       <c r="J7" t="n">
-        <v>52.4</v>
+        <v>50.95</v>
       </c>
       <c r="K7" t="n">
         <v>74.44</v>
@@ -732,10 +753,13 @@
         <v>25.31</v>
       </c>
       <c r="M7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N7" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="O7" t="n">
+        <v>4.99</v>
       </c>
     </row>
     <row r="8">
@@ -743,10 +767,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D8" t="n">
         <v>17.02</v>
@@ -755,19 +779,19 @@
         <v>828.59</v>
       </c>
       <c r="F8" t="n">
-        <v>41.99</v>
+        <v>36.6</v>
       </c>
       <c r="G8" t="n">
-        <v>22.5</v>
+        <v>16.2</v>
       </c>
       <c r="H8" t="n">
-        <v>9.9</v>
+        <v>8.2</v>
       </c>
       <c r="I8" t="n">
-        <v>109.3</v>
+        <v>109.07</v>
       </c>
       <c r="J8" t="n">
-        <v>50.57</v>
+        <v>46.88</v>
       </c>
       <c r="K8" t="n">
         <v>82.95</v>
@@ -776,10 +800,13 @@
         <v>68.38</v>
       </c>
       <c r="M8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N8" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="O8" t="n">
+        <v>3.18</v>
       </c>
     </row>
     <row r="9">
@@ -787,10 +814,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D9" t="n">
         <v>18.19</v>
@@ -799,19 +826,19 @@
         <v>818.44</v>
       </c>
       <c r="F9" t="n">
-        <v>36.88</v>
+        <v>38.24</v>
       </c>
       <c r="G9" t="n">
-        <v>17.28</v>
+        <v>17.83</v>
       </c>
       <c r="H9" t="n">
-        <v>8.82</v>
+        <v>9.4</v>
       </c>
       <c r="I9" t="n">
-        <v>108.05</v>
+        <v>110.06</v>
       </c>
       <c r="J9" t="n">
-        <v>49.55</v>
+        <v>46.66</v>
       </c>
       <c r="K9" t="n">
         <v>81.21</v>
@@ -820,10 +847,13 @@
         <v>115.11</v>
       </c>
       <c r="M9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N9" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.71</v>
       </c>
     </row>
     <row r="10">
@@ -831,10 +861,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="n">
         <v>7.31</v>
@@ -843,19 +873,19 @@
         <v>595.05</v>
       </c>
       <c r="F10" t="n">
-        <v>27.68</v>
+        <v>29.14</v>
       </c>
       <c r="G10" t="n">
-        <v>8</v>
+        <v>10.36</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>3.21</v>
       </c>
       <c r="I10" t="n">
-        <v>117.8</v>
+        <v>116.54</v>
       </c>
       <c r="J10" t="n">
-        <v>68.76</v>
+        <v>63.32</v>
       </c>
       <c r="K10" t="n">
         <v>69.48</v>
@@ -864,10 +894,13 @@
         <v>22.49</v>
       </c>
       <c r="M10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N10" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="O10" t="n">
+        <v>9.81</v>
       </c>
     </row>
     <row r="11">
@@ -875,10 +908,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" t="n">
         <v>4.62</v>
@@ -887,19 +920,19 @@
         <v>294.64</v>
       </c>
       <c r="F11" t="n">
-        <v>29.02</v>
+        <v>32.04</v>
       </c>
       <c r="G11" t="n">
-        <v>8.94</v>
+        <v>12.38</v>
       </c>
       <c r="H11" t="n">
-        <v>3.45</v>
+        <v>6.12</v>
       </c>
       <c r="I11" t="n">
-        <v>119.05</v>
+        <v>120.37</v>
       </c>
       <c r="J11" t="n">
-        <v>68.59</v>
+        <v>60.65</v>
       </c>
       <c r="K11" t="n">
         <v>57.17</v>
@@ -908,10 +941,13 @@
         <v>27.88</v>
       </c>
       <c r="M11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N11" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="O11" t="n">
+        <v>4.36</v>
       </c>
     </row>
     <row r="12">
@@ -919,10 +955,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" t="n">
         <v>3.26</v>
@@ -931,19 +967,19 @@
         <v>460.29</v>
       </c>
       <c r="F12" t="n">
-        <v>28.37</v>
+        <v>26.19</v>
       </c>
       <c r="G12" t="n">
-        <v>8.62</v>
+        <v>7.31</v>
       </c>
       <c r="H12" t="n">
-        <v>9.11</v>
+        <v>0.94</v>
       </c>
       <c r="I12" t="n">
-        <v>121.83</v>
+        <v>114.76</v>
       </c>
       <c r="J12" t="n">
-        <v>73.78</v>
+        <v>57.24</v>
       </c>
       <c r="K12" t="n">
         <v>47.21</v>
@@ -952,10 +988,13 @@
         <v>60.51</v>
       </c>
       <c r="M12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N12" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="O12" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -963,10 +1002,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13" t="n">
         <v>4.91</v>
@@ -975,19 +1014,19 @@
         <v>183.54</v>
       </c>
       <c r="F13" t="n">
-        <v>29.99</v>
+        <v>33.38</v>
       </c>
       <c r="G13" t="n">
-        <v>9.78</v>
+        <v>13.94</v>
       </c>
       <c r="H13" t="n">
-        <v>3.79</v>
+        <v>8.24</v>
       </c>
       <c r="I13" t="n">
-        <v>119.64</v>
+        <v>121.47</v>
       </c>
       <c r="J13" t="n">
-        <v>68.71</v>
+        <v>63.67</v>
       </c>
       <c r="K13" t="n">
         <v>46.99</v>
@@ -996,10 +1035,13 @@
         <v>13.52</v>
       </c>
       <c r="M13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N13" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="O13" t="n">
+        <v>6.51</v>
       </c>
     </row>
     <row r="14">
@@ -1007,10 +1049,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D14" t="n">
         <v>5.31</v>
@@ -1019,19 +1061,19 @@
         <v>522.25</v>
       </c>
       <c r="F14" t="n">
-        <v>25.95</v>
+        <v>27.7</v>
       </c>
       <c r="G14" t="n">
-        <v>7.32</v>
+        <v>7.81</v>
       </c>
       <c r="H14" t="n">
-        <v>1.25</v>
+        <v>2.38</v>
       </c>
       <c r="I14" t="n">
-        <v>114.48</v>
+        <v>117.83</v>
       </c>
       <c r="J14" t="n">
-        <v>68.68</v>
+        <v>58.67</v>
       </c>
       <c r="K14" t="n">
         <v>59.84</v>
@@ -1040,10 +1082,13 @@
         <v>87.54</v>
       </c>
       <c r="M14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N14" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="O14" t="n">
+        <v>5.4</v>
       </c>
     </row>
     <row r="15">
@@ -1051,10 +1096,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D15" t="n">
         <v>5.71</v>
@@ -1063,19 +1108,19 @@
         <v>486.27</v>
       </c>
       <c r="F15" t="n">
-        <v>29.44</v>
+        <v>26.35</v>
       </c>
       <c r="G15" t="n">
-        <v>9.94</v>
+        <v>6.35</v>
       </c>
       <c r="H15" t="n">
-        <v>7.51</v>
+        <v>1.23</v>
       </c>
       <c r="I15" t="n">
-        <v>120.53</v>
+        <v>117.07</v>
       </c>
       <c r="J15" t="n">
-        <v>72.77</v>
+        <v>55.61</v>
       </c>
       <c r="K15" t="n">
         <v>59.81</v>
@@ -1084,10 +1129,13 @@
         <v>24.43</v>
       </c>
       <c r="M15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N15" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="O15" t="n">
+        <v>2.49</v>
       </c>
     </row>
     <row r="16">
@@ -1095,10 +1143,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D16" t="n">
         <v>4.59</v>
@@ -1107,19 +1155,19 @@
         <v>424.9</v>
       </c>
       <c r="F16" t="n">
-        <v>31.01</v>
+        <v>29.02</v>
       </c>
       <c r="G16" t="n">
-        <v>9.94</v>
+        <v>9.53</v>
       </c>
       <c r="H16" t="n">
-        <v>2.23</v>
+        <v>1.69</v>
       </c>
       <c r="I16" t="n">
-        <v>120.45</v>
+        <v>116.91</v>
       </c>
       <c r="J16" t="n">
-        <v>66.26</v>
+        <v>60.32</v>
       </c>
       <c r="K16" t="n">
         <v>66.55</v>
@@ -1128,10 +1176,13 @@
         <v>22.78</v>
       </c>
       <c r="M16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N16" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="O16" t="n">
+        <v>7.37</v>
       </c>
     </row>
     <row r="17">
@@ -1139,10 +1190,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D17" t="n">
         <v>2.71</v>
@@ -1151,19 +1202,19 @@
         <v>475.93</v>
       </c>
       <c r="F17" t="n">
-        <v>29.64</v>
+        <v>27.46</v>
       </c>
       <c r="G17" t="n">
-        <v>9.66</v>
+        <v>7.25</v>
       </c>
       <c r="H17" t="n">
-        <v>3.21</v>
+        <v>1.61</v>
       </c>
       <c r="I17" t="n">
-        <v>118.8</v>
+        <v>117.92</v>
       </c>
       <c r="J17" t="n">
-        <v>68.52</v>
+        <v>57.04</v>
       </c>
       <c r="K17" t="n">
         <v>51.12</v>
@@ -1172,10 +1223,13 @@
         <v>55.36</v>
       </c>
       <c r="M17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N17" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="O17" t="n">
+        <v>4.03</v>
       </c>
     </row>
     <row r="18">
@@ -1183,10 +1237,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D18" t="n">
         <v>11.13</v>
@@ -1195,19 +1249,19 @@
         <v>642.75</v>
       </c>
       <c r="F18" t="n">
-        <v>17.09</v>
+        <v>23.03</v>
       </c>
       <c r="G18" t="n">
-        <v>16.6</v>
+        <v>24.51</v>
       </c>
       <c r="H18" t="n">
-        <v>0.73</v>
+        <v>6.59</v>
       </c>
       <c r="I18" t="n">
-        <v>117.82</v>
+        <v>118.71</v>
       </c>
       <c r="J18" t="n">
-        <v>15.79</v>
+        <v>25.37</v>
       </c>
       <c r="K18" t="n">
         <v>103.08</v>
@@ -1216,10 +1270,13 @@
         <v>469.3</v>
       </c>
       <c r="M18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N18" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="O18" t="n">
+        <v>19.17</v>
       </c>
     </row>
     <row r="19">
@@ -1227,10 +1284,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D19" t="n">
         <v>9.77</v>
@@ -1239,19 +1296,19 @@
         <v>302.72</v>
       </c>
       <c r="F19" t="n">
-        <v>19.57</v>
+        <v>19.11</v>
       </c>
       <c r="G19" t="n">
-        <v>20.24</v>
+        <v>17.99</v>
       </c>
       <c r="H19" t="n">
-        <v>5.15</v>
+        <v>3.11</v>
       </c>
       <c r="I19" t="n">
-        <v>118.77</v>
+        <v>120.85</v>
       </c>
       <c r="J19" t="n">
-        <v>21.01</v>
+        <v>17.29</v>
       </c>
       <c r="K19" t="n">
         <v>78.67</v>
@@ -1260,10 +1317,13 @@
         <v>164.18</v>
       </c>
       <c r="M19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N19" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="O19" t="n">
+        <v>13.71</v>
       </c>
     </row>
     <row r="20">
@@ -1271,10 +1331,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D20" t="n">
         <v>12.72</v>
@@ -1283,19 +1343,19 @@
         <v>183.81</v>
       </c>
       <c r="F20" t="n">
-        <v>17.42</v>
+        <v>22.09</v>
       </c>
       <c r="G20" t="n">
-        <v>17.29</v>
+        <v>22.76</v>
       </c>
       <c r="H20" t="n">
-        <v>1.76</v>
+        <v>8.2</v>
       </c>
       <c r="I20" t="n">
-        <v>117.84</v>
+        <v>120.98</v>
       </c>
       <c r="J20" t="n">
-        <v>17.12</v>
+        <v>22.35</v>
       </c>
       <c r="K20" t="n">
         <v>66.23</v>
@@ -1304,10 +1364,13 @@
         <v>34.23</v>
       </c>
       <c r="M20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N20" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="O20" t="n">
+        <v>15.02</v>
       </c>
     </row>
     <row r="21">
@@ -1315,10 +1378,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D21" t="n">
         <v>25.73</v>
@@ -1327,19 +1390,19 @@
         <v>504.66</v>
       </c>
       <c r="F21" t="n">
-        <v>21.28</v>
+        <v>22.43</v>
       </c>
       <c r="G21" t="n">
-        <v>20.93</v>
+        <v>21.36</v>
       </c>
       <c r="H21" t="n">
-        <v>7.6</v>
+        <v>8.6</v>
       </c>
       <c r="I21" t="n">
-        <v>122.46</v>
+        <v>124.66</v>
       </c>
       <c r="J21" t="n">
-        <v>21.72</v>
+        <v>23.33</v>
       </c>
       <c r="K21" t="n">
         <v>104.75</v>
@@ -1348,10 +1411,13 @@
         <v>243.55</v>
       </c>
       <c r="M21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N21" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="O21" t="n">
+        <v>17.38</v>
       </c>
     </row>
     <row r="22">
@@ -1359,10 +1425,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D22" t="n">
         <v>12.18</v>
@@ -1371,19 +1437,19 @@
         <v>380.48</v>
       </c>
       <c r="F22" t="n">
-        <v>22.85</v>
+        <v>19.79</v>
       </c>
       <c r="G22" t="n">
-        <v>22.65</v>
+        <v>19.58</v>
       </c>
       <c r="H22" t="n">
-        <v>4.68</v>
+        <v>7.14</v>
       </c>
       <c r="I22" t="n">
-        <v>120.63</v>
+        <v>121.6</v>
       </c>
       <c r="J22" t="n">
-        <v>19.44</v>
+        <v>18.32</v>
       </c>
       <c r="K22" t="n">
         <v>81.19</v>
@@ -1392,10 +1458,13 @@
         <v>12.86</v>
       </c>
       <c r="M22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N22" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="O22" t="n">
+        <v>11.62</v>
       </c>
     </row>
     <row r="23">
@@ -1403,10 +1472,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D23" t="n">
         <v>6.44</v>
@@ -1415,19 +1484,19 @@
         <v>131.11</v>
       </c>
       <c r="F23" t="n">
-        <v>19.98</v>
+        <v>20.41</v>
       </c>
       <c r="G23" t="n">
-        <v>20.23</v>
+        <v>21.37</v>
       </c>
       <c r="H23" t="n">
-        <v>6.59</v>
+        <v>7.53</v>
       </c>
       <c r="I23" t="n">
-        <v>120.51</v>
+        <v>119.76</v>
       </c>
       <c r="J23" t="n">
-        <v>21.67</v>
+        <v>22.27</v>
       </c>
       <c r="K23" t="n">
         <v>54.73</v>
@@ -1436,10 +1505,13 @@
         <v>201.49</v>
       </c>
       <c r="M23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N23" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="O23" t="n">
+        <v>15.54</v>
       </c>
     </row>
     <row r="24">
@@ -1447,10 +1519,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D24" t="n">
         <v>13.52</v>
@@ -1459,19 +1531,19 @@
         <v>264.4</v>
       </c>
       <c r="F24" t="n">
-        <v>21.73</v>
+        <v>21.56</v>
       </c>
       <c r="G24" t="n">
-        <v>22.34</v>
+        <v>20.71</v>
       </c>
       <c r="H24" t="n">
-        <v>7.41</v>
+        <v>6.79</v>
       </c>
       <c r="I24" t="n">
-        <v>120.63</v>
+        <v>122.97</v>
       </c>
       <c r="J24" t="n">
-        <v>22.8</v>
+        <v>20.7</v>
       </c>
       <c r="K24" t="n">
         <v>74.2</v>
@@ -1480,10 +1552,13 @@
         <v>100.48</v>
       </c>
       <c r="M24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N24" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="O24" t="n">
+        <v>15.06</v>
       </c>
     </row>
     <row r="25">
@@ -1491,10 +1566,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D25" t="n">
         <v>11.62</v>
@@ -1503,19 +1578,19 @@
         <v>492.03</v>
       </c>
       <c r="F25" t="n">
-        <v>22.27</v>
+        <v>22.49</v>
       </c>
       <c r="G25" t="n">
-        <v>23.29</v>
+        <v>21.62</v>
       </c>
       <c r="H25" t="n">
-        <v>9.54</v>
+        <v>5.23</v>
       </c>
       <c r="I25" t="n">
-        <v>121.26</v>
+        <v>122.25</v>
       </c>
       <c r="J25" t="n">
-        <v>25.13</v>
+        <v>20.51</v>
       </c>
       <c r="K25" t="n">
         <v>93.75</v>
@@ -1524,10 +1599,13 @@
         <v>173.25</v>
       </c>
       <c r="M25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N25" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="O25" t="n">
+        <v>15.58</v>
       </c>
     </row>
     <row r="26">
@@ -1535,10 +1613,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D26" t="n">
         <v>4.71</v>
@@ -1547,19 +1625,19 @@
         <v>610.66</v>
       </c>
       <c r="F26" t="n">
-        <v>39.65</v>
+        <v>39.51</v>
       </c>
       <c r="G26" t="n">
-        <v>9.32</v>
+        <v>10.83</v>
       </c>
       <c r="H26" t="n">
-        <v>11.7</v>
+        <v>8.76</v>
       </c>
       <c r="I26" t="n">
-        <v>141.62</v>
+        <v>136.63</v>
       </c>
       <c r="J26" t="n">
-        <v>20.99</v>
+        <v>19.81</v>
       </c>
       <c r="K26" t="n">
         <v>75.14</v>
@@ -1568,10 +1646,13 @@
         <v>117.08</v>
       </c>
       <c r="M26" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N26" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="O26" t="n">
+        <v>4.61</v>
       </c>
     </row>
     <row r="27">
@@ -1579,10 +1660,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D27" t="n">
         <v>5.11</v>
@@ -1591,19 +1672,19 @@
         <v>152.78</v>
       </c>
       <c r="F27" t="n">
-        <v>38.2</v>
+        <v>42.47</v>
       </c>
       <c r="G27" t="n">
-        <v>7.36</v>
+        <v>13.34</v>
       </c>
       <c r="H27" t="n">
-        <v>9.57</v>
+        <v>13.02</v>
       </c>
       <c r="I27" t="n">
-        <v>141.02</v>
+        <v>140.57</v>
       </c>
       <c r="J27" t="n">
-        <v>18.56</v>
+        <v>21.52</v>
       </c>
       <c r="K27" t="n">
         <v>39.86</v>
@@ -1612,10 +1693,13 @@
         <v>594.77</v>
       </c>
       <c r="M27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N27" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="O27" t="n">
+        <v>3.77</v>
       </c>
     </row>
     <row r="28">
@@ -1623,10 +1707,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D28" t="n">
         <v>5.85</v>
@@ -1635,19 +1719,19 @@
         <v>815.91</v>
       </c>
       <c r="F28" t="n">
-        <v>41.16</v>
+        <v>39.07</v>
       </c>
       <c r="G28" t="n">
-        <v>11.72</v>
+        <v>8.31</v>
       </c>
       <c r="H28" t="n">
-        <v>12.11</v>
+        <v>9.17</v>
       </c>
       <c r="I28" t="n">
-        <v>140.45</v>
+        <v>140.81</v>
       </c>
       <c r="J28" t="n">
-        <v>22.49</v>
+        <v>19.95</v>
       </c>
       <c r="K28" t="n">
         <v>90.83</v>
@@ -1656,10 +1740,13 @@
         <v>1357.2</v>
       </c>
       <c r="M28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N28" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="O28" t="n">
+        <v>6.3</v>
       </c>
     </row>
     <row r="29">
@@ -1667,10 +1754,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D29" t="n">
         <v>8.13</v>
@@ -1679,19 +1766,19 @@
         <v>615.64</v>
       </c>
       <c r="F29" t="n">
-        <v>42.22</v>
+        <v>37.07</v>
       </c>
       <c r="G29" t="n">
-        <v>11.23</v>
+        <v>7.03</v>
       </c>
       <c r="H29" t="n">
-        <v>12.47</v>
+        <v>7.69</v>
       </c>
       <c r="I29" t="n">
-        <v>143.73</v>
+        <v>138.2</v>
       </c>
       <c r="J29" t="n">
-        <v>20.75</v>
+        <v>19.1</v>
       </c>
       <c r="K29" t="n">
         <v>81.46</v>
@@ -1700,10 +1787,13 @@
         <v>390.86</v>
       </c>
       <c r="M29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N29" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="O29" t="n">
+        <v>6.06</v>
       </c>
     </row>
     <row r="30">
@@ -1711,10 +1801,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D30" t="n">
         <v>5.18</v>
@@ -1723,19 +1813,19 @@
         <v>707.14</v>
       </c>
       <c r="F30" t="n">
-        <v>40.89</v>
+        <v>37.46</v>
       </c>
       <c r="G30" t="n">
-        <v>10.83</v>
+        <v>7.56</v>
       </c>
       <c r="H30" t="n">
-        <v>10.77</v>
+        <v>6.62</v>
       </c>
       <c r="I30" t="n">
-        <v>140.72</v>
+        <v>137.29</v>
       </c>
       <c r="J30" t="n">
-        <v>20.57</v>
+        <v>15.79</v>
       </c>
       <c r="K30" t="n">
         <v>90.66</v>
@@ -1744,10 +1834,13 @@
         <v>140.24</v>
       </c>
       <c r="M30" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N30" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="O30" t="n">
+        <v>2.12</v>
       </c>
     </row>
     <row r="31">
@@ -1755,10 +1848,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D31" t="n">
         <v>7.11</v>
@@ -1767,19 +1860,19 @@
         <v>237.03</v>
       </c>
       <c r="F31" t="n">
-        <v>39.07</v>
+        <v>36.85</v>
       </c>
       <c r="G31" t="n">
-        <v>8.25</v>
+        <v>8.36</v>
       </c>
       <c r="H31" t="n">
-        <v>6.89</v>
+        <v>11.64</v>
       </c>
       <c r="I31" t="n">
-        <v>139.46</v>
+        <v>137.5</v>
       </c>
       <c r="J31" t="n">
-        <v>16.32</v>
+        <v>19.32</v>
       </c>
       <c r="K31" t="n">
         <v>49.13</v>
@@ -1788,10 +1881,13 @@
         <v>314.41</v>
       </c>
       <c r="M31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N31" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="O31" t="n">
+        <v>2.66</v>
       </c>
     </row>
     <row r="32">
@@ -1799,10 +1895,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C32" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D32" t="n">
         <v>5.74</v>
@@ -1811,19 +1907,19 @@
         <v>267.33</v>
       </c>
       <c r="F32" t="n">
-        <v>42.22</v>
+        <v>41.99</v>
       </c>
       <c r="G32" t="n">
-        <v>13.22</v>
+        <v>10.35</v>
       </c>
       <c r="H32" t="n">
-        <v>13.05</v>
+        <v>10.06</v>
       </c>
       <c r="I32" t="n">
-        <v>140.36</v>
+        <v>143.55</v>
       </c>
       <c r="J32" t="n">
-        <v>23.86</v>
+        <v>21.14</v>
       </c>
       <c r="K32" t="n">
         <v>57.1</v>
@@ -1832,10 +1928,13 @@
         <v>509.58</v>
       </c>
       <c r="M32" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N32" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="O32" t="n">
+        <v>7.27</v>
       </c>
     </row>
     <row r="33">
@@ -1843,10 +1942,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C33" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D33" t="n">
         <v>6.58</v>
@@ -1855,19 +1954,19 @@
         <v>319.09</v>
       </c>
       <c r="F33" t="n">
-        <v>36.99</v>
+        <v>37.05</v>
       </c>
       <c r="G33" t="n">
-        <v>7.66</v>
+        <v>6.98</v>
       </c>
       <c r="H33" t="n">
-        <v>8.38</v>
+        <v>8.25</v>
       </c>
       <c r="I33" t="n">
-        <v>137.27</v>
+        <v>138.55</v>
       </c>
       <c r="J33" t="n">
-        <v>19.54</v>
+        <v>17.06</v>
       </c>
       <c r="K33" t="n">
         <v>66.25</v>
@@ -1876,10 +1975,13 @@
         <v>353.79</v>
       </c>
       <c r="M33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N33" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="O33" t="n">
+        <v>3.02</v>
       </c>
     </row>
     <row r="34">
@@ -1887,10 +1989,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C34" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D34" t="n">
         <v>7.86</v>
@@ -1899,19 +2001,19 @@
         <v>452.56</v>
       </c>
       <c r="F34" t="n">
-        <v>19.27</v>
+        <v>21.28</v>
       </c>
       <c r="G34" t="n">
-        <v>20</v>
+        <v>21.51</v>
       </c>
       <c r="H34" t="n">
-        <v>13.04</v>
+        <v>16.2</v>
       </c>
       <c r="I34" t="n">
-        <v>97.32</v>
+        <v>100.5</v>
       </c>
       <c r="J34" t="n">
-        <v>14.3</v>
+        <v>16.35</v>
       </c>
       <c r="K34" t="n">
         <v>72.81</v>
@@ -1920,10 +2022,13 @@
         <v>187.13</v>
       </c>
       <c r="M34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N34" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="O34" t="n">
+        <v>5.51</v>
       </c>
     </row>
     <row r="35">
@@ -1931,10 +2036,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C35" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D35" t="n">
         <v>9.36</v>
@@ -1943,19 +2048,19 @@
         <v>327.23</v>
       </c>
       <c r="F35" t="n">
-        <v>19.4</v>
+        <v>19.87</v>
       </c>
       <c r="G35" t="n">
-        <v>19.07</v>
+        <v>20.21</v>
       </c>
       <c r="H35" t="n">
-        <v>14.2</v>
+        <v>14.04</v>
       </c>
       <c r="I35" t="n">
-        <v>100.04</v>
+        <v>98.77</v>
       </c>
       <c r="J35" t="n">
-        <v>13.9</v>
+        <v>15.73</v>
       </c>
       <c r="K35" t="n">
         <v>56.02</v>
@@ -1964,10 +2069,13 @@
         <v>13.4</v>
       </c>
       <c r="M35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N35" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="O35" t="n">
+        <v>6.34</v>
       </c>
     </row>
     <row r="36">
@@ -1975,10 +2083,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C36" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D36" t="n">
         <v>21.28</v>
@@ -1987,19 +2095,19 @@
         <v>702.86</v>
       </c>
       <c r="F36" t="n">
-        <v>15.31</v>
+        <v>21.21</v>
       </c>
       <c r="G36" t="n">
-        <v>14.73</v>
+        <v>20.49</v>
       </c>
       <c r="H36" t="n">
-        <v>8.69</v>
+        <v>14.54</v>
       </c>
       <c r="I36" t="n">
-        <v>96.43</v>
+        <v>101.31</v>
       </c>
       <c r="J36" t="n">
-        <v>8.98</v>
+        <v>14.5</v>
       </c>
       <c r="K36" t="n">
         <v>101.37</v>
@@ -2008,10 +2116,13 @@
         <v>59.8</v>
       </c>
       <c r="M36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N36" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="O36" t="n">
+        <v>4.89</v>
       </c>
     </row>
     <row r="37">
@@ -2019,10 +2130,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C37" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D37" t="n">
         <v>13.47</v>
@@ -2031,19 +2142,19 @@
         <v>353.9</v>
       </c>
       <c r="F37" t="n">
-        <v>21.76</v>
+        <v>15.22</v>
       </c>
       <c r="G37" t="n">
-        <v>20.62</v>
+        <v>16.28</v>
       </c>
       <c r="H37" t="n">
-        <v>13.18</v>
+        <v>12.39</v>
       </c>
       <c r="I37" t="n">
-        <v>101.29</v>
+        <v>95.59</v>
       </c>
       <c r="J37" t="n">
-        <v>11.97</v>
+        <v>14.09</v>
       </c>
       <c r="K37" t="n">
         <v>59.6</v>
@@ -2052,10 +2163,13 @@
         <v>21.15</v>
       </c>
       <c r="M37" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N37" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="O37" t="n">
+        <v>5.83</v>
       </c>
     </row>
     <row r="38">
@@ -2063,10 +2177,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C38" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D38" t="n">
         <v>14.1</v>
@@ -2075,19 +2189,19 @@
         <v>614.77</v>
       </c>
       <c r="F38" t="n">
-        <v>22.07</v>
+        <v>19.45</v>
       </c>
       <c r="G38" t="n">
-        <v>20.66</v>
+        <v>21.16</v>
       </c>
       <c r="H38" t="n">
-        <v>15.71</v>
+        <v>16.83</v>
       </c>
       <c r="I38" t="n">
-        <v>103.4</v>
+        <v>97.75</v>
       </c>
       <c r="J38" t="n">
-        <v>13.73</v>
+        <v>17.25</v>
       </c>
       <c r="K38" t="n">
         <v>75.92</v>
@@ -2096,10 +2210,13 @@
         <v>142.28</v>
       </c>
       <c r="M38" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N38" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="O38" t="n">
+        <v>5.62</v>
       </c>
     </row>
     <row r="39">
@@ -2107,10 +2224,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C39" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D39" t="n">
         <v>13.27</v>
@@ -2119,19 +2236,19 @@
         <v>1048.33</v>
       </c>
       <c r="F39" t="n">
-        <v>19.65</v>
+        <v>20.88</v>
       </c>
       <c r="G39" t="n">
-        <v>19.18</v>
+        <v>21.15</v>
       </c>
       <c r="H39" t="n">
-        <v>14.22</v>
+        <v>16.9</v>
       </c>
       <c r="I39" t="n">
-        <v>100.35</v>
+        <v>100.75</v>
       </c>
       <c r="J39" t="n">
-        <v>13.72</v>
+        <v>15.09</v>
       </c>
       <c r="K39" t="n">
         <v>123.21</v>
@@ -2140,10 +2257,13 @@
         <v>31.09</v>
       </c>
       <c r="M39" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N39" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="O39" t="n">
+        <v>3.47</v>
       </c>
     </row>
     <row r="40">
@@ -2151,10 +2271,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C40" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D40" t="n">
         <v>11.69</v>
@@ -2163,19 +2283,19 @@
         <v>254.37</v>
       </c>
       <c r="F40" t="n">
-        <v>18.48</v>
+        <v>19.92</v>
       </c>
       <c r="G40" t="n">
-        <v>18.72</v>
+        <v>20.55</v>
       </c>
       <c r="H40" t="n">
-        <v>15.48</v>
+        <v>16.45</v>
       </c>
       <c r="I40" t="n">
-        <v>99.61</v>
+        <v>99.63</v>
       </c>
       <c r="J40" t="n">
-        <v>15.73</v>
+        <v>15.84</v>
       </c>
       <c r="K40" t="n">
         <v>49.56</v>
@@ -2184,10 +2304,13 @@
         <v>241.38</v>
       </c>
       <c r="M40" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N40" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="O40" t="n">
+        <v>4.71</v>
       </c>
     </row>
     <row r="41">
@@ -2195,10 +2318,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C41" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D41" t="n">
         <v>7.68</v>
@@ -2207,19 +2330,19 @@
         <v>1007.6</v>
       </c>
       <c r="F41" t="n">
-        <v>20.48</v>
+        <v>16.87</v>
       </c>
       <c r="G41" t="n">
-        <v>21.12</v>
+        <v>16.75</v>
       </c>
       <c r="H41" t="n">
-        <v>15.19</v>
+        <v>10.62</v>
       </c>
       <c r="I41" t="n">
-        <v>99</v>
+        <v>97.06</v>
       </c>
       <c r="J41" t="n">
-        <v>15.99</v>
+        <v>12.03</v>
       </c>
       <c r="K41" t="n">
         <v>110.6</v>
@@ -2228,10 +2351,13 @@
         <v>204.12</v>
       </c>
       <c r="M41" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N41" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="O41" t="n">
+        <v>4.72</v>
       </c>
     </row>
     <row r="42">
@@ -2239,10 +2365,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C42" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D42" t="n">
         <v>7.05</v>
@@ -2251,19 +2377,19 @@
         <v>308.59</v>
       </c>
       <c r="F42" t="n">
-        <v>28.39</v>
+        <v>27.4</v>
       </c>
       <c r="G42" t="n">
-        <v>19.1</v>
+        <v>17.59</v>
       </c>
       <c r="H42" t="n">
-        <v>16.35</v>
+        <v>12.22</v>
       </c>
       <c r="I42" t="n">
-        <v>79.25</v>
+        <v>77.46</v>
       </c>
       <c r="J42" t="n">
-        <v>17.08</v>
+        <v>10.48</v>
       </c>
       <c r="K42" t="n">
         <v>51.99</v>
@@ -2272,10 +2398,13 @@
         <v>1049.97</v>
       </c>
       <c r="M42" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N42" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="O42" t="n">
+        <v>21.27</v>
       </c>
     </row>
     <row r="43">
@@ -2283,10 +2412,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C43" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D43" t="n">
         <v>3.99</v>
@@ -2295,19 +2424,19 @@
         <v>554.62</v>
       </c>
       <c r="F43" t="n">
-        <v>29.54</v>
+        <v>27.78</v>
       </c>
       <c r="G43" t="n">
-        <v>18.69</v>
+        <v>19.5</v>
       </c>
       <c r="H43" t="n">
-        <v>15.61</v>
+        <v>12.95</v>
       </c>
       <c r="I43" t="n">
-        <v>81.89</v>
+        <v>75.12</v>
       </c>
       <c r="J43" t="n">
-        <v>14.4</v>
+        <v>15.53</v>
       </c>
       <c r="K43" t="n">
         <v>52.54</v>
@@ -2316,10 +2445,13 @@
         <v>420.44</v>
       </c>
       <c r="M43" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N43" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="O43" t="n">
+        <v>26.21</v>
       </c>
     </row>
     <row r="44">
@@ -2327,10 +2459,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C44" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D44" t="n">
         <v>8.85</v>
@@ -2339,19 +2471,19 @@
         <v>447.11</v>
       </c>
       <c r="F44" t="n">
-        <v>25.01</v>
+        <v>28.32</v>
       </c>
       <c r="G44" t="n">
-        <v>16.34</v>
+        <v>18.84</v>
       </c>
       <c r="H44" t="n">
-        <v>12.76</v>
+        <v>10.94</v>
       </c>
       <c r="I44" t="n">
-        <v>75.33</v>
+        <v>76.25</v>
       </c>
       <c r="J44" t="n">
-        <v>14.91</v>
+        <v>11.26</v>
       </c>
       <c r="K44" t="n">
         <v>54.27</v>
@@ -2360,10 +2492,13 @@
         <v>1100.8</v>
       </c>
       <c r="M44" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N44" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="O44" t="n">
+        <v>22.61</v>
       </c>
     </row>
     <row r="45">
@@ -2371,10 +2506,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C45" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D45" t="n">
         <v>6.97</v>
@@ -2383,19 +2518,19 @@
         <v>654.27</v>
       </c>
       <c r="F45" t="n">
-        <v>28.34</v>
+        <v>29.61</v>
       </c>
       <c r="G45" t="n">
-        <v>17.35</v>
+        <v>18.87</v>
       </c>
       <c r="H45" t="n">
-        <v>14.3</v>
+        <v>14.98</v>
       </c>
       <c r="I45" t="n">
-        <v>81.15</v>
+        <v>81.27</v>
       </c>
       <c r="J45" t="n">
-        <v>13.13</v>
+        <v>12.22</v>
       </c>
       <c r="K45" t="n">
         <v>59.78</v>
@@ -2404,10 +2539,13 @@
         <v>409.38</v>
       </c>
       <c r="M45" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N45" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="O45" t="n">
+        <v>21.99</v>
       </c>
     </row>
     <row r="46">
@@ -2415,10 +2553,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C46" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D46" t="n">
         <v>8.84</v>
@@ -2427,19 +2565,19 @@
         <v>364.9</v>
       </c>
       <c r="F46" t="n">
-        <v>31.95</v>
+        <v>30.46</v>
       </c>
       <c r="G46" t="n">
-        <v>22.31</v>
+        <v>20.73</v>
       </c>
       <c r="H46" t="n">
-        <v>18.01</v>
+        <v>17.58</v>
       </c>
       <c r="I46" t="n">
-        <v>81.49</v>
+        <v>81.15</v>
       </c>
       <c r="J46" t="n">
-        <v>17.98</v>
+        <v>18.53</v>
       </c>
       <c r="K46" t="n">
         <v>49.7</v>
@@ -2448,10 +2586,13 @@
         <v>63.24</v>
       </c>
       <c r="M46" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N46" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="O46" t="n">
+        <v>27.73</v>
       </c>
     </row>
     <row r="47">
@@ -2459,10 +2600,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D47" t="n">
         <v>7.18</v>
@@ -2471,19 +2612,19 @@
         <v>429.18</v>
       </c>
       <c r="F47" t="n">
-        <v>27.68</v>
+        <v>29.85</v>
       </c>
       <c r="G47" t="n">
-        <v>18.77</v>
+        <v>19.27</v>
       </c>
       <c r="H47" t="n">
-        <v>14.42</v>
+        <v>14</v>
       </c>
       <c r="I47" t="n">
-        <v>77.24</v>
+        <v>80.46</v>
       </c>
       <c r="J47" t="n">
-        <v>15.96</v>
+        <v>13.18</v>
       </c>
       <c r="K47" t="n">
         <v>41.08</v>
@@ -2492,10 +2633,13 @@
         <v>423.07</v>
       </c>
       <c r="M47" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N47" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="O47" t="n">
+        <v>23.7</v>
       </c>
     </row>
     <row r="48">
@@ -2503,10 +2647,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C48" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D48" t="n">
         <v>6.6</v>
@@ -2515,19 +2659,19 @@
         <v>629.58</v>
       </c>
       <c r="F48" t="n">
-        <v>31.42</v>
+        <v>30.18</v>
       </c>
       <c r="G48" t="n">
-        <v>21.38</v>
+        <v>20.35</v>
       </c>
       <c r="H48" t="n">
-        <v>15.87</v>
+        <v>15.74</v>
       </c>
       <c r="I48" t="n">
-        <v>80.84</v>
+        <v>80.12</v>
       </c>
       <c r="J48" t="n">
-        <v>15.66</v>
+        <v>14.63</v>
       </c>
       <c r="K48" t="n">
         <v>49.68</v>
@@ -2536,10 +2680,13 @@
         <v>550.97</v>
       </c>
       <c r="M48" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N48" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="O48" t="n">
+        <v>23.86</v>
       </c>
     </row>
     <row r="49">
@@ -2547,10 +2694,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C49" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D49" t="n">
         <v>4.19</v>
@@ -2559,19 +2706,19 @@
         <v>192.66</v>
       </c>
       <c r="F49" t="n">
-        <v>25.14</v>
+        <v>28.57</v>
       </c>
       <c r="G49" t="n">
-        <v>16.3</v>
+        <v>17.49</v>
       </c>
       <c r="H49" t="n">
-        <v>11.47</v>
+        <v>9.07</v>
       </c>
       <c r="I49" t="n">
-        <v>74.89</v>
+        <v>78.26</v>
       </c>
       <c r="J49" t="n">
-        <v>13.59</v>
+        <v>10.39</v>
       </c>
       <c r="K49" t="n">
         <v>43.28</v>
@@ -2580,10 +2727,13 @@
         <v>873.28</v>
       </c>
       <c r="M49" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N49" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="O49" t="n">
+        <v>23.86</v>
       </c>
     </row>
   </sheetData>

--- a/data/fleas_model_data.xlsx
+++ b/data/fleas_model_data.xlsx
@@ -497,19 +497,19 @@
         <v>516.41</v>
       </c>
       <c r="F2" t="n">
-        <v>39.28</v>
+        <v>40.3</v>
       </c>
       <c r="G2" t="n">
-        <v>17.79</v>
+        <v>20.29</v>
       </c>
       <c r="H2" t="n">
-        <v>6.57</v>
+        <v>10.19</v>
       </c>
       <c r="I2" t="n">
-        <v>110.66</v>
+        <v>110.23</v>
       </c>
       <c r="J2" t="n">
-        <v>46.38</v>
+        <v>52.61</v>
       </c>
       <c r="K2" t="n">
         <v>70.9</v>
@@ -524,7 +524,7 @@
         <v>18</v>
       </c>
       <c r="O2" t="n">
-        <v>3.74</v>
+        <v>8.29</v>
       </c>
     </row>
     <row r="3">
@@ -544,19 +544,19 @@
         <v>363.5</v>
       </c>
       <c r="F3" t="n">
-        <v>41.84</v>
+        <v>40.22</v>
       </c>
       <c r="G3" t="n">
-        <v>20.99</v>
+        <v>20.71</v>
       </c>
       <c r="H3" t="n">
-        <v>11.85</v>
+        <v>10.36</v>
       </c>
       <c r="I3" t="n">
-        <v>112.99</v>
+        <v>109.35</v>
       </c>
       <c r="J3" t="n">
-        <v>48.15</v>
+        <v>51.81</v>
       </c>
       <c r="K3" t="n">
         <v>50.75</v>
@@ -571,7 +571,7 @@
         <v>19</v>
       </c>
       <c r="O3" t="n">
-        <v>1.56</v>
+        <v>6.74</v>
       </c>
     </row>
     <row r="4">
@@ -591,19 +591,19 @@
         <v>303.01</v>
       </c>
       <c r="F4" t="n">
-        <v>39.71</v>
+        <v>40.71</v>
       </c>
       <c r="G4" t="n">
-        <v>20.08</v>
+        <v>20.17</v>
       </c>
       <c r="H4" t="n">
-        <v>8.97</v>
+        <v>11.36</v>
       </c>
       <c r="I4" t="n">
-        <v>108.59</v>
+        <v>111.96</v>
       </c>
       <c r="J4" t="n">
-        <v>47.86</v>
+        <v>50.4</v>
       </c>
       <c r="K4" t="n">
         <v>62.22</v>
@@ -618,7 +618,7 @@
         <v>19</v>
       </c>
       <c r="O4" t="n">
-        <v>2.59</v>
+        <v>4.91</v>
       </c>
     </row>
     <row r="5">
@@ -638,19 +638,19 @@
         <v>257.13</v>
       </c>
       <c r="F5" t="n">
-        <v>41.7</v>
+        <v>39.9</v>
       </c>
       <c r="G5" t="n">
-        <v>20.31</v>
+        <v>20.17</v>
       </c>
       <c r="H5" t="n">
-        <v>9.93</v>
+        <v>9.5</v>
       </c>
       <c r="I5" t="n">
-        <v>112.93</v>
+        <v>109.23</v>
       </c>
       <c r="J5" t="n">
-        <v>50.14</v>
+        <v>52.74</v>
       </c>
       <c r="K5" t="n">
         <v>66.07</v>
@@ -665,7 +665,7 @@
         <v>19</v>
       </c>
       <c r="O5" t="n">
-        <v>5.9</v>
+        <v>8.78</v>
       </c>
     </row>
     <row r="6">
@@ -685,19 +685,19 @@
         <v>254.16</v>
       </c>
       <c r="F6" t="n">
-        <v>39.4</v>
+        <v>42.53</v>
       </c>
       <c r="G6" t="n">
-        <v>18.93</v>
+        <v>22.76</v>
       </c>
       <c r="H6" t="n">
-        <v>8.89</v>
+        <v>12.81</v>
       </c>
       <c r="I6" t="n">
-        <v>110.19</v>
+        <v>111.68</v>
       </c>
       <c r="J6" t="n">
-        <v>51.76</v>
+        <v>52.18</v>
       </c>
       <c r="K6" t="n">
         <v>62.58</v>
@@ -712,7 +712,7 @@
         <v>19</v>
       </c>
       <c r="O6" t="n">
-        <v>8.58</v>
+        <v>5.28</v>
       </c>
     </row>
     <row r="7">
@@ -732,19 +732,19 @@
         <v>604.06</v>
       </c>
       <c r="F7" t="n">
-        <v>41.84</v>
+        <v>42.36</v>
       </c>
       <c r="G7" t="n">
-        <v>22.6</v>
+        <v>21.92</v>
       </c>
       <c r="H7" t="n">
-        <v>10.32</v>
+        <v>12.86</v>
       </c>
       <c r="I7" t="n">
-        <v>109.06</v>
+        <v>112.91</v>
       </c>
       <c r="J7" t="n">
-        <v>50.95</v>
+        <v>49.43</v>
       </c>
       <c r="K7" t="n">
         <v>74.44</v>
@@ -759,7 +759,7 @@
         <v>19</v>
       </c>
       <c r="O7" t="n">
-        <v>4.99</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="8">
@@ -779,19 +779,19 @@
         <v>828.59</v>
       </c>
       <c r="F8" t="n">
-        <v>36.6</v>
+        <v>39.18</v>
       </c>
       <c r="G8" t="n">
-        <v>16.2</v>
+        <v>18.81</v>
       </c>
       <c r="H8" t="n">
-        <v>8.2</v>
+        <v>6.96</v>
       </c>
       <c r="I8" t="n">
-        <v>109.07</v>
+        <v>108.76</v>
       </c>
       <c r="J8" t="n">
-        <v>46.88</v>
+        <v>47.67</v>
       </c>
       <c r="K8" t="n">
         <v>82.95</v>
@@ -806,7 +806,7 @@
         <v>19</v>
       </c>
       <c r="O8" t="n">
-        <v>3.18</v>
+        <v>4.34</v>
       </c>
     </row>
     <row r="9">
@@ -826,19 +826,19 @@
         <v>818.44</v>
       </c>
       <c r="F9" t="n">
-        <v>38.24</v>
+        <v>42.74</v>
       </c>
       <c r="G9" t="n">
-        <v>17.83</v>
+        <v>22.83</v>
       </c>
       <c r="H9" t="n">
-        <v>9.4</v>
+        <v>11.63</v>
       </c>
       <c r="I9" t="n">
-        <v>110.06</v>
+        <v>111.3</v>
       </c>
       <c r="J9" t="n">
-        <v>46.66</v>
+        <v>52.03</v>
       </c>
       <c r="K9" t="n">
         <v>81.21</v>
@@ -853,7 +853,7 @@
         <v>18</v>
       </c>
       <c r="O9" t="n">
-        <v>1.71</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="10">
@@ -873,19 +873,19 @@
         <v>595.05</v>
       </c>
       <c r="F10" t="n">
-        <v>29.14</v>
+        <v>28.69</v>
       </c>
       <c r="G10" t="n">
-        <v>10.36</v>
+        <v>8.36</v>
       </c>
       <c r="H10" t="n">
-        <v>3.21</v>
+        <v>6.03</v>
       </c>
       <c r="I10" t="n">
-        <v>116.54</v>
+        <v>121</v>
       </c>
       <c r="J10" t="n">
-        <v>63.32</v>
+        <v>59.49</v>
       </c>
       <c r="K10" t="n">
         <v>69.48</v>
@@ -900,7 +900,7 @@
         <v>18</v>
       </c>
       <c r="O10" t="n">
-        <v>9.81</v>
+        <v>4.27</v>
       </c>
     </row>
     <row r="11">
@@ -920,19 +920,19 @@
         <v>294.64</v>
       </c>
       <c r="F11" t="n">
-        <v>32.04</v>
+        <v>29.68</v>
       </c>
       <c r="G11" t="n">
-        <v>12.38</v>
+        <v>10.02</v>
       </c>
       <c r="H11" t="n">
-        <v>6.12</v>
+        <v>3.73</v>
       </c>
       <c r="I11" t="n">
-        <v>120.37</v>
+        <v>118.53</v>
       </c>
       <c r="J11" t="n">
-        <v>60.65</v>
+        <v>59.1</v>
       </c>
       <c r="K11" t="n">
         <v>57.17</v>
@@ -947,7 +947,7 @@
         <v>18</v>
       </c>
       <c r="O11" t="n">
-        <v>4.36</v>
+        <v>4.42</v>
       </c>
     </row>
     <row r="12">
@@ -967,19 +967,19 @@
         <v>460.29</v>
       </c>
       <c r="F12" t="n">
-        <v>26.19</v>
+        <v>31.06</v>
       </c>
       <c r="G12" t="n">
-        <v>7.31</v>
+        <v>10.03</v>
       </c>
       <c r="H12" t="n">
-        <v>0.94</v>
+        <v>6.66</v>
       </c>
       <c r="I12" t="n">
-        <v>114.76</v>
+        <v>123.12</v>
       </c>
       <c r="J12" t="n">
-        <v>57.24</v>
+        <v>59.69</v>
       </c>
       <c r="K12" t="n">
         <v>47.21</v>
@@ -994,7 +994,7 @@
         <v>19</v>
       </c>
       <c r="O12" t="n">
-        <v>4</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="13">
@@ -1014,19 +1014,19 @@
         <v>183.54</v>
       </c>
       <c r="F13" t="n">
-        <v>33.38</v>
+        <v>29.13</v>
       </c>
       <c r="G13" t="n">
-        <v>13.94</v>
+        <v>9.51</v>
       </c>
       <c r="H13" t="n">
-        <v>8.24</v>
+        <v>6</v>
       </c>
       <c r="I13" t="n">
-        <v>121.47</v>
+        <v>119.75</v>
       </c>
       <c r="J13" t="n">
-        <v>63.67</v>
+        <v>61.56</v>
       </c>
       <c r="K13" t="n">
         <v>46.99</v>
@@ -1041,7 +1041,7 @@
         <v>18</v>
       </c>
       <c r="O13" t="n">
-        <v>6.51</v>
+        <v>6.37</v>
       </c>
     </row>
     <row r="14">
@@ -1061,19 +1061,19 @@
         <v>522.25</v>
       </c>
       <c r="F14" t="n">
-        <v>27.7</v>
+        <v>27.17</v>
       </c>
       <c r="G14" t="n">
-        <v>7.81</v>
+        <v>6.6</v>
       </c>
       <c r="H14" t="n">
-        <v>2.38</v>
+        <v>2.55</v>
       </c>
       <c r="I14" t="n">
-        <v>117.83</v>
+        <v>119.18</v>
       </c>
       <c r="J14" t="n">
-        <v>58.67</v>
+        <v>59.78</v>
       </c>
       <c r="K14" t="n">
         <v>59.84</v>
@@ -1088,7 +1088,7 @@
         <v>18</v>
       </c>
       <c r="O14" t="n">
-        <v>5.4</v>
+        <v>7.45</v>
       </c>
     </row>
     <row r="15">
@@ -1108,19 +1108,19 @@
         <v>486.27</v>
       </c>
       <c r="F15" t="n">
-        <v>26.35</v>
+        <v>28.66</v>
       </c>
       <c r="G15" t="n">
-        <v>6.35</v>
+        <v>9.45</v>
       </c>
       <c r="H15" t="n">
-        <v>1.23</v>
+        <v>2.94</v>
       </c>
       <c r="I15" t="n">
-        <v>117.07</v>
+        <v>116.97</v>
       </c>
       <c r="J15" t="n">
-        <v>55.61</v>
+        <v>56.02</v>
       </c>
       <c r="K15" t="n">
         <v>59.81</v>
@@ -1135,7 +1135,7 @@
         <v>19</v>
       </c>
       <c r="O15" t="n">
-        <v>2.49</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="16">
@@ -1155,19 +1155,19 @@
         <v>424.9</v>
       </c>
       <c r="F16" t="n">
-        <v>29.02</v>
+        <v>30.29</v>
       </c>
       <c r="G16" t="n">
-        <v>9.53</v>
+        <v>10.26</v>
       </c>
       <c r="H16" t="n">
-        <v>1.69</v>
+        <v>6.62</v>
       </c>
       <c r="I16" t="n">
-        <v>116.91</v>
+        <v>121.04</v>
       </c>
       <c r="J16" t="n">
-        <v>60.32</v>
+        <v>59.73</v>
       </c>
       <c r="K16" t="n">
         <v>66.55</v>
@@ -1182,7 +1182,7 @@
         <v>19</v>
       </c>
       <c r="O16" t="n">
-        <v>7.37</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="17">
@@ -1202,19 +1202,19 @@
         <v>475.93</v>
       </c>
       <c r="F17" t="n">
-        <v>27.46</v>
+        <v>27.08</v>
       </c>
       <c r="G17" t="n">
-        <v>7.25</v>
+        <v>7.04</v>
       </c>
       <c r="H17" t="n">
-        <v>1.61</v>
+        <v>4.55</v>
       </c>
       <c r="I17" t="n">
-        <v>117.92</v>
+        <v>119.26</v>
       </c>
       <c r="J17" t="n">
-        <v>57.04</v>
+        <v>58.25</v>
       </c>
       <c r="K17" t="n">
         <v>51.12</v>
@@ -1229,7 +1229,7 @@
         <v>18</v>
       </c>
       <c r="O17" t="n">
-        <v>4.03</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="18">
@@ -1249,19 +1249,19 @@
         <v>642.75</v>
       </c>
       <c r="F18" t="n">
-        <v>23.03</v>
+        <v>19.76</v>
       </c>
       <c r="G18" t="n">
-        <v>24.51</v>
+        <v>19.65</v>
       </c>
       <c r="H18" t="n">
-        <v>6.59</v>
+        <v>7.18</v>
       </c>
       <c r="I18" t="n">
-        <v>118.71</v>
+        <v>121.45</v>
       </c>
       <c r="J18" t="n">
-        <v>25.37</v>
+        <v>20.2</v>
       </c>
       <c r="K18" t="n">
         <v>103.08</v>
@@ -1276,7 +1276,7 @@
         <v>18</v>
       </c>
       <c r="O18" t="n">
-        <v>19.17</v>
+        <v>14.03</v>
       </c>
     </row>
     <row r="19">
@@ -1296,19 +1296,19 @@
         <v>302.72</v>
       </c>
       <c r="F19" t="n">
-        <v>19.11</v>
+        <v>17.68</v>
       </c>
       <c r="G19" t="n">
-        <v>17.99</v>
+        <v>18.02</v>
       </c>
       <c r="H19" t="n">
-        <v>3.11</v>
+        <v>4.97</v>
       </c>
       <c r="I19" t="n">
-        <v>120.85</v>
+        <v>118.91</v>
       </c>
       <c r="J19" t="n">
-        <v>17.29</v>
+        <v>19.23</v>
       </c>
       <c r="K19" t="n">
         <v>78.67</v>
@@ -1323,7 +1323,7 @@
         <v>18</v>
       </c>
       <c r="O19" t="n">
-        <v>13.71</v>
+        <v>14.31</v>
       </c>
     </row>
     <row r="20">
@@ -1343,19 +1343,19 @@
         <v>183.81</v>
       </c>
       <c r="F20" t="n">
-        <v>22.09</v>
+        <v>20.58</v>
       </c>
       <c r="G20" t="n">
-        <v>22.76</v>
+        <v>20.21</v>
       </c>
       <c r="H20" t="n">
-        <v>8.2</v>
+        <v>4.63</v>
       </c>
       <c r="I20" t="n">
-        <v>120.98</v>
+        <v>120.57</v>
       </c>
       <c r="J20" t="n">
-        <v>22.35</v>
+        <v>19.05</v>
       </c>
       <c r="K20" t="n">
         <v>66.23</v>
@@ -1370,7 +1370,7 @@
         <v>18</v>
       </c>
       <c r="O20" t="n">
-        <v>15.02</v>
+        <v>14.12</v>
       </c>
     </row>
     <row r="21">
@@ -1390,19 +1390,19 @@
         <v>504.66</v>
       </c>
       <c r="F21" t="n">
-        <v>22.43</v>
+        <v>22.11</v>
       </c>
       <c r="G21" t="n">
-        <v>21.36</v>
+        <v>23.22</v>
       </c>
       <c r="H21" t="n">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
       <c r="I21" t="n">
-        <v>124.66</v>
+        <v>119.93</v>
       </c>
       <c r="J21" t="n">
-        <v>23.33</v>
+        <v>22.39</v>
       </c>
       <c r="K21" t="n">
         <v>104.75</v>
@@ -1417,7 +1417,7 @@
         <v>18</v>
       </c>
       <c r="O21" t="n">
-        <v>17.38</v>
+        <v>14.98</v>
       </c>
     </row>
     <row r="22">
@@ -1437,19 +1437,19 @@
         <v>380.48</v>
       </c>
       <c r="F22" t="n">
-        <v>19.79</v>
+        <v>22.63</v>
       </c>
       <c r="G22" t="n">
-        <v>19.58</v>
+        <v>21.71</v>
       </c>
       <c r="H22" t="n">
-        <v>7.14</v>
+        <v>7.58</v>
       </c>
       <c r="I22" t="n">
-        <v>121.6</v>
+        <v>123.76</v>
       </c>
       <c r="J22" t="n">
-        <v>18.32</v>
+        <v>21.3</v>
       </c>
       <c r="K22" t="n">
         <v>81.19</v>
@@ -1464,7 +1464,7 @@
         <v>18</v>
       </c>
       <c r="O22" t="n">
-        <v>11.62</v>
+        <v>15.14</v>
       </c>
     </row>
     <row r="23">
@@ -1484,19 +1484,19 @@
         <v>131.11</v>
       </c>
       <c r="F23" t="n">
-        <v>20.41</v>
+        <v>20.1</v>
       </c>
       <c r="G23" t="n">
-        <v>21.37</v>
+        <v>20.4</v>
       </c>
       <c r="H23" t="n">
-        <v>7.53</v>
+        <v>4.02</v>
       </c>
       <c r="I23" t="n">
-        <v>119.76</v>
+        <v>118.84</v>
       </c>
       <c r="J23" t="n">
-        <v>22.27</v>
+        <v>18.96</v>
       </c>
       <c r="K23" t="n">
         <v>54.73</v>
@@ -1511,7 +1511,7 @@
         <v>18</v>
       </c>
       <c r="O23" t="n">
-        <v>15.54</v>
+        <v>13.98</v>
       </c>
     </row>
     <row r="24">
@@ -1531,19 +1531,19 @@
         <v>264.4</v>
       </c>
       <c r="F24" t="n">
-        <v>21.56</v>
+        <v>18.71</v>
       </c>
       <c r="G24" t="n">
-        <v>20.71</v>
+        <v>18.36</v>
       </c>
       <c r="H24" t="n">
-        <v>6.79</v>
+        <v>5.64</v>
       </c>
       <c r="I24" t="n">
-        <v>122.97</v>
+        <v>120.81</v>
       </c>
       <c r="J24" t="n">
-        <v>20.7</v>
+        <v>19.42</v>
       </c>
       <c r="K24" t="n">
         <v>74.2</v>
@@ -1558,7 +1558,7 @@
         <v>18</v>
       </c>
       <c r="O24" t="n">
-        <v>15.06</v>
+        <v>14.44</v>
       </c>
     </row>
     <row r="25">
@@ -1578,19 +1578,19 @@
         <v>492.03</v>
       </c>
       <c r="F25" t="n">
-        <v>22.49</v>
+        <v>22.27</v>
       </c>
       <c r="G25" t="n">
-        <v>21.62</v>
+        <v>21.92</v>
       </c>
       <c r="H25" t="n">
-        <v>5.23</v>
+        <v>4.71</v>
       </c>
       <c r="I25" t="n">
-        <v>122.25</v>
+        <v>120.82</v>
       </c>
       <c r="J25" t="n">
-        <v>20.51</v>
+        <v>17.24</v>
       </c>
       <c r="K25" t="n">
         <v>93.75</v>
@@ -1605,7 +1605,7 @@
         <v>18</v>
       </c>
       <c r="O25" t="n">
-        <v>15.58</v>
+        <v>11.19</v>
       </c>
     </row>
     <row r="26">
@@ -1625,19 +1625,19 @@
         <v>610.66</v>
       </c>
       <c r="F26" t="n">
-        <v>39.51</v>
+        <v>41.98</v>
       </c>
       <c r="G26" t="n">
-        <v>10.83</v>
+        <v>11.51</v>
       </c>
       <c r="H26" t="n">
-        <v>8.76</v>
+        <v>11.59</v>
       </c>
       <c r="I26" t="n">
-        <v>136.63</v>
+        <v>142.17</v>
       </c>
       <c r="J26" t="n">
-        <v>19.81</v>
+        <v>20.6</v>
       </c>
       <c r="K26" t="n">
         <v>75.14</v>
@@ -1652,7 +1652,7 @@
         <v>19</v>
       </c>
       <c r="O26" t="n">
-        <v>4.61</v>
+        <v>4.65</v>
       </c>
     </row>
     <row r="27">
@@ -1672,19 +1672,19 @@
         <v>152.78</v>
       </c>
       <c r="F27" t="n">
-        <v>42.47</v>
+        <v>37.66</v>
       </c>
       <c r="G27" t="n">
-        <v>13.34</v>
+        <v>7.76</v>
       </c>
       <c r="H27" t="n">
-        <v>13.02</v>
+        <v>8.18</v>
       </c>
       <c r="I27" t="n">
-        <v>140.57</v>
+        <v>138.3</v>
       </c>
       <c r="J27" t="n">
-        <v>21.52</v>
+        <v>17.81</v>
       </c>
       <c r="K27" t="n">
         <v>39.86</v>
@@ -1699,7 +1699,7 @@
         <v>18</v>
       </c>
       <c r="O27" t="n">
-        <v>3.77</v>
+        <v>3.76</v>
       </c>
     </row>
     <row r="28">
@@ -1719,19 +1719,19 @@
         <v>815.91</v>
       </c>
       <c r="F28" t="n">
-        <v>39.07</v>
+        <v>38.32</v>
       </c>
       <c r="G28" t="n">
-        <v>8.31</v>
+        <v>8.41</v>
       </c>
       <c r="H28" t="n">
-        <v>9.17</v>
+        <v>10.13</v>
       </c>
       <c r="I28" t="n">
-        <v>140.81</v>
+        <v>139.68</v>
       </c>
       <c r="J28" t="n">
-        <v>19.95</v>
+        <v>23.2</v>
       </c>
       <c r="K28" t="n">
         <v>90.83</v>
@@ -1746,7 +1746,7 @@
         <v>18</v>
       </c>
       <c r="O28" t="n">
-        <v>6.3</v>
+        <v>9.54</v>
       </c>
     </row>
     <row r="29">
@@ -1766,19 +1766,19 @@
         <v>615.64</v>
       </c>
       <c r="F29" t="n">
-        <v>37.07</v>
+        <v>39.63</v>
       </c>
       <c r="G29" t="n">
-        <v>7.03</v>
+        <v>8.94</v>
       </c>
       <c r="H29" t="n">
-        <v>7.69</v>
+        <v>8.82</v>
       </c>
       <c r="I29" t="n">
-        <v>138.2</v>
+        <v>140.59</v>
       </c>
       <c r="J29" t="n">
-        <v>19.1</v>
+        <v>21.27</v>
       </c>
       <c r="K29" t="n">
         <v>81.46</v>
@@ -1793,7 +1793,7 @@
         <v>18</v>
       </c>
       <c r="O29" t="n">
-        <v>6.06</v>
+        <v>8.09</v>
       </c>
     </row>
     <row r="30">
@@ -1813,19 +1813,19 @@
         <v>707.14</v>
       </c>
       <c r="F30" t="n">
-        <v>37.46</v>
+        <v>39.8</v>
       </c>
       <c r="G30" t="n">
-        <v>7.56</v>
+        <v>9.2</v>
       </c>
       <c r="H30" t="n">
-        <v>6.62</v>
+        <v>11.45</v>
       </c>
       <c r="I30" t="n">
-        <v>137.29</v>
+        <v>142.01</v>
       </c>
       <c r="J30" t="n">
-        <v>15.79</v>
+        <v>21.64</v>
       </c>
       <c r="K30" t="n">
         <v>90.66</v>
@@ -1840,7 +1840,7 @@
         <v>18</v>
       </c>
       <c r="O30" t="n">
-        <v>2.12</v>
+        <v>6.79</v>
       </c>
     </row>
     <row r="31">
@@ -1860,19 +1860,19 @@
         <v>237.03</v>
       </c>
       <c r="F31" t="n">
-        <v>36.85</v>
+        <v>38.01</v>
       </c>
       <c r="G31" t="n">
-        <v>8.36</v>
+        <v>8.09</v>
       </c>
       <c r="H31" t="n">
-        <v>11.64</v>
+        <v>8.6</v>
       </c>
       <c r="I31" t="n">
-        <v>137.5</v>
+        <v>138.65</v>
       </c>
       <c r="J31" t="n">
-        <v>19.32</v>
+        <v>18.7</v>
       </c>
       <c r="K31" t="n">
         <v>49.13</v>
@@ -1887,7 +1887,7 @@
         <v>19</v>
       </c>
       <c r="O31" t="n">
-        <v>2.66</v>
+        <v>4.61</v>
       </c>
     </row>
     <row r="32">
@@ -1907,19 +1907,19 @@
         <v>267.33</v>
       </c>
       <c r="F32" t="n">
-        <v>41.99</v>
+        <v>41.85</v>
       </c>
       <c r="G32" t="n">
-        <v>10.35</v>
+        <v>12.01</v>
       </c>
       <c r="H32" t="n">
-        <v>10.06</v>
+        <v>12.69</v>
       </c>
       <c r="I32" t="n">
-        <v>143.55</v>
+        <v>141.58</v>
       </c>
       <c r="J32" t="n">
-        <v>21.14</v>
+        <v>19.65</v>
       </c>
       <c r="K32" t="n">
         <v>57.1</v>
@@ -1934,7 +1934,7 @@
         <v>19</v>
       </c>
       <c r="O32" t="n">
-        <v>7.27</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="33">
@@ -1954,19 +1954,19 @@
         <v>319.09</v>
       </c>
       <c r="F33" t="n">
-        <v>37.05</v>
+        <v>38.77</v>
       </c>
       <c r="G33" t="n">
-        <v>6.98</v>
+        <v>8.23</v>
       </c>
       <c r="H33" t="n">
-        <v>8.25</v>
+        <v>7.61</v>
       </c>
       <c r="I33" t="n">
-        <v>138.55</v>
+        <v>139.42</v>
       </c>
       <c r="J33" t="n">
-        <v>17.06</v>
+        <v>19.27</v>
       </c>
       <c r="K33" t="n">
         <v>66.25</v>
@@ -1981,7 +1981,7 @@
         <v>18</v>
       </c>
       <c r="O33" t="n">
-        <v>3.02</v>
+        <v>6.29</v>
       </c>
     </row>
     <row r="34">
@@ -2001,19 +2001,19 @@
         <v>452.56</v>
       </c>
       <c r="F34" t="n">
-        <v>21.28</v>
+        <v>19.57</v>
       </c>
       <c r="G34" t="n">
-        <v>21.51</v>
+        <v>19.16</v>
       </c>
       <c r="H34" t="n">
-        <v>16.2</v>
+        <v>11.62</v>
       </c>
       <c r="I34" t="n">
-        <v>100.5</v>
+        <v>98.72</v>
       </c>
       <c r="J34" t="n">
-        <v>16.35</v>
+        <v>14.41</v>
       </c>
       <c r="K34" t="n">
         <v>72.81</v>
@@ -2028,7 +2028,7 @@
         <v>19</v>
       </c>
       <c r="O34" t="n">
-        <v>5.51</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="35">
@@ -2048,19 +2048,19 @@
         <v>327.23</v>
       </c>
       <c r="F35" t="n">
-        <v>19.87</v>
+        <v>20.74</v>
       </c>
       <c r="G35" t="n">
-        <v>20.21</v>
+        <v>20.98</v>
       </c>
       <c r="H35" t="n">
-        <v>14.04</v>
+        <v>16.97</v>
       </c>
       <c r="I35" t="n">
-        <v>98.77</v>
+        <v>100.85</v>
       </c>
       <c r="J35" t="n">
-        <v>15.73</v>
+        <v>16.45</v>
       </c>
       <c r="K35" t="n">
         <v>56.02</v>
@@ -2075,7 +2075,7 @@
         <v>19</v>
       </c>
       <c r="O35" t="n">
-        <v>6.34</v>
+        <v>5.29</v>
       </c>
     </row>
     <row r="36">
@@ -2095,19 +2095,19 @@
         <v>702.86</v>
       </c>
       <c r="F36" t="n">
-        <v>21.21</v>
+        <v>17.19</v>
       </c>
       <c r="G36" t="n">
-        <v>20.49</v>
+        <v>17.77</v>
       </c>
       <c r="H36" t="n">
-        <v>14.54</v>
+        <v>14.84</v>
       </c>
       <c r="I36" t="n">
-        <v>101.31</v>
+        <v>98.29</v>
       </c>
       <c r="J36" t="n">
-        <v>14.5</v>
+        <v>14.01</v>
       </c>
       <c r="K36" t="n">
         <v>101.37</v>
@@ -2122,7 +2122,7 @@
         <v>19</v>
       </c>
       <c r="O36" t="n">
-        <v>4.89</v>
+        <v>4.05</v>
       </c>
     </row>
     <row r="37">
@@ -2142,19 +2142,19 @@
         <v>353.9</v>
       </c>
       <c r="F37" t="n">
-        <v>15.22</v>
+        <v>22.11</v>
       </c>
       <c r="G37" t="n">
-        <v>16.28</v>
+        <v>22.65</v>
       </c>
       <c r="H37" t="n">
-        <v>12.39</v>
+        <v>17.49</v>
       </c>
       <c r="I37" t="n">
-        <v>95.59</v>
+        <v>100.79</v>
       </c>
       <c r="J37" t="n">
-        <v>14.09</v>
+        <v>15.41</v>
       </c>
       <c r="K37" t="n">
         <v>59.6</v>
@@ -2169,7 +2169,7 @@
         <v>19</v>
       </c>
       <c r="O37" t="n">
-        <v>5.83</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="38">
@@ -2189,19 +2189,19 @@
         <v>614.77</v>
       </c>
       <c r="F38" t="n">
-        <v>19.45</v>
+        <v>19.1</v>
       </c>
       <c r="G38" t="n">
-        <v>21.16</v>
+        <v>20.1</v>
       </c>
       <c r="H38" t="n">
-        <v>16.83</v>
+        <v>14.18</v>
       </c>
       <c r="I38" t="n">
-        <v>97.75</v>
+        <v>97.47</v>
       </c>
       <c r="J38" t="n">
-        <v>17.25</v>
+        <v>16.66</v>
       </c>
       <c r="K38" t="n">
         <v>75.92</v>
@@ -2216,7 +2216,7 @@
         <v>19</v>
       </c>
       <c r="O38" t="n">
-        <v>5.62</v>
+        <v>7.17</v>
       </c>
     </row>
     <row r="39">
@@ -2236,19 +2236,19 @@
         <v>1048.33</v>
       </c>
       <c r="F39" t="n">
-        <v>20.88</v>
+        <v>18.4</v>
       </c>
       <c r="G39" t="n">
-        <v>21.15</v>
+        <v>18.68</v>
       </c>
       <c r="H39" t="n">
-        <v>16.9</v>
+        <v>14.38</v>
       </c>
       <c r="I39" t="n">
-        <v>100.75</v>
+        <v>98.78</v>
       </c>
       <c r="J39" t="n">
-        <v>15.09</v>
+        <v>13.63</v>
       </c>
       <c r="K39" t="n">
         <v>123.21</v>
@@ -2263,7 +2263,7 @@
         <v>19</v>
       </c>
       <c r="O39" t="n">
-        <v>3.47</v>
+        <v>3.76</v>
       </c>
     </row>
     <row r="40">
@@ -2283,19 +2283,19 @@
         <v>254.37</v>
       </c>
       <c r="F40" t="n">
-        <v>19.92</v>
+        <v>20.18</v>
       </c>
       <c r="G40" t="n">
-        <v>20.55</v>
+        <v>21.95</v>
       </c>
       <c r="H40" t="n">
-        <v>16.45</v>
+        <v>16.07</v>
       </c>
       <c r="I40" t="n">
-        <v>99.63</v>
+        <v>97.27</v>
       </c>
       <c r="J40" t="n">
-        <v>15.84</v>
+        <v>15.59</v>
       </c>
       <c r="K40" t="n">
         <v>49.56</v>
@@ -2310,7 +2310,7 @@
         <v>19</v>
       </c>
       <c r="O40" t="n">
-        <v>4.71</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="41">
@@ -2330,19 +2330,19 @@
         <v>1007.6</v>
       </c>
       <c r="F41" t="n">
-        <v>16.87</v>
+        <v>18.52</v>
       </c>
       <c r="G41" t="n">
-        <v>16.75</v>
+        <v>19.57</v>
       </c>
       <c r="H41" t="n">
-        <v>10.62</v>
+        <v>13.64</v>
       </c>
       <c r="I41" t="n">
-        <v>97.06</v>
+        <v>96.95</v>
       </c>
       <c r="J41" t="n">
-        <v>12.03</v>
+        <v>15.58</v>
       </c>
       <c r="K41" t="n">
         <v>110.6</v>
@@ -2357,7 +2357,7 @@
         <v>19</v>
       </c>
       <c r="O41" t="n">
-        <v>4.72</v>
+        <v>6.18</v>
       </c>
     </row>
     <row r="42">
@@ -2377,19 +2377,19 @@
         <v>308.59</v>
       </c>
       <c r="F42" t="n">
-        <v>27.4</v>
+        <v>27.11</v>
       </c>
       <c r="G42" t="n">
-        <v>17.59</v>
+        <v>17.76</v>
       </c>
       <c r="H42" t="n">
-        <v>12.22</v>
+        <v>12.45</v>
       </c>
       <c r="I42" t="n">
-        <v>77.46</v>
+        <v>76.71</v>
       </c>
       <c r="J42" t="n">
-        <v>10.48</v>
+        <v>12.28</v>
       </c>
       <c r="K42" t="n">
         <v>51.99</v>
@@ -2404,7 +2404,7 @@
         <v>18</v>
       </c>
       <c r="O42" t="n">
-        <v>21.27</v>
+        <v>23.22</v>
       </c>
     </row>
     <row r="43">
@@ -2424,19 +2424,19 @@
         <v>554.62</v>
       </c>
       <c r="F43" t="n">
-        <v>27.78</v>
+        <v>28.47</v>
       </c>
       <c r="G43" t="n">
-        <v>19.5</v>
+        <v>17.81</v>
       </c>
       <c r="H43" t="n">
-        <v>12.95</v>
+        <v>13.92</v>
       </c>
       <c r="I43" t="n">
-        <v>75.12</v>
+        <v>80.27</v>
       </c>
       <c r="J43" t="n">
-        <v>15.53</v>
+        <v>9.78</v>
       </c>
       <c r="K43" t="n">
         <v>52.54</v>
@@ -2451,7 +2451,7 @@
         <v>18</v>
       </c>
       <c r="O43" t="n">
-        <v>26.21</v>
+        <v>19.66</v>
       </c>
     </row>
     <row r="44">
@@ -2471,19 +2471,19 @@
         <v>447.11</v>
       </c>
       <c r="F44" t="n">
-        <v>28.32</v>
+        <v>31.31</v>
       </c>
       <c r="G44" t="n">
-        <v>18.84</v>
+        <v>21.51</v>
       </c>
       <c r="H44" t="n">
-        <v>10.94</v>
+        <v>15.62</v>
       </c>
       <c r="I44" t="n">
-        <v>76.25</v>
+        <v>80.24</v>
       </c>
       <c r="J44" t="n">
-        <v>11.26</v>
+        <v>16.56</v>
       </c>
       <c r="K44" t="n">
         <v>54.27</v>
@@ -2498,7 +2498,7 @@
         <v>18</v>
       </c>
       <c r="O44" t="n">
-        <v>22.61</v>
+        <v>26.19</v>
       </c>
     </row>
     <row r="45">
@@ -2518,19 +2518,19 @@
         <v>654.27</v>
       </c>
       <c r="F45" t="n">
-        <v>29.61</v>
+        <v>28.92</v>
       </c>
       <c r="G45" t="n">
-        <v>18.87</v>
+        <v>20.29</v>
       </c>
       <c r="H45" t="n">
-        <v>14.98</v>
+        <v>14.88</v>
       </c>
       <c r="I45" t="n">
-        <v>81.27</v>
+        <v>77.12</v>
       </c>
       <c r="J45" t="n">
-        <v>12.22</v>
+        <v>15.43</v>
       </c>
       <c r="K45" t="n">
         <v>59.78</v>
@@ -2545,7 +2545,7 @@
         <v>18</v>
       </c>
       <c r="O45" t="n">
-        <v>21.99</v>
+        <v>24.84</v>
       </c>
     </row>
     <row r="46">
@@ -2565,19 +2565,19 @@
         <v>364.9</v>
       </c>
       <c r="F46" t="n">
-        <v>30.46</v>
+        <v>27.86</v>
       </c>
       <c r="G46" t="n">
-        <v>20.73</v>
+        <v>17.62</v>
       </c>
       <c r="H46" t="n">
-        <v>17.58</v>
+        <v>12.99</v>
       </c>
       <c r="I46" t="n">
-        <v>81.15</v>
+        <v>78.91</v>
       </c>
       <c r="J46" t="n">
-        <v>18.53</v>
+        <v>14.78</v>
       </c>
       <c r="K46" t="n">
         <v>49.7</v>
@@ -2592,7 +2592,7 @@
         <v>18</v>
       </c>
       <c r="O46" t="n">
-        <v>27.73</v>
+        <v>26.73</v>
       </c>
     </row>
     <row r="47">
@@ -2612,19 +2612,19 @@
         <v>429.18</v>
       </c>
       <c r="F47" t="n">
-        <v>29.85</v>
+        <v>31.65</v>
       </c>
       <c r="G47" t="n">
-        <v>19.27</v>
+        <v>21.94</v>
       </c>
       <c r="H47" t="n">
-        <v>14</v>
+        <v>15.47</v>
       </c>
       <c r="I47" t="n">
-        <v>80.46</v>
+        <v>80.04</v>
       </c>
       <c r="J47" t="n">
-        <v>13.18</v>
+        <v>16.61</v>
       </c>
       <c r="K47" t="n">
         <v>41.08</v>
@@ -2639,7 +2639,7 @@
         <v>18</v>
       </c>
       <c r="O47" t="n">
-        <v>23.7</v>
+        <v>26.19</v>
       </c>
     </row>
     <row r="48">
@@ -2659,19 +2659,19 @@
         <v>629.58</v>
       </c>
       <c r="F48" t="n">
-        <v>30.18</v>
+        <v>30.14</v>
       </c>
       <c r="G48" t="n">
-        <v>20.35</v>
+        <v>20.22</v>
       </c>
       <c r="H48" t="n">
-        <v>15.74</v>
+        <v>15.95</v>
       </c>
       <c r="I48" t="n">
-        <v>80.12</v>
+        <v>80.45</v>
       </c>
       <c r="J48" t="n">
-        <v>14.63</v>
+        <v>16.23</v>
       </c>
       <c r="K48" t="n">
         <v>49.68</v>
@@ -2686,7 +2686,7 @@
         <v>18</v>
       </c>
       <c r="O48" t="n">
-        <v>23.86</v>
+        <v>25.94</v>
       </c>
     </row>
     <row r="49">
@@ -2706,19 +2706,19 @@
         <v>192.66</v>
       </c>
       <c r="F49" t="n">
-        <v>28.57</v>
+        <v>32.64</v>
       </c>
       <c r="G49" t="n">
-        <v>17.49</v>
+        <v>22.47</v>
       </c>
       <c r="H49" t="n">
-        <v>9.07</v>
+        <v>16.45</v>
       </c>
       <c r="I49" t="n">
-        <v>78.26</v>
+        <v>81.64</v>
       </c>
       <c r="J49" t="n">
-        <v>10.39</v>
+        <v>15.71</v>
       </c>
       <c r="K49" t="n">
         <v>43.28</v>
@@ -2733,7 +2733,7 @@
         <v>19</v>
       </c>
       <c r="O49" t="n">
-        <v>23.86</v>
+        <v>24.48</v>
       </c>
     </row>
   </sheetData>

--- a/data/fleas_model_data.xlsx
+++ b/data/fleas_model_data.xlsx
@@ -497,19 +497,19 @@
         <v>516.41</v>
       </c>
       <c r="F2" t="n">
-        <v>40.3</v>
+        <v>37.4</v>
       </c>
       <c r="G2" t="n">
-        <v>20.29</v>
+        <v>17.46</v>
       </c>
       <c r="H2" t="n">
-        <v>10.19</v>
+        <v>9.51</v>
       </c>
       <c r="I2" t="n">
-        <v>110.23</v>
+        <v>109.16</v>
       </c>
       <c r="J2" t="n">
-        <v>52.61</v>
+        <v>50.16</v>
       </c>
       <c r="K2" t="n">
         <v>70.9</v>
@@ -524,7 +524,7 @@
         <v>18</v>
       </c>
       <c r="O2" t="n">
-        <v>8.29</v>
+        <v>4145.26</v>
       </c>
     </row>
     <row r="3">
@@ -544,19 +544,19 @@
         <v>363.5</v>
       </c>
       <c r="F3" t="n">
-        <v>40.22</v>
+        <v>39.07</v>
       </c>
       <c r="G3" t="n">
-        <v>20.71</v>
+        <v>18.27</v>
       </c>
       <c r="H3" t="n">
-        <v>10.36</v>
+        <v>8.56</v>
       </c>
       <c r="I3" t="n">
-        <v>109.35</v>
+        <v>110.49</v>
       </c>
       <c r="J3" t="n">
-        <v>51.81</v>
+        <v>47.81</v>
       </c>
       <c r="K3" t="n">
         <v>50.75</v>
@@ -571,7 +571,7 @@
         <v>19</v>
       </c>
       <c r="O3" t="n">
-        <v>6.74</v>
+        <v>1870.34</v>
       </c>
     </row>
     <row r="4">
@@ -591,19 +591,19 @@
         <v>303.01</v>
       </c>
       <c r="F4" t="n">
-        <v>40.71</v>
+        <v>36.76</v>
       </c>
       <c r="G4" t="n">
-        <v>20.17</v>
+        <v>17.57</v>
       </c>
       <c r="H4" t="n">
-        <v>11.36</v>
+        <v>6.89</v>
       </c>
       <c r="I4" t="n">
-        <v>111.96</v>
+        <v>106</v>
       </c>
       <c r="J4" t="n">
-        <v>50.4</v>
+        <v>47.44</v>
       </c>
       <c r="K4" t="n">
         <v>62.22</v>
@@ -618,7 +618,7 @@
         <v>19</v>
       </c>
       <c r="O4" t="n">
-        <v>4.91</v>
+        <v>1758.09</v>
       </c>
     </row>
     <row r="5">
@@ -638,19 +638,19 @@
         <v>257.13</v>
       </c>
       <c r="F5" t="n">
-        <v>39.9</v>
+        <v>36.39</v>
       </c>
       <c r="G5" t="n">
-        <v>20.17</v>
+        <v>17.61</v>
       </c>
       <c r="H5" t="n">
-        <v>9.5</v>
+        <v>7.57</v>
       </c>
       <c r="I5" t="n">
-        <v>109.23</v>
+        <v>105.52</v>
       </c>
       <c r="J5" t="n">
-        <v>52.74</v>
+        <v>45.69</v>
       </c>
       <c r="K5" t="n">
         <v>66.07</v>
@@ -665,7 +665,7 @@
         <v>19</v>
       </c>
       <c r="O5" t="n">
-        <v>8.78</v>
+        <v>-1236.52</v>
       </c>
     </row>
     <row r="6">
@@ -685,19 +685,19 @@
         <v>254.16</v>
       </c>
       <c r="F6" t="n">
-        <v>42.53</v>
+        <v>40.94</v>
       </c>
       <c r="G6" t="n">
-        <v>22.76</v>
+        <v>21.33</v>
       </c>
       <c r="H6" t="n">
-        <v>12.81</v>
+        <v>12.42</v>
       </c>
       <c r="I6" t="n">
-        <v>111.68</v>
+        <v>110.84</v>
       </c>
       <c r="J6" t="n">
-        <v>52.18</v>
+        <v>50.43</v>
       </c>
       <c r="K6" t="n">
         <v>62.58</v>
@@ -712,7 +712,7 @@
         <v>19</v>
       </c>
       <c r="O6" t="n">
-        <v>5.28</v>
+        <v>1484.94</v>
       </c>
     </row>
     <row r="7">
@@ -732,19 +732,19 @@
         <v>604.06</v>
       </c>
       <c r="F7" t="n">
-        <v>42.36</v>
+        <v>35.98</v>
       </c>
       <c r="G7" t="n">
-        <v>21.92</v>
+        <v>16.73</v>
       </c>
       <c r="H7" t="n">
-        <v>12.86</v>
+        <v>8.37</v>
       </c>
       <c r="I7" t="n">
-        <v>112.91</v>
+        <v>106.83</v>
       </c>
       <c r="J7" t="n">
-        <v>49.43</v>
+        <v>46.83</v>
       </c>
       <c r="K7" t="n">
         <v>74.44</v>
@@ -759,7 +759,7 @@
         <v>19</v>
       </c>
       <c r="O7" t="n">
-        <v>2.16</v>
+        <v>257.95</v>
       </c>
     </row>
     <row r="8">
@@ -779,19 +779,19 @@
         <v>828.59</v>
       </c>
       <c r="F8" t="n">
-        <v>39.18</v>
+        <v>40.34</v>
       </c>
       <c r="G8" t="n">
-        <v>18.81</v>
+        <v>20.33</v>
       </c>
       <c r="H8" t="n">
-        <v>6.96</v>
+        <v>12.62</v>
       </c>
       <c r="I8" t="n">
-        <v>108.76</v>
+        <v>111.65</v>
       </c>
       <c r="J8" t="n">
-        <v>47.67</v>
+        <v>51.86</v>
       </c>
       <c r="K8" t="n">
         <v>82.95</v>
@@ -806,7 +806,7 @@
         <v>19</v>
       </c>
       <c r="O8" t="n">
-        <v>4.34</v>
+        <v>3732.47</v>
       </c>
     </row>
     <row r="9">
@@ -826,19 +826,19 @@
         <v>818.44</v>
       </c>
       <c r="F9" t="n">
-        <v>42.74</v>
+        <v>40.24</v>
       </c>
       <c r="G9" t="n">
-        <v>22.83</v>
+        <v>18.73</v>
       </c>
       <c r="H9" t="n">
-        <v>11.63</v>
+        <v>7.87</v>
       </c>
       <c r="I9" t="n">
-        <v>111.3</v>
+        <v>111.62</v>
       </c>
       <c r="J9" t="n">
-        <v>52.03</v>
+        <v>46.3</v>
       </c>
       <c r="K9" t="n">
         <v>81.21</v>
@@ -853,7 +853,7 @@
         <v>18</v>
       </c>
       <c r="O9" t="n">
-        <v>5.88</v>
+        <v>568.71</v>
       </c>
     </row>
     <row r="10">
@@ -873,19 +873,19 @@
         <v>595.05</v>
       </c>
       <c r="F10" t="n">
-        <v>28.69</v>
+        <v>26.59</v>
       </c>
       <c r="G10" t="n">
-        <v>8.36</v>
+        <v>6.32</v>
       </c>
       <c r="H10" t="n">
-        <v>6.03</v>
+        <v>4.01</v>
       </c>
       <c r="I10" t="n">
-        <v>121</v>
+        <v>119.34</v>
       </c>
       <c r="J10" t="n">
-        <v>59.49</v>
+        <v>59.23</v>
       </c>
       <c r="K10" t="n">
         <v>69.48</v>
@@ -900,7 +900,7 @@
         <v>18</v>
       </c>
       <c r="O10" t="n">
-        <v>4.27</v>
+        <v>3696.26</v>
       </c>
     </row>
     <row r="11">
@@ -920,19 +920,19 @@
         <v>294.64</v>
       </c>
       <c r="F11" t="n">
-        <v>29.68</v>
+        <v>33.1</v>
       </c>
       <c r="G11" t="n">
-        <v>10.02</v>
+        <v>13.25</v>
       </c>
       <c r="H11" t="n">
-        <v>3.73</v>
+        <v>6.68</v>
       </c>
       <c r="I11" t="n">
-        <v>118.53</v>
+        <v>121.29</v>
       </c>
       <c r="J11" t="n">
-        <v>59.1</v>
+        <v>63.35</v>
       </c>
       <c r="K11" t="n">
         <v>57.17</v>
@@ -947,7 +947,7 @@
         <v>18</v>
       </c>
       <c r="O11" t="n">
-        <v>4.42</v>
+        <v>5479.45</v>
       </c>
     </row>
     <row r="12">
@@ -967,19 +967,19 @@
         <v>460.29</v>
       </c>
       <c r="F12" t="n">
-        <v>31.06</v>
+        <v>29.24</v>
       </c>
       <c r="G12" t="n">
-        <v>10.03</v>
+        <v>9.84</v>
       </c>
       <c r="H12" t="n">
-        <v>6.66</v>
+        <v>5.37</v>
       </c>
       <c r="I12" t="n">
-        <v>123.12</v>
+        <v>118.96</v>
       </c>
       <c r="J12" t="n">
-        <v>59.69</v>
+        <v>61.3</v>
       </c>
       <c r="K12" t="n">
         <v>47.21</v>
@@ -994,7 +994,7 @@
         <v>19</v>
       </c>
       <c r="O12" t="n">
-        <v>4.08</v>
+        <v>4206.28</v>
       </c>
     </row>
     <row r="13">
@@ -1014,19 +1014,19 @@
         <v>183.54</v>
       </c>
       <c r="F13" t="n">
-        <v>29.13</v>
+        <v>30.06</v>
       </c>
       <c r="G13" t="n">
-        <v>9.51</v>
+        <v>9.72</v>
       </c>
       <c r="H13" t="n">
-        <v>6</v>
+        <v>5.51</v>
       </c>
       <c r="I13" t="n">
-        <v>119.75</v>
+        <v>120.98</v>
       </c>
       <c r="J13" t="n">
-        <v>61.56</v>
+        <v>60.6</v>
       </c>
       <c r="K13" t="n">
         <v>46.99</v>
@@ -1041,7 +1041,7 @@
         <v>18</v>
       </c>
       <c r="O13" t="n">
-        <v>6.37</v>
+        <v>3735.44</v>
       </c>
     </row>
     <row r="14">
@@ -1061,19 +1061,19 @@
         <v>522.25</v>
       </c>
       <c r="F14" t="n">
-        <v>27.17</v>
+        <v>31.73</v>
       </c>
       <c r="G14" t="n">
-        <v>6.6</v>
+        <v>11.29</v>
       </c>
       <c r="H14" t="n">
-        <v>2.55</v>
+        <v>9.5</v>
       </c>
       <c r="I14" t="n">
-        <v>119.18</v>
+        <v>123.87</v>
       </c>
       <c r="J14" t="n">
-        <v>59.78</v>
+        <v>64.7</v>
       </c>
       <c r="K14" t="n">
         <v>59.84</v>
@@ -1088,7 +1088,7 @@
         <v>18</v>
       </c>
       <c r="O14" t="n">
-        <v>7.45</v>
+        <v>6301.47</v>
       </c>
     </row>
     <row r="15">
@@ -1108,19 +1108,19 @@
         <v>486.27</v>
       </c>
       <c r="F15" t="n">
-        <v>28.66</v>
+        <v>28.8</v>
       </c>
       <c r="G15" t="n">
-        <v>9.45</v>
+        <v>9.01</v>
       </c>
       <c r="H15" t="n">
-        <v>2.94</v>
+        <v>2.44</v>
       </c>
       <c r="I15" t="n">
-        <v>116.97</v>
+        <v>117.82</v>
       </c>
       <c r="J15" t="n">
-        <v>56.02</v>
+        <v>57.16</v>
       </c>
       <c r="K15" t="n">
         <v>59.81</v>
@@ -1135,7 +1135,7 @@
         <v>19</v>
       </c>
       <c r="O15" t="n">
-        <v>0.73</v>
+        <v>986.32</v>
       </c>
     </row>
     <row r="16">
@@ -1155,19 +1155,19 @@
         <v>424.9</v>
       </c>
       <c r="F16" t="n">
-        <v>30.29</v>
+        <v>29.79</v>
       </c>
       <c r="G16" t="n">
-        <v>10.26</v>
+        <v>9.94</v>
       </c>
       <c r="H16" t="n">
-        <v>6.62</v>
+        <v>3.35</v>
       </c>
       <c r="I16" t="n">
-        <v>121.04</v>
+        <v>118.68</v>
       </c>
       <c r="J16" t="n">
-        <v>59.73</v>
+        <v>59.43</v>
       </c>
       <c r="K16" t="n">
         <v>66.55</v>
@@ -1182,7 +1182,7 @@
         <v>19</v>
       </c>
       <c r="O16" t="n">
-        <v>3.55</v>
+        <v>3222.54</v>
       </c>
     </row>
     <row r="17">
@@ -1202,19 +1202,19 @@
         <v>475.93</v>
       </c>
       <c r="F17" t="n">
-        <v>27.08</v>
+        <v>28.77</v>
       </c>
       <c r="G17" t="n">
-        <v>7.04</v>
+        <v>9.24</v>
       </c>
       <c r="H17" t="n">
-        <v>4.55</v>
+        <v>3.86</v>
       </c>
       <c r="I17" t="n">
-        <v>119.26</v>
+        <v>118.16</v>
       </c>
       <c r="J17" t="n">
-        <v>58.25</v>
+        <v>57.48</v>
       </c>
       <c r="K17" t="n">
         <v>51.12</v>
@@ -1229,7 +1229,7 @@
         <v>18</v>
       </c>
       <c r="O17" t="n">
-        <v>3.74</v>
+        <v>308.28</v>
       </c>
     </row>
     <row r="18">
@@ -1249,19 +1249,19 @@
         <v>642.75</v>
       </c>
       <c r="F18" t="n">
-        <v>19.76</v>
+        <v>17.05</v>
       </c>
       <c r="G18" t="n">
-        <v>19.65</v>
+        <v>16.77</v>
       </c>
       <c r="H18" t="n">
-        <v>7.18</v>
+        <v>1.29</v>
       </c>
       <c r="I18" t="n">
-        <v>121.45</v>
+        <v>117.8</v>
       </c>
       <c r="J18" t="n">
-        <v>20.2</v>
+        <v>17.29</v>
       </c>
       <c r="K18" t="n">
         <v>103.08</v>
@@ -1276,7 +1276,7 @@
         <v>18</v>
       </c>
       <c r="O18" t="n">
-        <v>14.03</v>
+        <v>14740.33</v>
       </c>
     </row>
     <row r="19">
@@ -1296,19 +1296,19 @@
         <v>302.72</v>
       </c>
       <c r="F19" t="n">
-        <v>17.68</v>
+        <v>20.82</v>
       </c>
       <c r="G19" t="n">
-        <v>18.02</v>
+        <v>20.93</v>
       </c>
       <c r="H19" t="n">
-        <v>4.97</v>
+        <v>6.28</v>
       </c>
       <c r="I19" t="n">
-        <v>118.91</v>
+        <v>120.73</v>
       </c>
       <c r="J19" t="n">
-        <v>19.23</v>
+        <v>21.6</v>
       </c>
       <c r="K19" t="n">
         <v>78.67</v>
@@ -1323,7 +1323,7 @@
         <v>18</v>
       </c>
       <c r="O19" t="n">
-        <v>14.31</v>
+        <v>16025.15</v>
       </c>
     </row>
     <row r="20">
@@ -1343,19 +1343,19 @@
         <v>183.81</v>
       </c>
       <c r="F20" t="n">
-        <v>20.58</v>
+        <v>18.08</v>
       </c>
       <c r="G20" t="n">
-        <v>20.21</v>
+        <v>18.94</v>
       </c>
       <c r="H20" t="n">
-        <v>4.63</v>
+        <v>5.05</v>
       </c>
       <c r="I20" t="n">
-        <v>120.57</v>
+        <v>118.04</v>
       </c>
       <c r="J20" t="n">
-        <v>19.05</v>
+        <v>20.09</v>
       </c>
       <c r="K20" t="n">
         <v>66.23</v>
@@ -1370,7 +1370,7 @@
         <v>18</v>
       </c>
       <c r="O20" t="n">
-        <v>14.12</v>
+        <v>14899.95</v>
       </c>
     </row>
     <row r="21">
@@ -1390,19 +1390,19 @@
         <v>504.66</v>
       </c>
       <c r="F21" t="n">
-        <v>22.11</v>
+        <v>19.73</v>
       </c>
       <c r="G21" t="n">
-        <v>23.22</v>
+        <v>19.79</v>
       </c>
       <c r="H21" t="n">
-        <v>7.8</v>
+        <v>3.51</v>
       </c>
       <c r="I21" t="n">
-        <v>119.93</v>
+        <v>118.94</v>
       </c>
       <c r="J21" t="n">
-        <v>22.39</v>
+        <v>19.22</v>
       </c>
       <c r="K21" t="n">
         <v>104.75</v>
@@ -1417,7 +1417,7 @@
         <v>18</v>
       </c>
       <c r="O21" t="n">
-        <v>14.98</v>
+        <v>14926.6</v>
       </c>
     </row>
     <row r="22">
@@ -1437,19 +1437,19 @@
         <v>380.48</v>
       </c>
       <c r="F22" t="n">
-        <v>22.63</v>
+        <v>20.21</v>
       </c>
       <c r="G22" t="n">
-        <v>21.71</v>
+        <v>19.87</v>
       </c>
       <c r="H22" t="n">
-        <v>7.58</v>
+        <v>7.09</v>
       </c>
       <c r="I22" t="n">
-        <v>123.76</v>
+        <v>121.96</v>
       </c>
       <c r="J22" t="n">
-        <v>21.3</v>
+        <v>22.37</v>
       </c>
       <c r="K22" t="n">
         <v>81.19</v>
@@ -1464,7 +1464,7 @@
         <v>18</v>
       </c>
       <c r="O22" t="n">
-        <v>15.14</v>
+        <v>17039.46</v>
       </c>
     </row>
     <row r="23">
@@ -1484,19 +1484,19 @@
         <v>131.11</v>
       </c>
       <c r="F23" t="n">
-        <v>20.1</v>
+        <v>20.14</v>
       </c>
       <c r="G23" t="n">
-        <v>20.4</v>
+        <v>19.86</v>
       </c>
       <c r="H23" t="n">
-        <v>4.02</v>
+        <v>6.95</v>
       </c>
       <c r="I23" t="n">
-        <v>118.84</v>
+        <v>121.75</v>
       </c>
       <c r="J23" t="n">
-        <v>18.96</v>
+        <v>21.68</v>
       </c>
       <c r="K23" t="n">
         <v>54.73</v>
@@ -1511,7 +1511,7 @@
         <v>18</v>
       </c>
       <c r="O23" t="n">
-        <v>13.98</v>
+        <v>16194.3</v>
       </c>
     </row>
     <row r="24">
@@ -1531,19 +1531,19 @@
         <v>264.4</v>
       </c>
       <c r="F24" t="n">
-        <v>18.71</v>
+        <v>15.93</v>
       </c>
       <c r="G24" t="n">
-        <v>18.36</v>
+        <v>16.26</v>
       </c>
       <c r="H24" t="n">
-        <v>5.64</v>
+        <v>1.99</v>
       </c>
       <c r="I24" t="n">
-        <v>120.81</v>
+        <v>116.85</v>
       </c>
       <c r="J24" t="n">
-        <v>19.42</v>
+        <v>17.65</v>
       </c>
       <c r="K24" t="n">
         <v>74.2</v>
@@ -1558,7 +1558,7 @@
         <v>18</v>
       </c>
       <c r="O24" t="n">
-        <v>14.44</v>
+        <v>14569.58</v>
       </c>
     </row>
     <row r="25">
@@ -1578,19 +1578,19 @@
         <v>492.03</v>
       </c>
       <c r="F25" t="n">
-        <v>22.27</v>
+        <v>20.16</v>
       </c>
       <c r="G25" t="n">
-        <v>21.92</v>
+        <v>19.71</v>
       </c>
       <c r="H25" t="n">
-        <v>4.71</v>
+        <v>4.22</v>
       </c>
       <c r="I25" t="n">
-        <v>120.82</v>
+        <v>120.4</v>
       </c>
       <c r="J25" t="n">
-        <v>17.24</v>
+        <v>18.42</v>
       </c>
       <c r="K25" t="n">
         <v>93.75</v>
@@ -1605,7 +1605,7 @@
         <v>18</v>
       </c>
       <c r="O25" t="n">
-        <v>11.19</v>
+        <v>13703.59</v>
       </c>
     </row>
     <row r="26">
@@ -1625,19 +1625,19 @@
         <v>610.66</v>
       </c>
       <c r="F26" t="n">
-        <v>41.98</v>
+        <v>39.03</v>
       </c>
       <c r="G26" t="n">
-        <v>11.51</v>
+        <v>8.86</v>
       </c>
       <c r="H26" t="n">
-        <v>11.59</v>
+        <v>8.79</v>
       </c>
       <c r="I26" t="n">
-        <v>142.17</v>
+        <v>139.48</v>
       </c>
       <c r="J26" t="n">
-        <v>20.6</v>
+        <v>21</v>
       </c>
       <c r="K26" t="n">
         <v>75.14</v>
@@ -1652,7 +1652,7 @@
         <v>19</v>
       </c>
       <c r="O26" t="n">
-        <v>4.65</v>
+        <v>6488.05</v>
       </c>
     </row>
     <row r="27">
@@ -1672,19 +1672,19 @@
         <v>152.78</v>
       </c>
       <c r="F27" t="n">
-        <v>37.66</v>
+        <v>36.82</v>
       </c>
       <c r="G27" t="n">
-        <v>7.76</v>
+        <v>6.57</v>
       </c>
       <c r="H27" t="n">
-        <v>8.18</v>
+        <v>6.82</v>
       </c>
       <c r="I27" t="n">
-        <v>138.3</v>
+        <v>138.02</v>
       </c>
       <c r="J27" t="n">
-        <v>17.81</v>
+        <v>16.88</v>
       </c>
       <c r="K27" t="n">
         <v>39.86</v>
@@ -1699,7 +1699,7 @@
         <v>18</v>
       </c>
       <c r="O27" t="n">
-        <v>3.76</v>
+        <v>2886.95</v>
       </c>
     </row>
     <row r="28">
@@ -1719,19 +1719,19 @@
         <v>815.91</v>
       </c>
       <c r="F28" t="n">
-        <v>38.32</v>
+        <v>38.08</v>
       </c>
       <c r="G28" t="n">
-        <v>8.41</v>
+        <v>7.3</v>
       </c>
       <c r="H28" t="n">
-        <v>10.13</v>
+        <v>8.78</v>
       </c>
       <c r="I28" t="n">
-        <v>139.68</v>
+        <v>140.45</v>
       </c>
       <c r="J28" t="n">
-        <v>23.2</v>
+        <v>20.26</v>
       </c>
       <c r="K28" t="n">
         <v>90.83</v>
@@ -1746,7 +1746,7 @@
         <v>18</v>
       </c>
       <c r="O28" t="n">
-        <v>9.54</v>
+        <v>6240.12</v>
       </c>
     </row>
     <row r="29">
@@ -1766,19 +1766,19 @@
         <v>615.64</v>
       </c>
       <c r="F29" t="n">
-        <v>39.63</v>
+        <v>42.94</v>
       </c>
       <c r="G29" t="n">
-        <v>8.94</v>
+        <v>11.94</v>
       </c>
       <c r="H29" t="n">
-        <v>8.82</v>
+        <v>11.77</v>
       </c>
       <c r="I29" t="n">
-        <v>140.59</v>
+        <v>143.51</v>
       </c>
       <c r="J29" t="n">
-        <v>21.27</v>
+        <v>22</v>
       </c>
       <c r="K29" t="n">
         <v>81.46</v>
@@ -1793,7 +1793,7 @@
         <v>18</v>
       </c>
       <c r="O29" t="n">
-        <v>8.09</v>
+        <v>5571.63</v>
       </c>
     </row>
     <row r="30">
@@ -1813,19 +1813,19 @@
         <v>707.14</v>
       </c>
       <c r="F30" t="n">
-        <v>39.8</v>
+        <v>42.23</v>
       </c>
       <c r="G30" t="n">
-        <v>9.2</v>
+        <v>12.11</v>
       </c>
       <c r="H30" t="n">
-        <v>11.45</v>
+        <v>13.28</v>
       </c>
       <c r="I30" t="n">
-        <v>142.01</v>
+        <v>142.57</v>
       </c>
       <c r="J30" t="n">
-        <v>21.64</v>
+        <v>22.19</v>
       </c>
       <c r="K30" t="n">
         <v>90.66</v>
@@ -1840,7 +1840,7 @@
         <v>18</v>
       </c>
       <c r="O30" t="n">
-        <v>6.79</v>
+        <v>4341.25</v>
       </c>
     </row>
     <row r="31">
@@ -1860,19 +1860,19 @@
         <v>237.03</v>
       </c>
       <c r="F31" t="n">
-        <v>38.01</v>
+        <v>38.02</v>
       </c>
       <c r="G31" t="n">
-        <v>8.09</v>
+        <v>8.52</v>
       </c>
       <c r="H31" t="n">
-        <v>8.6</v>
+        <v>6.67</v>
       </c>
       <c r="I31" t="n">
-        <v>138.65</v>
+        <v>136.69</v>
       </c>
       <c r="J31" t="n">
-        <v>18.7</v>
+        <v>17.59</v>
       </c>
       <c r="K31" t="n">
         <v>49.13</v>
@@ -1887,7 +1887,7 @@
         <v>19</v>
       </c>
       <c r="O31" t="n">
-        <v>4.61</v>
+        <v>3011.14</v>
       </c>
     </row>
     <row r="32">
@@ -1907,19 +1907,19 @@
         <v>267.33</v>
       </c>
       <c r="F32" t="n">
-        <v>41.85</v>
+        <v>38.37</v>
       </c>
       <c r="G32" t="n">
-        <v>12.01</v>
+        <v>7.92</v>
       </c>
       <c r="H32" t="n">
-        <v>12.69</v>
+        <v>7.91</v>
       </c>
       <c r="I32" t="n">
-        <v>141.58</v>
+        <v>139.37</v>
       </c>
       <c r="J32" t="n">
-        <v>19.65</v>
+        <v>19.62</v>
       </c>
       <c r="K32" t="n">
         <v>57.1</v>
@@ -1934,7 +1934,7 @@
         <v>19</v>
       </c>
       <c r="O32" t="n">
-        <v>2.22</v>
+        <v>5609.81</v>
       </c>
     </row>
     <row r="33">
@@ -1954,19 +1954,19 @@
         <v>319.09</v>
       </c>
       <c r="F33" t="n">
-        <v>38.77</v>
+        <v>44.21</v>
       </c>
       <c r="G33" t="n">
-        <v>8.23</v>
+        <v>14.1</v>
       </c>
       <c r="H33" t="n">
-        <v>7.61</v>
+        <v>16.87</v>
       </c>
       <c r="I33" t="n">
-        <v>139.42</v>
+        <v>145.04</v>
       </c>
       <c r="J33" t="n">
-        <v>19.27</v>
+        <v>23.33</v>
       </c>
       <c r="K33" t="n">
         <v>66.25</v>
@@ -1981,7 +1981,7 @@
         <v>18</v>
       </c>
       <c r="O33" t="n">
-        <v>6.29</v>
+        <v>3075.67</v>
       </c>
     </row>
     <row r="34">
@@ -2001,19 +2001,19 @@
         <v>452.56</v>
       </c>
       <c r="F34" t="n">
-        <v>19.57</v>
+        <v>19.26</v>
       </c>
       <c r="G34" t="n">
-        <v>19.16</v>
+        <v>19.13</v>
       </c>
       <c r="H34" t="n">
-        <v>11.62</v>
+        <v>17.83</v>
       </c>
       <c r="I34" t="n">
-        <v>98.72</v>
+        <v>101.9</v>
       </c>
       <c r="J34" t="n">
-        <v>14.41</v>
+        <v>19.8</v>
       </c>
       <c r="K34" t="n">
         <v>72.81</v>
@@ -2028,7 +2028,7 @@
         <v>19</v>
       </c>
       <c r="O34" t="n">
-        <v>6.8</v>
+        <v>9882.35</v>
       </c>
     </row>
     <row r="35">
@@ -2048,19 +2048,19 @@
         <v>327.23</v>
       </c>
       <c r="F35" t="n">
-        <v>20.74</v>
+        <v>17.75</v>
       </c>
       <c r="G35" t="n">
-        <v>20.98</v>
+        <v>18.36</v>
       </c>
       <c r="H35" t="n">
-        <v>16.97</v>
+        <v>14.96</v>
       </c>
       <c r="I35" t="n">
-        <v>100.85</v>
+        <v>98.39</v>
       </c>
       <c r="J35" t="n">
-        <v>16.45</v>
+        <v>14.11</v>
       </c>
       <c r="K35" t="n">
         <v>56.02</v>
@@ -2075,7 +2075,7 @@
         <v>19</v>
       </c>
       <c r="O35" t="n">
-        <v>5.29</v>
+        <v>3936.15</v>
       </c>
     </row>
     <row r="36">
@@ -2095,19 +2095,19 @@
         <v>702.86</v>
       </c>
       <c r="F36" t="n">
-        <v>17.19</v>
+        <v>19.45</v>
       </c>
       <c r="G36" t="n">
-        <v>17.77</v>
+        <v>20.77</v>
       </c>
       <c r="H36" t="n">
-        <v>14.84</v>
+        <v>15.88</v>
       </c>
       <c r="I36" t="n">
-        <v>98.29</v>
+        <v>97.89</v>
       </c>
       <c r="J36" t="n">
-        <v>14.01</v>
+        <v>15.03</v>
       </c>
       <c r="K36" t="n">
         <v>101.37</v>
@@ -2122,7 +2122,7 @@
         <v>19</v>
       </c>
       <c r="O36" t="n">
-        <v>4.05</v>
+        <v>3580.08</v>
       </c>
     </row>
     <row r="37">
@@ -2142,19 +2142,19 @@
         <v>353.9</v>
       </c>
       <c r="F37" t="n">
-        <v>22.11</v>
+        <v>19.88</v>
       </c>
       <c r="G37" t="n">
-        <v>22.65</v>
+        <v>18.44</v>
       </c>
       <c r="H37" t="n">
-        <v>17.49</v>
+        <v>13.56</v>
       </c>
       <c r="I37" t="n">
-        <v>100.79</v>
+        <v>101.83</v>
       </c>
       <c r="J37" t="n">
-        <v>15.41</v>
+        <v>11.38</v>
       </c>
       <c r="K37" t="n">
         <v>59.6</v>
@@ -2169,7 +2169,7 @@
         <v>19</v>
       </c>
       <c r="O37" t="n">
-        <v>2.99</v>
+        <v>2278.26</v>
       </c>
     </row>
     <row r="38">
@@ -2189,19 +2189,19 @@
         <v>614.77</v>
       </c>
       <c r="F38" t="n">
-        <v>19.1</v>
+        <v>21.2</v>
       </c>
       <c r="G38" t="n">
-        <v>20.1</v>
+        <v>21.79</v>
       </c>
       <c r="H38" t="n">
-        <v>14.18</v>
+        <v>15.64</v>
       </c>
       <c r="I38" t="n">
-        <v>97.47</v>
+        <v>99.44</v>
       </c>
       <c r="J38" t="n">
-        <v>16.66</v>
+        <v>14.84</v>
       </c>
       <c r="K38" t="n">
         <v>75.92</v>
@@ -2216,7 +2216,7 @@
         <v>19</v>
       </c>
       <c r="O38" t="n">
-        <v>7.17</v>
+        <v>3603.42</v>
       </c>
     </row>
     <row r="39">
@@ -2236,19 +2236,19 @@
         <v>1048.33</v>
       </c>
       <c r="F39" t="n">
-        <v>18.4</v>
+        <v>19.55</v>
       </c>
       <c r="G39" t="n">
-        <v>18.68</v>
+        <v>18.07</v>
       </c>
       <c r="H39" t="n">
-        <v>14.38</v>
+        <v>12.32</v>
       </c>
       <c r="I39" t="n">
-        <v>98.78</v>
+        <v>101.14</v>
       </c>
       <c r="J39" t="n">
-        <v>13.63</v>
+        <v>11.7</v>
       </c>
       <c r="K39" t="n">
         <v>123.21</v>
@@ -2263,7 +2263,7 @@
         <v>19</v>
       </c>
       <c r="O39" t="n">
-        <v>3.76</v>
+        <v>3609.92</v>
       </c>
     </row>
     <row r="40">
@@ -2283,19 +2283,19 @@
         <v>254.37</v>
       </c>
       <c r="F40" t="n">
-        <v>20.18</v>
+        <v>19.88</v>
       </c>
       <c r="G40" t="n">
-        <v>21.95</v>
+        <v>19.34</v>
       </c>
       <c r="H40" t="n">
-        <v>16.07</v>
+        <v>15.32</v>
       </c>
       <c r="I40" t="n">
-        <v>97.27</v>
+        <v>101.19</v>
       </c>
       <c r="J40" t="n">
-        <v>15.59</v>
+        <v>15.09</v>
       </c>
       <c r="K40" t="n">
         <v>49.56</v>
@@ -2310,7 +2310,7 @@
         <v>19</v>
       </c>
       <c r="O40" t="n">
-        <v>3.65</v>
+        <v>5377.73</v>
       </c>
     </row>
     <row r="41">
@@ -2330,19 +2330,19 @@
         <v>1007.6</v>
       </c>
       <c r="F41" t="n">
-        <v>18.52</v>
+        <v>21.07</v>
       </c>
       <c r="G41" t="n">
-        <v>19.57</v>
+        <v>20.88</v>
       </c>
       <c r="H41" t="n">
-        <v>13.64</v>
+        <v>14.62</v>
       </c>
       <c r="I41" t="n">
-        <v>96.95</v>
+        <v>100.41</v>
       </c>
       <c r="J41" t="n">
-        <v>15.58</v>
+        <v>18.35</v>
       </c>
       <c r="K41" t="n">
         <v>110.6</v>
@@ -2357,7 +2357,7 @@
         <v>19</v>
       </c>
       <c r="O41" t="n">
-        <v>6.18</v>
+        <v>9585.35</v>
       </c>
     </row>
     <row r="42">
@@ -2377,19 +2377,19 @@
         <v>308.59</v>
       </c>
       <c r="F42" t="n">
-        <v>27.11</v>
+        <v>29.58</v>
       </c>
       <c r="G42" t="n">
-        <v>17.76</v>
+        <v>19</v>
       </c>
       <c r="H42" t="n">
-        <v>12.45</v>
+        <v>14.59</v>
       </c>
       <c r="I42" t="n">
-        <v>76.71</v>
+        <v>80.72</v>
       </c>
       <c r="J42" t="n">
-        <v>12.28</v>
+        <v>11.83</v>
       </c>
       <c r="K42" t="n">
         <v>51.99</v>
@@ -2404,7 +2404,7 @@
         <v>18</v>
       </c>
       <c r="O42" t="n">
-        <v>23.22</v>
+        <v>16605.01</v>
       </c>
     </row>
     <row r="43">
@@ -2424,19 +2424,19 @@
         <v>554.62</v>
       </c>
       <c r="F43" t="n">
-        <v>28.47</v>
+        <v>30.05</v>
       </c>
       <c r="G43" t="n">
-        <v>17.81</v>
+        <v>19</v>
       </c>
       <c r="H43" t="n">
-        <v>13.92</v>
+        <v>13.85</v>
       </c>
       <c r="I43" t="n">
-        <v>80.27</v>
+        <v>81.31</v>
       </c>
       <c r="J43" t="n">
-        <v>9.78</v>
+        <v>12.9</v>
       </c>
       <c r="K43" t="n">
         <v>52.54</v>
@@ -2451,7 +2451,7 @@
         <v>18</v>
       </c>
       <c r="O43" t="n">
-        <v>19.66</v>
+        <v>18765.35</v>
       </c>
     </row>
     <row r="44">
@@ -2471,19 +2471,19 @@
         <v>447.11</v>
       </c>
       <c r="F44" t="n">
-        <v>31.31</v>
+        <v>26.97</v>
       </c>
       <c r="G44" t="n">
-        <v>21.51</v>
+        <v>15.62</v>
       </c>
       <c r="H44" t="n">
-        <v>15.62</v>
+        <v>11.79</v>
       </c>
       <c r="I44" t="n">
-        <v>80.24</v>
+        <v>80.11</v>
       </c>
       <c r="J44" t="n">
-        <v>16.56</v>
+        <v>11.09</v>
       </c>
       <c r="K44" t="n">
         <v>54.27</v>
@@ -2498,7 +2498,7 @@
         <v>18</v>
       </c>
       <c r="O44" t="n">
-        <v>26.19</v>
+        <v>18684.29</v>
       </c>
     </row>
     <row r="45">
@@ -2518,19 +2518,19 @@
         <v>654.27</v>
       </c>
       <c r="F45" t="n">
-        <v>28.92</v>
+        <v>31.43</v>
       </c>
       <c r="G45" t="n">
-        <v>20.29</v>
+        <v>19.71</v>
       </c>
       <c r="H45" t="n">
-        <v>14.88</v>
+        <v>14.86</v>
       </c>
       <c r="I45" t="n">
-        <v>77.12</v>
+        <v>83.4</v>
       </c>
       <c r="J45" t="n">
-        <v>15.43</v>
+        <v>12.05</v>
       </c>
       <c r="K45" t="n">
         <v>59.78</v>
@@ -2545,7 +2545,7 @@
         <v>18</v>
       </c>
       <c r="O45" t="n">
-        <v>24.84</v>
+        <v>17161.1</v>
       </c>
     </row>
     <row r="46">
@@ -2565,19 +2565,19 @@
         <v>364.9</v>
       </c>
       <c r="F46" t="n">
-        <v>27.86</v>
+        <v>28.95</v>
       </c>
       <c r="G46" t="n">
-        <v>17.62</v>
+        <v>18.55</v>
       </c>
       <c r="H46" t="n">
-        <v>12.99</v>
+        <v>11.75</v>
       </c>
       <c r="I46" t="n">
-        <v>78.91</v>
+        <v>78.64</v>
       </c>
       <c r="J46" t="n">
-        <v>14.78</v>
+        <v>13.42</v>
       </c>
       <c r="K46" t="n">
         <v>49.7</v>
@@ -2592,7 +2592,7 @@
         <v>18</v>
       </c>
       <c r="O46" t="n">
-        <v>26.73</v>
+        <v>20543.66</v>
       </c>
     </row>
     <row r="47">
@@ -2612,19 +2612,19 @@
         <v>429.18</v>
       </c>
       <c r="F47" t="n">
-        <v>31.65</v>
+        <v>30.3</v>
       </c>
       <c r="G47" t="n">
-        <v>21.94</v>
+        <v>19.97</v>
       </c>
       <c r="H47" t="n">
-        <v>15.47</v>
+        <v>15.82</v>
       </c>
       <c r="I47" t="n">
-        <v>80.04</v>
+        <v>81.19</v>
       </c>
       <c r="J47" t="n">
-        <v>16.61</v>
+        <v>15.66</v>
       </c>
       <c r="K47" t="n">
         <v>41.08</v>
@@ -2639,7 +2639,7 @@
         <v>18</v>
       </c>
       <c r="O47" t="n">
-        <v>26.19</v>
+        <v>20546.32</v>
       </c>
     </row>
     <row r="48">
@@ -2659,19 +2659,19 @@
         <v>629.58</v>
       </c>
       <c r="F48" t="n">
-        <v>30.14</v>
+        <v>30.56</v>
       </c>
       <c r="G48" t="n">
-        <v>20.22</v>
+        <v>21</v>
       </c>
       <c r="H48" t="n">
-        <v>15.95</v>
+        <v>15.32</v>
       </c>
       <c r="I48" t="n">
-        <v>80.45</v>
+        <v>79.54</v>
       </c>
       <c r="J48" t="n">
-        <v>16.23</v>
+        <v>19.42</v>
       </c>
       <c r="K48" t="n">
         <v>49.68</v>
@@ -2686,7 +2686,7 @@
         <v>18</v>
       </c>
       <c r="O48" t="n">
-        <v>25.94</v>
+        <v>25184.46</v>
       </c>
     </row>
     <row r="49">
@@ -2706,19 +2706,19 @@
         <v>192.66</v>
       </c>
       <c r="F49" t="n">
-        <v>32.64</v>
+        <v>29.51</v>
       </c>
       <c r="G49" t="n">
-        <v>22.47</v>
+        <v>19.58</v>
       </c>
       <c r="H49" t="n">
-        <v>16.45</v>
+        <v>13.96</v>
       </c>
       <c r="I49" t="n">
-        <v>81.64</v>
+        <v>79.2</v>
       </c>
       <c r="J49" t="n">
-        <v>15.71</v>
+        <v>16</v>
       </c>
       <c r="K49" t="n">
         <v>43.28</v>
@@ -2733,7 +2733,7 @@
         <v>19</v>
       </c>
       <c r="O49" t="n">
-        <v>24.48</v>
+        <v>22061.31</v>
       </c>
     </row>
   </sheetData>

--- a/data/fleas_model_data.xlsx
+++ b/data/fleas_model_data.xlsx
@@ -497,19 +497,19 @@
         <v>516.41</v>
       </c>
       <c r="F2" t="n">
-        <v>37.4</v>
+        <v>33.67</v>
       </c>
       <c r="G2" t="n">
-        <v>17.46</v>
+        <v>17.8</v>
       </c>
       <c r="H2" t="n">
-        <v>9.51</v>
+        <v>9.74</v>
       </c>
       <c r="I2" t="n">
-        <v>109.16</v>
+        <v>108.18</v>
       </c>
       <c r="J2" t="n">
-        <v>50.16</v>
+        <v>50.31</v>
       </c>
       <c r="K2" t="n">
         <v>70.9</v>
@@ -524,7 +524,7 @@
         <v>18</v>
       </c>
       <c r="O2" t="n">
-        <v>4145.26</v>
+        <v>3971.61</v>
       </c>
     </row>
     <row r="3">
@@ -544,19 +544,19 @@
         <v>363.5</v>
       </c>
       <c r="F3" t="n">
-        <v>39.07</v>
+        <v>41.93</v>
       </c>
       <c r="G3" t="n">
-        <v>18.27</v>
+        <v>17.54</v>
       </c>
       <c r="H3" t="n">
-        <v>8.56</v>
+        <v>8.22</v>
       </c>
       <c r="I3" t="n">
-        <v>110.49</v>
+        <v>112.81</v>
       </c>
       <c r="J3" t="n">
-        <v>47.81</v>
+        <v>47.63</v>
       </c>
       <c r="K3" t="n">
         <v>50.75</v>
@@ -571,7 +571,7 @@
         <v>19</v>
       </c>
       <c r="O3" t="n">
-        <v>1870.34</v>
+        <v>2064.13</v>
       </c>
     </row>
     <row r="4">
@@ -591,19 +591,19 @@
         <v>303.01</v>
       </c>
       <c r="F4" t="n">
-        <v>36.76</v>
+        <v>39.41</v>
       </c>
       <c r="G4" t="n">
-        <v>17.57</v>
+        <v>17.11</v>
       </c>
       <c r="H4" t="n">
-        <v>6.89</v>
+        <v>7.55</v>
       </c>
       <c r="I4" t="n">
-        <v>106</v>
+        <v>96.17</v>
       </c>
       <c r="J4" t="n">
-        <v>47.44</v>
+        <v>47.42</v>
       </c>
       <c r="K4" t="n">
         <v>62.22</v>
@@ -618,7 +618,7 @@
         <v>19</v>
       </c>
       <c r="O4" t="n">
-        <v>1758.09</v>
+        <v>1763.43</v>
       </c>
     </row>
     <row r="5">
@@ -638,19 +638,19 @@
         <v>257.13</v>
       </c>
       <c r="F5" t="n">
-        <v>36.39</v>
+        <v>33.24</v>
       </c>
       <c r="G5" t="n">
-        <v>17.61</v>
+        <v>18.19</v>
       </c>
       <c r="H5" t="n">
-        <v>7.57</v>
+        <v>8.59</v>
       </c>
       <c r="I5" t="n">
-        <v>105.52</v>
+        <v>95.02</v>
       </c>
       <c r="J5" t="n">
-        <v>45.69</v>
+        <v>45.93</v>
       </c>
       <c r="K5" t="n">
         <v>66.07</v>
@@ -665,7 +665,7 @@
         <v>19</v>
       </c>
       <c r="O5" t="n">
-        <v>-1236.52</v>
+        <v>-1518.04</v>
       </c>
     </row>
     <row r="6">
@@ -685,19 +685,19 @@
         <v>254.16</v>
       </c>
       <c r="F6" t="n">
-        <v>40.94</v>
+        <v>37.23</v>
       </c>
       <c r="G6" t="n">
-        <v>21.33</v>
+        <v>22.04</v>
       </c>
       <c r="H6" t="n">
-        <v>12.42</v>
+        <v>12.61</v>
       </c>
       <c r="I6" t="n">
-        <v>110.84</v>
+        <v>111.62</v>
       </c>
       <c r="J6" t="n">
-        <v>50.43</v>
+        <v>50.6</v>
       </c>
       <c r="K6" t="n">
         <v>62.58</v>
@@ -712,7 +712,7 @@
         <v>19</v>
       </c>
       <c r="O6" t="n">
-        <v>1484.94</v>
+        <v>1299.74</v>
       </c>
     </row>
     <row r="7">
@@ -732,19 +732,19 @@
         <v>604.06</v>
       </c>
       <c r="F7" t="n">
-        <v>35.98</v>
+        <v>29.05</v>
       </c>
       <c r="G7" t="n">
-        <v>16.73</v>
+        <v>17.67</v>
       </c>
       <c r="H7" t="n">
-        <v>8.37</v>
+        <v>9.08</v>
       </c>
       <c r="I7" t="n">
-        <v>106.83</v>
+        <v>102.27</v>
       </c>
       <c r="J7" t="n">
-        <v>46.83</v>
+        <v>47.11</v>
       </c>
       <c r="K7" t="n">
         <v>74.44</v>
@@ -759,7 +759,7 @@
         <v>19</v>
       </c>
       <c r="O7" t="n">
-        <v>257.95</v>
+        <v>-80.19</v>
       </c>
     </row>
     <row r="8">
@@ -779,19 +779,19 @@
         <v>828.59</v>
       </c>
       <c r="F8" t="n">
-        <v>40.34</v>
+        <v>35.4</v>
       </c>
       <c r="G8" t="n">
-        <v>20.33</v>
+        <v>21.02</v>
       </c>
       <c r="H8" t="n">
-        <v>12.62</v>
+        <v>12.57</v>
       </c>
       <c r="I8" t="n">
-        <v>111.65</v>
+        <v>115.9</v>
       </c>
       <c r="J8" t="n">
-        <v>51.86</v>
+        <v>52.02</v>
       </c>
       <c r="K8" t="n">
         <v>82.95</v>
@@ -806,7 +806,7 @@
         <v>19</v>
       </c>
       <c r="O8" t="n">
-        <v>3732.47</v>
+        <v>3560.85</v>
       </c>
     </row>
     <row r="9">
@@ -826,19 +826,19 @@
         <v>818.44</v>
       </c>
       <c r="F9" t="n">
-        <v>40.24</v>
+        <v>46.34</v>
       </c>
       <c r="G9" t="n">
-        <v>18.73</v>
+        <v>17.52</v>
       </c>
       <c r="H9" t="n">
-        <v>7.87</v>
+        <v>7.17</v>
       </c>
       <c r="I9" t="n">
-        <v>111.62</v>
+        <v>115.91</v>
       </c>
       <c r="J9" t="n">
-        <v>46.3</v>
+        <v>45.99</v>
       </c>
       <c r="K9" t="n">
         <v>81.21</v>
@@ -853,7 +853,7 @@
         <v>18</v>
       </c>
       <c r="O9" t="n">
-        <v>568.71</v>
+        <v>923.26</v>
       </c>
     </row>
     <row r="10">
@@ -873,19 +873,19 @@
         <v>595.05</v>
       </c>
       <c r="F10" t="n">
-        <v>26.59</v>
+        <v>24.15</v>
       </c>
       <c r="G10" t="n">
-        <v>6.32</v>
+        <v>6.24</v>
       </c>
       <c r="H10" t="n">
-        <v>4.01</v>
+        <v>4.07</v>
       </c>
       <c r="I10" t="n">
-        <v>119.34</v>
+        <v>119.96</v>
       </c>
       <c r="J10" t="n">
-        <v>59.23</v>
+        <v>59.26</v>
       </c>
       <c r="K10" t="n">
         <v>69.48</v>
@@ -900,7 +900,7 @@
         <v>18</v>
       </c>
       <c r="O10" t="n">
-        <v>3696.26</v>
+        <v>3636.99</v>
       </c>
     </row>
     <row r="11">
@@ -920,19 +920,19 @@
         <v>294.64</v>
       </c>
       <c r="F11" t="n">
-        <v>33.1</v>
+        <v>28.33</v>
       </c>
       <c r="G11" t="n">
-        <v>13.25</v>
+        <v>14.41</v>
       </c>
       <c r="H11" t="n">
-        <v>6.68</v>
+        <v>6.51</v>
       </c>
       <c r="I11" t="n">
-        <v>121.29</v>
+        <v>125.63</v>
       </c>
       <c r="J11" t="n">
-        <v>63.35</v>
+        <v>63.54</v>
       </c>
       <c r="K11" t="n">
         <v>57.17</v>
@@ -947,7 +947,7 @@
         <v>18</v>
       </c>
       <c r="O11" t="n">
-        <v>5479.45</v>
+        <v>5296.16</v>
       </c>
     </row>
     <row r="12">
@@ -967,19 +967,19 @@
         <v>460.29</v>
       </c>
       <c r="F12" t="n">
-        <v>29.24</v>
+        <v>30.22</v>
       </c>
       <c r="G12" t="n">
-        <v>9.84</v>
+        <v>9.66</v>
       </c>
       <c r="H12" t="n">
-        <v>5.37</v>
+        <v>5.65</v>
       </c>
       <c r="I12" t="n">
-        <v>118.96</v>
+        <v>115.55</v>
       </c>
       <c r="J12" t="n">
-        <v>61.3</v>
+        <v>61.28</v>
       </c>
       <c r="K12" t="n">
         <v>47.21</v>
@@ -994,7 +994,7 @@
         <v>19</v>
       </c>
       <c r="O12" t="n">
-        <v>4206.28</v>
+        <v>4208.74</v>
       </c>
     </row>
     <row r="13">
@@ -1014,19 +1014,19 @@
         <v>183.54</v>
       </c>
       <c r="F13" t="n">
-        <v>30.06</v>
+        <v>33.31</v>
       </c>
       <c r="G13" t="n">
-        <v>9.72</v>
+        <v>9.05</v>
       </c>
       <c r="H13" t="n">
-        <v>5.51</v>
+        <v>5.33</v>
       </c>
       <c r="I13" t="n">
-        <v>120.98</v>
+        <v>121.39</v>
       </c>
       <c r="J13" t="n">
-        <v>60.6</v>
+        <v>60.48</v>
       </c>
       <c r="K13" t="n">
         <v>46.99</v>
@@ -1041,7 +1041,7 @@
         <v>18</v>
       </c>
       <c r="O13" t="n">
-        <v>3735.44</v>
+        <v>3876.29</v>
       </c>
     </row>
     <row r="14">
@@ -1061,19 +1061,19 @@
         <v>522.25</v>
       </c>
       <c r="F14" t="n">
-        <v>31.73</v>
+        <v>29.06</v>
       </c>
       <c r="G14" t="n">
-        <v>11.29</v>
+        <v>11.55</v>
       </c>
       <c r="H14" t="n">
-        <v>9.5</v>
+        <v>9.12</v>
       </c>
       <c r="I14" t="n">
-        <v>123.87</v>
+        <v>130.88</v>
       </c>
       <c r="J14" t="n">
-        <v>64.7</v>
+        <v>64.77</v>
       </c>
       <c r="K14" t="n">
         <v>59.84</v>
@@ -1088,7 +1088,7 @@
         <v>18</v>
       </c>
       <c r="O14" t="n">
-        <v>6301.47</v>
+        <v>6237.1</v>
       </c>
     </row>
     <row r="15">
@@ -1108,19 +1108,19 @@
         <v>486.27</v>
       </c>
       <c r="F15" t="n">
-        <v>28.8</v>
+        <v>34.23</v>
       </c>
       <c r="G15" t="n">
-        <v>9.01</v>
+        <v>8.17</v>
       </c>
       <c r="H15" t="n">
-        <v>2.44</v>
+        <v>2.67</v>
       </c>
       <c r="I15" t="n">
-        <v>117.82</v>
+        <v>111.69</v>
       </c>
       <c r="J15" t="n">
-        <v>57.16</v>
+        <v>57</v>
       </c>
       <c r="K15" t="n">
         <v>59.81</v>
@@ -1135,7 +1135,7 @@
         <v>19</v>
       </c>
       <c r="O15" t="n">
-        <v>986.32</v>
+        <v>1160.59</v>
       </c>
     </row>
     <row r="16">
@@ -1155,19 +1155,19 @@
         <v>424.9</v>
       </c>
       <c r="F16" t="n">
-        <v>29.79</v>
+        <v>31.47</v>
       </c>
       <c r="G16" t="n">
-        <v>9.94</v>
+        <v>9.76</v>
       </c>
       <c r="H16" t="n">
-        <v>3.35</v>
+        <v>3.39</v>
       </c>
       <c r="I16" t="n">
-        <v>118.68</v>
+        <v>116.77</v>
       </c>
       <c r="J16" t="n">
-        <v>59.43</v>
+        <v>59.36</v>
       </c>
       <c r="K16" t="n">
         <v>66.55</v>
@@ -1182,7 +1182,7 @@
         <v>19</v>
       </c>
       <c r="O16" t="n">
-        <v>3222.54</v>
+        <v>3293.91</v>
       </c>
     </row>
     <row r="17">
@@ -1202,19 +1202,19 @@
         <v>475.93</v>
       </c>
       <c r="F17" t="n">
-        <v>28.77</v>
+        <v>32.07</v>
       </c>
       <c r="G17" t="n">
-        <v>9.24</v>
+        <v>8.74</v>
       </c>
       <c r="H17" t="n">
-        <v>3.86</v>
+        <v>4.25</v>
       </c>
       <c r="I17" t="n">
-        <v>118.16</v>
+        <v>111.7</v>
       </c>
       <c r="J17" t="n">
-        <v>57.48</v>
+        <v>57.42</v>
       </c>
       <c r="K17" t="n">
         <v>51.12</v>
@@ -1229,7 +1229,7 @@
         <v>18</v>
       </c>
       <c r="O17" t="n">
-        <v>308.28</v>
+        <v>361.5</v>
       </c>
     </row>
     <row r="18">
@@ -1249,19 +1249,19 @@
         <v>642.75</v>
       </c>
       <c r="F18" t="n">
-        <v>17.05</v>
+        <v>20.02</v>
       </c>
       <c r="G18" t="n">
-        <v>16.77</v>
+        <v>16.04</v>
       </c>
       <c r="H18" t="n">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="I18" t="n">
-        <v>117.8</v>
+        <v>114.35</v>
       </c>
       <c r="J18" t="n">
-        <v>17.29</v>
+        <v>17.16</v>
       </c>
       <c r="K18" t="n">
         <v>103.08</v>
@@ -1276,7 +1276,7 @@
         <v>18</v>
       </c>
       <c r="O18" t="n">
-        <v>14740.33</v>
+        <v>14870.1</v>
       </c>
     </row>
     <row r="19">
@@ -1296,19 +1296,19 @@
         <v>302.72</v>
       </c>
       <c r="F19" t="n">
-        <v>20.82</v>
+        <v>16.43</v>
       </c>
       <c r="G19" t="n">
-        <v>20.93</v>
+        <v>21.7</v>
       </c>
       <c r="H19" t="n">
-        <v>6.28</v>
+        <v>6.23</v>
       </c>
       <c r="I19" t="n">
-        <v>120.73</v>
+        <v>124.12</v>
       </c>
       <c r="J19" t="n">
-        <v>21.6</v>
+        <v>21.74</v>
       </c>
       <c r="K19" t="n">
         <v>78.67</v>
@@ -1323,7 +1323,7 @@
         <v>18</v>
       </c>
       <c r="O19" t="n">
-        <v>16025.15</v>
+        <v>15877.07</v>
       </c>
     </row>
     <row r="20">
@@ -1343,19 +1343,19 @@
         <v>183.81</v>
       </c>
       <c r="F20" t="n">
-        <v>18.08</v>
+        <v>9.12</v>
       </c>
       <c r="G20" t="n">
-        <v>18.94</v>
+        <v>20.43</v>
       </c>
       <c r="H20" t="n">
-        <v>5.05</v>
+        <v>5.66</v>
       </c>
       <c r="I20" t="n">
-        <v>118.04</v>
+        <v>115.74</v>
       </c>
       <c r="J20" t="n">
-        <v>20.09</v>
+        <v>20.47</v>
       </c>
       <c r="K20" t="n">
         <v>66.23</v>
@@ -1370,7 +1370,7 @@
         <v>18</v>
       </c>
       <c r="O20" t="n">
-        <v>14899.95</v>
+        <v>14467.42</v>
       </c>
     </row>
     <row r="21">
@@ -1390,19 +1390,19 @@
         <v>504.66</v>
       </c>
       <c r="F21" t="n">
-        <v>19.73</v>
+        <v>23.99</v>
       </c>
       <c r="G21" t="n">
-        <v>19.79</v>
+        <v>19.15</v>
       </c>
       <c r="H21" t="n">
-        <v>3.51</v>
+        <v>3.57</v>
       </c>
       <c r="I21" t="n">
-        <v>118.94</v>
+        <v>115.47</v>
       </c>
       <c r="J21" t="n">
-        <v>19.22</v>
+        <v>19.09</v>
       </c>
       <c r="K21" t="n">
         <v>104.75</v>
@@ -1417,7 +1417,7 @@
         <v>18</v>
       </c>
       <c r="O21" t="n">
-        <v>14926.6</v>
+        <v>15072.53</v>
       </c>
     </row>
     <row r="22">
@@ -1437,19 +1437,19 @@
         <v>380.48</v>
       </c>
       <c r="F22" t="n">
-        <v>20.21</v>
+        <v>9.74</v>
       </c>
       <c r="G22" t="n">
-        <v>19.87</v>
+        <v>21.45</v>
       </c>
       <c r="H22" t="n">
-        <v>7.09</v>
+        <v>6.91</v>
       </c>
       <c r="I22" t="n">
-        <v>121.96</v>
+        <v>130.04</v>
       </c>
       <c r="J22" t="n">
-        <v>22.37</v>
+        <v>22.7</v>
       </c>
       <c r="K22" t="n">
         <v>81.19</v>
@@ -1464,7 +1464,7 @@
         <v>18</v>
       </c>
       <c r="O22" t="n">
-        <v>17039.46</v>
+        <v>16677.76</v>
       </c>
     </row>
     <row r="23">
@@ -1484,19 +1484,19 @@
         <v>131.11</v>
       </c>
       <c r="F23" t="n">
-        <v>20.14</v>
+        <v>20.92</v>
       </c>
       <c r="G23" t="n">
-        <v>19.86</v>
+        <v>19.54</v>
       </c>
       <c r="H23" t="n">
-        <v>6.95</v>
+        <v>6.79</v>
       </c>
       <c r="I23" t="n">
-        <v>121.75</v>
+        <v>123.77</v>
       </c>
       <c r="J23" t="n">
-        <v>21.68</v>
+        <v>21.65</v>
       </c>
       <c r="K23" t="n">
         <v>54.73</v>
@@ -1511,7 +1511,7 @@
         <v>18</v>
       </c>
       <c r="O23" t="n">
-        <v>16194.3</v>
+        <v>16237.41</v>
       </c>
     </row>
     <row r="24">
@@ -1531,19 +1531,19 @@
         <v>264.4</v>
       </c>
       <c r="F24" t="n">
-        <v>15.93</v>
+        <v>18.41</v>
       </c>
       <c r="G24" t="n">
-        <v>16.26</v>
+        <v>15.57</v>
       </c>
       <c r="H24" t="n">
-        <v>1.99</v>
+        <v>2.44</v>
       </c>
       <c r="I24" t="n">
-        <v>116.85</v>
+        <v>109.46</v>
       </c>
       <c r="J24" t="n">
-        <v>17.65</v>
+        <v>17.59</v>
       </c>
       <c r="K24" t="n">
         <v>74.2</v>
@@ -1558,7 +1558,7 @@
         <v>18</v>
       </c>
       <c r="O24" t="n">
-        <v>14569.58</v>
+        <v>14611.39</v>
       </c>
     </row>
     <row r="25">
@@ -1578,19 +1578,19 @@
         <v>492.03</v>
       </c>
       <c r="F25" t="n">
-        <v>20.16</v>
+        <v>19.42</v>
       </c>
       <c r="G25" t="n">
-        <v>19.71</v>
+        <v>19.8</v>
       </c>
       <c r="H25" t="n">
-        <v>4.22</v>
+        <v>4</v>
       </c>
       <c r="I25" t="n">
-        <v>120.4</v>
+        <v>123.29</v>
       </c>
       <c r="J25" t="n">
-        <v>18.42</v>
+        <v>18.39</v>
       </c>
       <c r="K25" t="n">
         <v>93.75</v>
@@ -1605,7 +1605,7 @@
         <v>18</v>
       </c>
       <c r="O25" t="n">
-        <v>13703.59</v>
+        <v>13729.58</v>
       </c>
     </row>
     <row r="26">
@@ -1625,19 +1625,19 @@
         <v>610.66</v>
       </c>
       <c r="F26" t="n">
-        <v>39.03</v>
+        <v>35.31</v>
       </c>
       <c r="G26" t="n">
-        <v>8.86</v>
+        <v>9.38</v>
       </c>
       <c r="H26" t="n">
-        <v>8.79</v>
+        <v>8.72</v>
       </c>
       <c r="I26" t="n">
-        <v>139.48</v>
+        <v>141.56</v>
       </c>
       <c r="J26" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="K26" t="n">
         <v>75.14</v>
@@ -1652,7 +1652,7 @@
         <v>19</v>
       </c>
       <c r="O26" t="n">
-        <v>6488.05</v>
+        <v>6374.83</v>
       </c>
     </row>
     <row r="27">
@@ -1672,19 +1672,19 @@
         <v>152.78</v>
       </c>
       <c r="F27" t="n">
-        <v>36.82</v>
+        <v>32.98</v>
       </c>
       <c r="G27" t="n">
-        <v>6.57</v>
+        <v>6.95</v>
       </c>
       <c r="H27" t="n">
-        <v>6.82</v>
+        <v>6.96</v>
       </c>
       <c r="I27" t="n">
-        <v>138.02</v>
+        <v>137.64</v>
       </c>
       <c r="J27" t="n">
-        <v>16.88</v>
+        <v>16.98</v>
       </c>
       <c r="K27" t="n">
         <v>39.86</v>
@@ -1699,7 +1699,7 @@
         <v>18</v>
       </c>
       <c r="O27" t="n">
-        <v>2886.95</v>
+        <v>2758.78</v>
       </c>
     </row>
     <row r="28">
@@ -1719,19 +1719,19 @@
         <v>815.91</v>
       </c>
       <c r="F28" t="n">
-        <v>38.08</v>
+        <v>36.52</v>
       </c>
       <c r="G28" t="n">
-        <v>7.3</v>
+        <v>7.17</v>
       </c>
       <c r="H28" t="n">
-        <v>8.78</v>
+        <v>8.47</v>
       </c>
       <c r="I28" t="n">
-        <v>140.45</v>
+        <v>144.31</v>
       </c>
       <c r="J28" t="n">
-        <v>20.26</v>
+        <v>20.24</v>
       </c>
       <c r="K28" t="n">
         <v>90.83</v>
@@ -1746,7 +1746,7 @@
         <v>18</v>
       </c>
       <c r="O28" t="n">
-        <v>6240.12</v>
+        <v>6259.36</v>
       </c>
     </row>
     <row r="29">
@@ -1766,19 +1766,19 @@
         <v>615.64</v>
       </c>
       <c r="F29" t="n">
-        <v>42.94</v>
+        <v>55.21</v>
       </c>
       <c r="G29" t="n">
-        <v>11.94</v>
+        <v>9.89</v>
       </c>
       <c r="H29" t="n">
-        <v>11.77</v>
+        <v>11.05</v>
       </c>
       <c r="I29" t="n">
-        <v>143.51</v>
+        <v>145.53</v>
       </c>
       <c r="J29" t="n">
-        <v>22</v>
+        <v>21.54</v>
       </c>
       <c r="K29" t="n">
         <v>81.46</v>
@@ -1793,7 +1793,7 @@
         <v>18</v>
       </c>
       <c r="O29" t="n">
-        <v>5571.63</v>
+        <v>6104.39</v>
       </c>
     </row>
     <row r="30">
@@ -1813,19 +1813,19 @@
         <v>707.14</v>
       </c>
       <c r="F30" t="n">
-        <v>42.23</v>
+        <v>40.88</v>
       </c>
       <c r="G30" t="n">
-        <v>12.11</v>
+        <v>12.4</v>
       </c>
       <c r="H30" t="n">
-        <v>13.28</v>
+        <v>13.09</v>
       </c>
       <c r="I30" t="n">
-        <v>142.57</v>
+        <v>146.47</v>
       </c>
       <c r="J30" t="n">
-        <v>22.19</v>
+        <v>22.24</v>
       </c>
       <c r="K30" t="n">
         <v>90.66</v>
@@ -1840,7 +1840,7 @@
         <v>18</v>
       </c>
       <c r="O30" t="n">
-        <v>4341.25</v>
+        <v>4293.75</v>
       </c>
     </row>
     <row r="31">
@@ -1860,19 +1860,19 @@
         <v>237.03</v>
       </c>
       <c r="F31" t="n">
-        <v>38.02</v>
+        <v>43.98</v>
       </c>
       <c r="G31" t="n">
-        <v>8.52</v>
+        <v>7.63</v>
       </c>
       <c r="H31" t="n">
-        <v>6.67</v>
+        <v>7.1</v>
       </c>
       <c r="I31" t="n">
-        <v>136.69</v>
+        <v>127.3</v>
       </c>
       <c r="J31" t="n">
-        <v>17.59</v>
+        <v>17.45</v>
       </c>
       <c r="K31" t="n">
         <v>49.13</v>
@@ -1887,7 +1887,7 @@
         <v>19</v>
       </c>
       <c r="O31" t="n">
-        <v>3011.14</v>
+        <v>3155.92</v>
       </c>
     </row>
     <row r="32">
@@ -1907,19 +1907,19 @@
         <v>267.33</v>
       </c>
       <c r="F32" t="n">
-        <v>38.37</v>
+        <v>41.11</v>
       </c>
       <c r="G32" t="n">
-        <v>7.92</v>
+        <v>7.23</v>
       </c>
       <c r="H32" t="n">
-        <v>7.91</v>
+        <v>7.73</v>
       </c>
       <c r="I32" t="n">
-        <v>139.37</v>
+        <v>139.19</v>
       </c>
       <c r="J32" t="n">
-        <v>19.62</v>
+        <v>19.48</v>
       </c>
       <c r="K32" t="n">
         <v>57.1</v>
@@ -1934,7 +1934,7 @@
         <v>19</v>
       </c>
       <c r="O32" t="n">
-        <v>5609.81</v>
+        <v>5763.83</v>
       </c>
     </row>
     <row r="33">
@@ -1954,19 +1954,19 @@
         <v>319.09</v>
       </c>
       <c r="F33" t="n">
-        <v>44.21</v>
+        <v>47.47</v>
       </c>
       <c r="G33" t="n">
-        <v>14.1</v>
+        <v>13.64</v>
       </c>
       <c r="H33" t="n">
-        <v>16.87</v>
+        <v>16.57</v>
       </c>
       <c r="I33" t="n">
-        <v>145.04</v>
+        <v>149.22</v>
       </c>
       <c r="J33" t="n">
-        <v>23.33</v>
+        <v>23.25</v>
       </c>
       <c r="K33" t="n">
         <v>66.25</v>
@@ -1981,7 +1981,7 @@
         <v>18</v>
       </c>
       <c r="O33" t="n">
-        <v>3075.67</v>
+        <v>3189.5</v>
       </c>
     </row>
     <row r="34">
@@ -2001,19 +2001,19 @@
         <v>452.56</v>
       </c>
       <c r="F34" t="n">
-        <v>19.26</v>
+        <v>18.8</v>
       </c>
       <c r="G34" t="n">
-        <v>19.13</v>
+        <v>18.82</v>
       </c>
       <c r="H34" t="n">
-        <v>17.83</v>
+        <v>17.67</v>
       </c>
       <c r="I34" t="n">
-        <v>101.9</v>
+        <v>104.75</v>
       </c>
       <c r="J34" t="n">
-        <v>19.8</v>
+        <v>19.78</v>
       </c>
       <c r="K34" t="n">
         <v>72.81</v>
@@ -2028,7 +2028,7 @@
         <v>19</v>
       </c>
       <c r="O34" t="n">
-        <v>9882.35</v>
+        <v>9893.73</v>
       </c>
     </row>
     <row r="35">
@@ -2048,19 +2048,19 @@
         <v>327.23</v>
       </c>
       <c r="F35" t="n">
-        <v>17.75</v>
+        <v>16.7</v>
       </c>
       <c r="G35" t="n">
-        <v>18.36</v>
+        <v>18.42</v>
       </c>
       <c r="H35" t="n">
-        <v>14.96</v>
+        <v>15.49</v>
       </c>
       <c r="I35" t="n">
-        <v>98.39</v>
+        <v>92.87</v>
       </c>
       <c r="J35" t="n">
-        <v>14.11</v>
+        <v>14.22</v>
       </c>
       <c r="K35" t="n">
         <v>56.02</v>
@@ -2075,7 +2075,7 @@
         <v>19</v>
       </c>
       <c r="O35" t="n">
-        <v>3936.15</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="36">
@@ -2095,19 +2095,19 @@
         <v>702.86</v>
       </c>
       <c r="F36" t="n">
-        <v>19.45</v>
+        <v>14.83</v>
       </c>
       <c r="G36" t="n">
-        <v>20.77</v>
+        <v>21.73</v>
       </c>
       <c r="H36" t="n">
-        <v>15.88</v>
+        <v>16.55</v>
       </c>
       <c r="I36" t="n">
-        <v>97.89</v>
+        <v>93.34</v>
       </c>
       <c r="J36" t="n">
-        <v>15.03</v>
+        <v>15.25</v>
       </c>
       <c r="K36" t="n">
         <v>101.37</v>
@@ -2122,7 +2122,7 @@
         <v>19</v>
       </c>
       <c r="O36" t="n">
-        <v>3580.08</v>
+        <v>3313.15</v>
       </c>
     </row>
     <row r="37">
@@ -2142,19 +2142,19 @@
         <v>353.9</v>
       </c>
       <c r="F37" t="n">
-        <v>19.88</v>
+        <v>20.84</v>
       </c>
       <c r="G37" t="n">
-        <v>18.44</v>
+        <v>18.04</v>
       </c>
       <c r="H37" t="n">
-        <v>13.56</v>
+        <v>12.97</v>
       </c>
       <c r="I37" t="n">
-        <v>101.83</v>
+        <v>107.75</v>
       </c>
       <c r="J37" t="n">
-        <v>11.38</v>
+        <v>11.27</v>
       </c>
       <c r="K37" t="n">
         <v>59.6</v>
@@ -2169,7 +2169,7 @@
         <v>19</v>
       </c>
       <c r="O37" t="n">
-        <v>2278.26</v>
+        <v>2417.38</v>
       </c>
     </row>
     <row r="38">
@@ -2189,19 +2189,19 @@
         <v>614.77</v>
       </c>
       <c r="F38" t="n">
-        <v>21.2</v>
+        <v>27.75</v>
       </c>
       <c r="G38" t="n">
-        <v>21.79</v>
+        <v>20.96</v>
       </c>
       <c r="H38" t="n">
-        <v>15.64</v>
+        <v>15.86</v>
       </c>
       <c r="I38" t="n">
-        <v>99.44</v>
+        <v>93.8</v>
       </c>
       <c r="J38" t="n">
-        <v>14.84</v>
+        <v>14.67</v>
       </c>
       <c r="K38" t="n">
         <v>75.92</v>
@@ -2216,7 +2216,7 @@
         <v>19</v>
       </c>
       <c r="O38" t="n">
-        <v>3603.42</v>
+        <v>3791.46</v>
       </c>
     </row>
     <row r="39">
@@ -2236,19 +2236,19 @@
         <v>1048.33</v>
       </c>
       <c r="F39" t="n">
-        <v>19.55</v>
+        <v>19.73</v>
       </c>
       <c r="G39" t="n">
-        <v>18.07</v>
+        <v>17.78</v>
       </c>
       <c r="H39" t="n">
-        <v>12.32</v>
+        <v>11.62</v>
       </c>
       <c r="I39" t="n">
-        <v>101.14</v>
+        <v>108.45</v>
       </c>
       <c r="J39" t="n">
-        <v>11.7</v>
+        <v>11.56</v>
       </c>
       <c r="K39" t="n">
         <v>123.21</v>
@@ -2263,7 +2263,7 @@
         <v>19</v>
       </c>
       <c r="O39" t="n">
-        <v>3609.92</v>
+        <v>3772.83</v>
       </c>
     </row>
     <row r="40">
@@ -2283,19 +2283,19 @@
         <v>254.37</v>
       </c>
       <c r="F40" t="n">
-        <v>19.88</v>
+        <v>21.02</v>
       </c>
       <c r="G40" t="n">
-        <v>19.34</v>
+        <v>18.97</v>
       </c>
       <c r="H40" t="n">
-        <v>15.32</v>
+        <v>15.05</v>
       </c>
       <c r="I40" t="n">
-        <v>101.19</v>
+        <v>103.85</v>
       </c>
       <c r="J40" t="n">
-        <v>15.09</v>
+        <v>15.01</v>
       </c>
       <c r="K40" t="n">
         <v>49.56</v>
@@ -2310,7 +2310,7 @@
         <v>19</v>
       </c>
       <c r="O40" t="n">
-        <v>5377.73</v>
+        <v>5470.43</v>
       </c>
     </row>
     <row r="41">
@@ -2330,19 +2330,19 @@
         <v>1007.6</v>
       </c>
       <c r="F41" t="n">
-        <v>21.07</v>
+        <v>25.03</v>
       </c>
       <c r="G41" t="n">
-        <v>20.88</v>
+        <v>20.27</v>
       </c>
       <c r="H41" t="n">
-        <v>14.62</v>
+        <v>14.28</v>
       </c>
       <c r="I41" t="n">
-        <v>100.41</v>
+        <v>101.63</v>
       </c>
       <c r="J41" t="n">
-        <v>18.35</v>
+        <v>18.17</v>
       </c>
       <c r="K41" t="n">
         <v>110.6</v>
@@ -2357,7 +2357,7 @@
         <v>19</v>
       </c>
       <c r="O41" t="n">
-        <v>9585.35</v>
+        <v>9791.55</v>
       </c>
     </row>
     <row r="42">
@@ -2377,19 +2377,19 @@
         <v>308.59</v>
       </c>
       <c r="F42" t="n">
-        <v>29.58</v>
+        <v>27.57</v>
       </c>
       <c r="G42" t="n">
-        <v>19</v>
+        <v>19.19</v>
       </c>
       <c r="H42" t="n">
-        <v>14.59</v>
+        <v>14.42</v>
       </c>
       <c r="I42" t="n">
-        <v>80.72</v>
+        <v>84.05</v>
       </c>
       <c r="J42" t="n">
-        <v>11.83</v>
+        <v>11.85</v>
       </c>
       <c r="K42" t="n">
         <v>51.99</v>
@@ -2404,7 +2404,7 @@
         <v>18</v>
       </c>
       <c r="O42" t="n">
-        <v>16605.01</v>
+        <v>16576.76</v>
       </c>
     </row>
     <row r="43">
@@ -2424,19 +2424,19 @@
         <v>554.62</v>
       </c>
       <c r="F43" t="n">
-        <v>30.05</v>
+        <v>35.15</v>
       </c>
       <c r="G43" t="n">
-        <v>19</v>
+        <v>17.95</v>
       </c>
       <c r="H43" t="n">
-        <v>13.85</v>
+        <v>13.33</v>
       </c>
       <c r="I43" t="n">
-        <v>81.31</v>
+        <v>84.49</v>
       </c>
       <c r="J43" t="n">
-        <v>12.9</v>
+        <v>12.64</v>
       </c>
       <c r="K43" t="n">
         <v>52.54</v>
@@ -2451,7 +2451,7 @@
         <v>18</v>
       </c>
       <c r="O43" t="n">
-        <v>18765.35</v>
+        <v>19059.8</v>
       </c>
     </row>
     <row r="44">
@@ -2471,19 +2471,19 @@
         <v>447.11</v>
       </c>
       <c r="F44" t="n">
-        <v>26.97</v>
+        <v>13.34</v>
       </c>
       <c r="G44" t="n">
-        <v>15.62</v>
+        <v>17.42</v>
       </c>
       <c r="H44" t="n">
-        <v>11.79</v>
+        <v>11.41</v>
       </c>
       <c r="I44" t="n">
-        <v>80.11</v>
+        <v>90.83</v>
       </c>
       <c r="J44" t="n">
-        <v>11.09</v>
+        <v>11.43</v>
       </c>
       <c r="K44" t="n">
         <v>54.27</v>
@@ -2498,7 +2498,7 @@
         <v>18</v>
       </c>
       <c r="O44" t="n">
-        <v>18684.29</v>
+        <v>18298.2</v>
       </c>
     </row>
     <row r="45">
@@ -2518,19 +2518,19 @@
         <v>654.27</v>
       </c>
       <c r="F45" t="n">
-        <v>31.43</v>
+        <v>35.03</v>
       </c>
       <c r="G45" t="n">
-        <v>19.71</v>
+        <v>18.92</v>
       </c>
       <c r="H45" t="n">
-        <v>14.86</v>
+        <v>14.03</v>
       </c>
       <c r="I45" t="n">
-        <v>83.4</v>
+        <v>91.08</v>
       </c>
       <c r="J45" t="n">
-        <v>12.05</v>
+        <v>11.84</v>
       </c>
       <c r="K45" t="n">
         <v>59.78</v>
@@ -2545,7 +2545,7 @@
         <v>18</v>
       </c>
       <c r="O45" t="n">
-        <v>17161.1</v>
+        <v>17423.25</v>
       </c>
     </row>
     <row r="46">
@@ -2565,19 +2565,19 @@
         <v>364.9</v>
       </c>
       <c r="F46" t="n">
-        <v>28.95</v>
+        <v>37.21</v>
       </c>
       <c r="G46" t="n">
-        <v>18.55</v>
+        <v>17.12</v>
       </c>
       <c r="H46" t="n">
-        <v>11.75</v>
+        <v>11.57</v>
       </c>
       <c r="I46" t="n">
-        <v>78.64</v>
+        <v>75.12</v>
       </c>
       <c r="J46" t="n">
-        <v>13.42</v>
+        <v>13.09</v>
       </c>
       <c r="K46" t="n">
         <v>49.7</v>
@@ -2592,7 +2592,7 @@
         <v>18</v>
       </c>
       <c r="O46" t="n">
-        <v>20543.66</v>
+        <v>20896.77</v>
       </c>
     </row>
     <row r="47">
@@ -2612,19 +2612,19 @@
         <v>429.18</v>
       </c>
       <c r="F47" t="n">
-        <v>30.3</v>
+        <v>32.45</v>
       </c>
       <c r="G47" t="n">
-        <v>19.97</v>
+        <v>19.53</v>
       </c>
       <c r="H47" t="n">
-        <v>15.82</v>
+        <v>15.67</v>
       </c>
       <c r="I47" t="n">
-        <v>81.19</v>
+        <v>81.7</v>
       </c>
       <c r="J47" t="n">
-        <v>15.66</v>
+        <v>15.6</v>
       </c>
       <c r="K47" t="n">
         <v>41.08</v>
@@ -2639,7 +2639,7 @@
         <v>18</v>
       </c>
       <c r="O47" t="n">
-        <v>20546.32</v>
+        <v>20623.49</v>
       </c>
     </row>
     <row r="48">
@@ -2659,19 +2659,19 @@
         <v>629.58</v>
       </c>
       <c r="F48" t="n">
-        <v>30.56</v>
+        <v>28.84</v>
       </c>
       <c r="G48" t="n">
-        <v>21</v>
+        <v>21.37</v>
       </c>
       <c r="H48" t="n">
-        <v>15.32</v>
+        <v>15.27</v>
       </c>
       <c r="I48" t="n">
-        <v>79.54</v>
+        <v>80.79</v>
       </c>
       <c r="J48" t="n">
-        <v>19.42</v>
+        <v>19.44</v>
       </c>
       <c r="K48" t="n">
         <v>49.68</v>
@@ -2686,7 +2686,7 @@
         <v>18</v>
       </c>
       <c r="O48" t="n">
-        <v>25184.46</v>
+        <v>25149.36</v>
       </c>
     </row>
     <row r="49">
@@ -2706,19 +2706,19 @@
         <v>192.66</v>
       </c>
       <c r="F49" t="n">
-        <v>29.51</v>
+        <v>26.61</v>
       </c>
       <c r="G49" t="n">
-        <v>19.58</v>
+        <v>20.06</v>
       </c>
       <c r="H49" t="n">
-        <v>13.96</v>
+        <v>13.95</v>
       </c>
       <c r="I49" t="n">
-        <v>79.2</v>
+        <v>80.32</v>
       </c>
       <c r="J49" t="n">
-        <v>16</v>
+        <v>16.07</v>
       </c>
       <c r="K49" t="n">
         <v>43.28</v>
@@ -2733,7 +2733,7 @@
         <v>19</v>
       </c>
       <c r="O49" t="n">
-        <v>22061.31</v>
+        <v>21972.23</v>
       </c>
     </row>
   </sheetData>

--- a/data/fleas_model_data.xlsx
+++ b/data/fleas_model_data.xlsx
@@ -665,7 +665,7 @@
         <v>19</v>
       </c>
       <c r="O5" t="n">
-        <v>-1518.04</v>
+        <v>1518.04</v>
       </c>
     </row>
     <row r="6">
@@ -759,7 +759,7 @@
         <v>19</v>
       </c>
       <c r="O7" t="n">
-        <v>-80.19</v>
+        <v>80.19</v>
       </c>
     </row>
     <row r="8">

--- a/data/fleas_model_data.xlsx
+++ b/data/fleas_model_data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t xml:space="preserve">.id</t>
   </si>
@@ -48,6 +48,12 @@
   </si>
   <si>
     <t xml:space="preserve">count_leg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">count_leg_left</t>
+  </si>
+  <si>
+    <t xml:space="preserve">count_leg_right</t>
   </si>
   <si>
     <t xml:space="preserve">bonitur</t>
@@ -479,16 +485,22 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
         <v>16.42</v>
@@ -512,18 +524,24 @@
         <v>50.31</v>
       </c>
       <c r="K2" t="n">
-        <v>70.9</v>
+        <v>77.2</v>
       </c>
       <c r="L2" t="n">
-        <v>63.4</v>
-      </c>
-      <c r="M2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O2" t="n">
+        <v>63</v>
+      </c>
+      <c r="M2" t="n">
+        <v>64</v>
+      </c>
+      <c r="N2" t="n">
+        <v>62</v>
+      </c>
+      <c r="O2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" t="n">
         <v>3971.61</v>
       </c>
     </row>
@@ -532,10 +550,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D3" t="n">
         <v>12.62</v>
@@ -559,18 +577,24 @@
         <v>47.63</v>
       </c>
       <c r="K3" t="n">
-        <v>50.75</v>
+        <v>56.25</v>
       </c>
       <c r="L3" t="n">
-        <v>53.96</v>
-      </c>
-      <c r="M3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O3" t="n">
+        <v>55</v>
+      </c>
+      <c r="M3" t="n">
+        <v>56</v>
+      </c>
+      <c r="N3" t="n">
+        <v>54</v>
+      </c>
+      <c r="O3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q3" t="n">
         <v>2064.13</v>
       </c>
     </row>
@@ -579,10 +603,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D4" t="n">
         <v>15.57</v>
@@ -606,18 +630,24 @@
         <v>47.42</v>
       </c>
       <c r="K4" t="n">
-        <v>62.22</v>
+        <v>73.42</v>
       </c>
       <c r="L4" t="n">
-        <v>120.44</v>
-      </c>
-      <c r="M4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N4" t="s">
-        <v>19</v>
-      </c>
-      <c r="O4" t="n">
+        <v>112</v>
+      </c>
+      <c r="M4" t="n">
+        <v>112</v>
+      </c>
+      <c r="N4" t="n">
+        <v>111</v>
+      </c>
+      <c r="O4" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q4" t="n">
         <v>1763.43</v>
       </c>
     </row>
@@ -626,10 +656,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D5" t="n">
         <v>24.39</v>
@@ -653,18 +683,24 @@
         <v>45.93</v>
       </c>
       <c r="K5" t="n">
-        <v>66.07</v>
+        <v>85.17</v>
       </c>
       <c r="L5" t="n">
-        <v>191.11</v>
-      </c>
-      <c r="M5" t="s">
+        <v>191</v>
+      </c>
+      <c r="M5" t="n">
+        <v>184</v>
+      </c>
+      <c r="N5" t="n">
+        <v>198</v>
+      </c>
+      <c r="O5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5" t="s">
         <v>21</v>
       </c>
-      <c r="N5" t="s">
-        <v>19</v>
-      </c>
-      <c r="O5" t="n">
+      <c r="Q5" t="n">
         <v>1518.04</v>
       </c>
     </row>
@@ -673,10 +709,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D6" t="n">
         <v>16.45</v>
@@ -700,18 +736,24 @@
         <v>50.6</v>
       </c>
       <c r="K6" t="n">
-        <v>62.58</v>
+        <v>79.28</v>
       </c>
       <c r="L6" t="n">
-        <v>164.31</v>
-      </c>
-      <c r="M6" t="s">
-        <v>22</v>
-      </c>
-      <c r="N6" t="s">
-        <v>19</v>
-      </c>
-      <c r="O6" t="n">
+        <v>167</v>
+      </c>
+      <c r="M6" t="n">
+        <v>175</v>
+      </c>
+      <c r="N6" t="n">
+        <v>158</v>
+      </c>
+      <c r="O6" t="s">
+        <v>24</v>
+      </c>
+      <c r="P6" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q6" t="n">
         <v>1299.74</v>
       </c>
     </row>
@@ -720,10 +762,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D7" t="n">
         <v>14.8</v>
@@ -747,18 +789,24 @@
         <v>47.11</v>
       </c>
       <c r="K7" t="n">
-        <v>74.44</v>
+        <v>77.34</v>
       </c>
       <c r="L7" t="n">
-        <v>25.31</v>
-      </c>
-      <c r="M7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" t="n">
+        <v>31</v>
+      </c>
+      <c r="N7" t="n">
+        <v>26</v>
+      </c>
+      <c r="O7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P7" t="s">
         <v>21</v>
       </c>
-      <c r="N7" t="s">
-        <v>19</v>
-      </c>
-      <c r="O7" t="n">
+      <c r="Q7" t="n">
         <v>80.19</v>
       </c>
     </row>
@@ -767,10 +815,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D8" t="n">
         <v>17.02</v>
@@ -794,18 +842,24 @@
         <v>52.02</v>
       </c>
       <c r="K8" t="n">
-        <v>82.95</v>
+        <v>90.15</v>
       </c>
       <c r="L8" t="n">
-        <v>68.38</v>
-      </c>
-      <c r="M8" t="s">
-        <v>17</v>
-      </c>
-      <c r="N8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M8" t="n">
+        <v>78</v>
+      </c>
+      <c r="N8" t="n">
+        <v>65</v>
+      </c>
+      <c r="O8" t="s">
         <v>19</v>
       </c>
-      <c r="O8" t="n">
+      <c r="P8" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q8" t="n">
         <v>3560.85</v>
       </c>
     </row>
@@ -814,10 +868,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D9" t="n">
         <v>18.19</v>
@@ -841,18 +895,24 @@
         <v>45.99</v>
       </c>
       <c r="K9" t="n">
-        <v>81.21</v>
+        <v>93.01</v>
       </c>
       <c r="L9" t="n">
-        <v>115.11</v>
-      </c>
-      <c r="M9" t="s">
-        <v>23</v>
-      </c>
-      <c r="N9" t="s">
-        <v>18</v>
-      </c>
-      <c r="O9" t="n">
+        <v>118</v>
+      </c>
+      <c r="M9" t="n">
+        <v>115</v>
+      </c>
+      <c r="N9" t="n">
+        <v>120</v>
+      </c>
+      <c r="O9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q9" t="n">
         <v>923.26</v>
       </c>
     </row>
@@ -861,10 +921,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" t="n">
         <v>7.31</v>
@@ -888,18 +948,24 @@
         <v>59.26</v>
       </c>
       <c r="K10" t="n">
-        <v>69.48</v>
+        <v>71.98</v>
       </c>
       <c r="L10" t="n">
-        <v>22.49</v>
-      </c>
-      <c r="M10" t="s">
-        <v>23</v>
-      </c>
-      <c r="N10" t="s">
-        <v>18</v>
-      </c>
-      <c r="O10" t="n">
+        <v>25</v>
+      </c>
+      <c r="M10" t="n">
+        <v>25</v>
+      </c>
+      <c r="N10" t="n">
+        <v>24</v>
+      </c>
+      <c r="O10" t="s">
+        <v>25</v>
+      </c>
+      <c r="P10" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q10" t="n">
         <v>3636.99</v>
       </c>
     </row>
@@ -908,10 +974,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D11" t="n">
         <v>4.62</v>
@@ -935,18 +1001,24 @@
         <v>63.54</v>
       </c>
       <c r="K11" t="n">
-        <v>57.17</v>
+        <v>60.27</v>
       </c>
       <c r="L11" t="n">
-        <v>27.88</v>
-      </c>
-      <c r="M11" t="s">
-        <v>25</v>
-      </c>
-      <c r="N11" t="s">
-        <v>18</v>
-      </c>
-      <c r="O11" t="n">
+        <v>31</v>
+      </c>
+      <c r="M11" t="n">
+        <v>24</v>
+      </c>
+      <c r="N11" t="n">
+        <v>37</v>
+      </c>
+      <c r="O11" t="s">
+        <v>27</v>
+      </c>
+      <c r="P11" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q11" t="n">
         <v>5296.16</v>
       </c>
     </row>
@@ -955,10 +1027,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="n">
         <v>3.26</v>
@@ -982,18 +1054,24 @@
         <v>61.28</v>
       </c>
       <c r="K12" t="n">
-        <v>47.21</v>
+        <v>53.21</v>
       </c>
       <c r="L12" t="n">
-        <v>60.51</v>
-      </c>
-      <c r="M12" t="s">
-        <v>23</v>
-      </c>
-      <c r="N12" t="s">
-        <v>19</v>
-      </c>
-      <c r="O12" t="n">
+        <v>60</v>
+      </c>
+      <c r="M12" t="n">
+        <v>61</v>
+      </c>
+      <c r="N12" t="n">
+        <v>58</v>
+      </c>
+      <c r="O12" t="s">
+        <v>25</v>
+      </c>
+      <c r="P12" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q12" t="n">
         <v>4208.74</v>
       </c>
     </row>
@@ -1002,10 +1080,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="n">
         <v>4.91</v>
@@ -1029,18 +1107,24 @@
         <v>60.48</v>
       </c>
       <c r="K13" t="n">
-        <v>46.99</v>
+        <v>47.89</v>
       </c>
       <c r="L13" t="n">
-        <v>13.52</v>
-      </c>
-      <c r="M13" t="s">
-        <v>22</v>
-      </c>
-      <c r="N13" t="s">
-        <v>18</v>
-      </c>
-      <c r="O13" t="n">
+        <v>9</v>
+      </c>
+      <c r="M13" t="n">
+        <v>12</v>
+      </c>
+      <c r="N13" t="n">
+        <v>6</v>
+      </c>
+      <c r="O13" t="s">
+        <v>24</v>
+      </c>
+      <c r="P13" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q13" t="n">
         <v>3876.29</v>
       </c>
     </row>
@@ -1049,10 +1133,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="n">
         <v>5.31</v>
@@ -1076,18 +1160,24 @@
         <v>64.77</v>
       </c>
       <c r="K14" t="n">
-        <v>59.84</v>
+        <v>68.54</v>
       </c>
       <c r="L14" t="n">
-        <v>87.54</v>
-      </c>
-      <c r="M14" t="s">
-        <v>26</v>
-      </c>
-      <c r="N14" t="s">
-        <v>18</v>
-      </c>
-      <c r="O14" t="n">
+        <v>87</v>
+      </c>
+      <c r="M14" t="n">
+        <v>79</v>
+      </c>
+      <c r="N14" t="n">
+        <v>94</v>
+      </c>
+      <c r="O14" t="s">
+        <v>28</v>
+      </c>
+      <c r="P14" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q14" t="n">
         <v>6237.1</v>
       </c>
     </row>
@@ -1096,10 +1186,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D15" t="n">
         <v>5.71</v>
@@ -1123,18 +1213,24 @@
         <v>57</v>
       </c>
       <c r="K15" t="n">
-        <v>59.81</v>
+        <v>62.11</v>
       </c>
       <c r="L15" t="n">
-        <v>24.43</v>
-      </c>
-      <c r="M15" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" t="n">
+        <v>25</v>
+      </c>
+      <c r="N15" t="n">
+        <v>20</v>
+      </c>
+      <c r="O15" t="s">
+        <v>23</v>
+      </c>
+      <c r="P15" t="s">
         <v>21</v>
       </c>
-      <c r="N15" t="s">
-        <v>19</v>
-      </c>
-      <c r="O15" t="n">
+      <c r="Q15" t="n">
         <v>1160.59</v>
       </c>
     </row>
@@ -1143,10 +1239,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D16" t="n">
         <v>4.59</v>
@@ -1170,18 +1266,24 @@
         <v>59.36</v>
       </c>
       <c r="K16" t="n">
-        <v>66.55</v>
+        <v>68.25</v>
       </c>
       <c r="L16" t="n">
-        <v>22.78</v>
-      </c>
-      <c r="M16" t="s">
-        <v>26</v>
-      </c>
-      <c r="N16" t="s">
-        <v>19</v>
-      </c>
-      <c r="O16" t="n">
+        <v>17</v>
+      </c>
+      <c r="M16" t="n">
+        <v>13</v>
+      </c>
+      <c r="N16" t="n">
+        <v>20</v>
+      </c>
+      <c r="O16" t="s">
+        <v>28</v>
+      </c>
+      <c r="P16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q16" t="n">
         <v>3293.91</v>
       </c>
     </row>
@@ -1190,10 +1292,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D17" t="n">
         <v>2.71</v>
@@ -1217,18 +1319,24 @@
         <v>57.42</v>
       </c>
       <c r="K17" t="n">
-        <v>51.12</v>
+        <v>56.02</v>
       </c>
       <c r="L17" t="n">
-        <v>55.36</v>
-      </c>
-      <c r="M17" t="s">
-        <v>20</v>
-      </c>
-      <c r="N17" t="s">
-        <v>18</v>
-      </c>
-      <c r="O17" t="n">
+        <v>49</v>
+      </c>
+      <c r="M17" t="n">
+        <v>47</v>
+      </c>
+      <c r="N17" t="n">
+        <v>50</v>
+      </c>
+      <c r="O17" t="s">
+        <v>22</v>
+      </c>
+      <c r="P17" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q17" t="n">
         <v>361.5</v>
       </c>
     </row>
@@ -1237,10 +1345,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D18" t="n">
         <v>11.13</v>
@@ -1264,18 +1372,24 @@
         <v>17.16</v>
       </c>
       <c r="K18" t="n">
-        <v>103.08</v>
+        <v>150.38</v>
       </c>
       <c r="L18" t="n">
-        <v>469.3</v>
-      </c>
-      <c r="M18" t="s">
-        <v>17</v>
-      </c>
-      <c r="N18" t="s">
-        <v>18</v>
-      </c>
-      <c r="O18" t="n">
+        <v>473</v>
+      </c>
+      <c r="M18" t="n">
+        <v>473</v>
+      </c>
+      <c r="N18" t="n">
+        <v>472</v>
+      </c>
+      <c r="O18" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q18" t="n">
         <v>14870.1</v>
       </c>
     </row>
@@ -1284,10 +1398,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D19" t="n">
         <v>9.77</v>
@@ -1311,18 +1425,24 @@
         <v>21.74</v>
       </c>
       <c r="K19" t="n">
-        <v>78.67</v>
+        <v>94.37</v>
       </c>
       <c r="L19" t="n">
-        <v>164.18</v>
-      </c>
-      <c r="M19" t="s">
-        <v>26</v>
-      </c>
-      <c r="N19" t="s">
-        <v>18</v>
-      </c>
-      <c r="O19" t="n">
+        <v>157</v>
+      </c>
+      <c r="M19" t="n">
+        <v>158</v>
+      </c>
+      <c r="N19" t="n">
+        <v>155</v>
+      </c>
+      <c r="O19" t="s">
+        <v>28</v>
+      </c>
+      <c r="P19" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q19" t="n">
         <v>15877.07</v>
       </c>
     </row>
@@ -1331,10 +1451,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D20" t="n">
         <v>12.72</v>
@@ -1358,18 +1478,24 @@
         <v>20.47</v>
       </c>
       <c r="K20" t="n">
-        <v>66.23</v>
+        <v>69.73</v>
       </c>
       <c r="L20" t="n">
-        <v>34.23</v>
-      </c>
-      <c r="M20" t="s">
-        <v>25</v>
-      </c>
-      <c r="N20" t="s">
-        <v>18</v>
-      </c>
-      <c r="O20" t="n">
+        <v>35</v>
+      </c>
+      <c r="M20" t="n">
+        <v>34</v>
+      </c>
+      <c r="N20" t="n">
+        <v>35</v>
+      </c>
+      <c r="O20" t="s">
+        <v>27</v>
+      </c>
+      <c r="P20" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q20" t="n">
         <v>14467.42</v>
       </c>
     </row>
@@ -1378,10 +1504,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D21" t="n">
         <v>25.73</v>
@@ -1405,18 +1531,24 @@
         <v>19.09</v>
       </c>
       <c r="K21" t="n">
-        <v>104.75</v>
+        <v>129.65</v>
       </c>
       <c r="L21" t="n">
-        <v>243.55</v>
-      </c>
-      <c r="M21" t="s">
-        <v>28</v>
-      </c>
-      <c r="N21" t="s">
-        <v>18</v>
-      </c>
-      <c r="O21" t="n">
+        <v>249</v>
+      </c>
+      <c r="M21" t="n">
+        <v>253</v>
+      </c>
+      <c r="N21" t="n">
+        <v>245</v>
+      </c>
+      <c r="O21" t="s">
+        <v>30</v>
+      </c>
+      <c r="P21" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q21" t="n">
         <v>15072.53</v>
       </c>
     </row>
@@ -1425,10 +1557,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D22" t="n">
         <v>12.18</v>
@@ -1452,18 +1584,24 @@
         <v>22.7</v>
       </c>
       <c r="K22" t="n">
-        <v>81.19</v>
+        <v>82.19</v>
       </c>
       <c r="L22" t="n">
-        <v>12.86</v>
-      </c>
-      <c r="M22" t="s">
-        <v>17</v>
-      </c>
-      <c r="N22" t="s">
-        <v>18</v>
-      </c>
-      <c r="O22" t="n">
+        <v>10</v>
+      </c>
+      <c r="M22" t="n">
+        <v>13</v>
+      </c>
+      <c r="N22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O22" t="s">
+        <v>19</v>
+      </c>
+      <c r="P22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q22" t="n">
         <v>16677.76</v>
       </c>
     </row>
@@ -1472,10 +1610,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D23" t="n">
         <v>6.44</v>
@@ -1499,18 +1637,24 @@
         <v>21.65</v>
       </c>
       <c r="K23" t="n">
-        <v>54.73</v>
+        <v>75.53</v>
       </c>
       <c r="L23" t="n">
-        <v>201.49</v>
-      </c>
-      <c r="M23" t="s">
-        <v>26</v>
-      </c>
-      <c r="N23" t="s">
-        <v>18</v>
-      </c>
-      <c r="O23" t="n">
+        <v>208</v>
+      </c>
+      <c r="M23" t="n">
+        <v>204</v>
+      </c>
+      <c r="N23" t="n">
+        <v>212</v>
+      </c>
+      <c r="O23" t="s">
+        <v>28</v>
+      </c>
+      <c r="P23" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q23" t="n">
         <v>16237.41</v>
       </c>
     </row>
@@ -1519,10 +1663,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D24" t="n">
         <v>13.52</v>
@@ -1546,18 +1690,24 @@
         <v>17.59</v>
       </c>
       <c r="K24" t="n">
-        <v>74.2</v>
+        <v>84.8</v>
       </c>
       <c r="L24" t="n">
-        <v>100.48</v>
-      </c>
-      <c r="M24" t="s">
-        <v>21</v>
-      </c>
-      <c r="N24" t="s">
-        <v>18</v>
-      </c>
-      <c r="O24" t="n">
+        <v>106</v>
+      </c>
+      <c r="M24" t="n">
+        <v>109</v>
+      </c>
+      <c r="N24" t="n">
+        <v>103</v>
+      </c>
+      <c r="O24" t="s">
+        <v>23</v>
+      </c>
+      <c r="P24" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q24" t="n">
         <v>14611.39</v>
       </c>
     </row>
@@ -1566,10 +1716,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D25" t="n">
         <v>11.62</v>
@@ -1593,18 +1743,24 @@
         <v>18.39</v>
       </c>
       <c r="K25" t="n">
-        <v>93.75</v>
+        <v>111.05</v>
       </c>
       <c r="L25" t="n">
-        <v>173.25</v>
-      </c>
-      <c r="M25" t="s">
-        <v>28</v>
-      </c>
-      <c r="N25" t="s">
-        <v>18</v>
-      </c>
-      <c r="O25" t="n">
+        <v>173</v>
+      </c>
+      <c r="M25" t="n">
+        <v>172</v>
+      </c>
+      <c r="N25" t="n">
+        <v>174</v>
+      </c>
+      <c r="O25" t="s">
+        <v>30</v>
+      </c>
+      <c r="P25" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q25" t="n">
         <v>13729.58</v>
       </c>
     </row>
@@ -1613,10 +1769,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D26" t="n">
         <v>4.71</v>
@@ -1640,18 +1796,24 @@
         <v>21.1</v>
       </c>
       <c r="K26" t="n">
-        <v>75.14</v>
+        <v>86.44</v>
       </c>
       <c r="L26" t="n">
-        <v>117.08</v>
-      </c>
-      <c r="M26" t="s">
-        <v>22</v>
-      </c>
-      <c r="N26" t="s">
-        <v>19</v>
-      </c>
-      <c r="O26" t="n">
+        <v>113</v>
+      </c>
+      <c r="M26" t="n">
+        <v>110</v>
+      </c>
+      <c r="N26" t="n">
+        <v>115</v>
+      </c>
+      <c r="O26" t="s">
+        <v>24</v>
+      </c>
+      <c r="P26" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q26" t="n">
         <v>6374.83</v>
       </c>
     </row>
@@ -1660,10 +1822,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D27" t="n">
         <v>5.11</v>
@@ -1687,18 +1849,24 @@
         <v>16.98</v>
       </c>
       <c r="K27" t="n">
-        <v>39.86</v>
+        <v>99.36</v>
       </c>
       <c r="L27" t="n">
-        <v>594.77</v>
-      </c>
-      <c r="M27" t="s">
-        <v>21</v>
-      </c>
-      <c r="N27" t="s">
-        <v>18</v>
-      </c>
-      <c r="O27" t="n">
+        <v>595</v>
+      </c>
+      <c r="M27" t="n">
+        <v>595</v>
+      </c>
+      <c r="N27" t="n">
+        <v>594</v>
+      </c>
+      <c r="O27" t="s">
+        <v>23</v>
+      </c>
+      <c r="P27" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q27" t="n">
         <v>2758.78</v>
       </c>
     </row>
@@ -1707,10 +1875,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D28" t="n">
         <v>5.85</v>
@@ -1734,18 +1902,24 @@
         <v>20.24</v>
       </c>
       <c r="K28" t="n">
-        <v>90.83</v>
+        <v>225.93</v>
       </c>
       <c r="L28" t="n">
-        <v>1357.2</v>
-      </c>
-      <c r="M28" t="s">
-        <v>22</v>
-      </c>
-      <c r="N28" t="s">
-        <v>18</v>
-      </c>
-      <c r="O28" t="n">
+        <v>1351</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1349</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1352</v>
+      </c>
+      <c r="O28" t="s">
+        <v>24</v>
+      </c>
+      <c r="P28" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q28" t="n">
         <v>6259.36</v>
       </c>
     </row>
@@ -1754,10 +1928,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D29" t="n">
         <v>8.13</v>
@@ -1781,18 +1955,24 @@
         <v>21.54</v>
       </c>
       <c r="K29" t="n">
-        <v>81.46</v>
+        <v>120.76</v>
       </c>
       <c r="L29" t="n">
-        <v>390.86</v>
-      </c>
-      <c r="M29" t="s">
-        <v>26</v>
-      </c>
-      <c r="N29" t="s">
-        <v>18</v>
-      </c>
-      <c r="O29" t="n">
+        <v>393</v>
+      </c>
+      <c r="M29" t="n">
+        <v>391</v>
+      </c>
+      <c r="N29" t="n">
+        <v>394</v>
+      </c>
+      <c r="O29" t="s">
+        <v>28</v>
+      </c>
+      <c r="P29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q29" t="n">
         <v>6104.39</v>
       </c>
     </row>
@@ -1801,10 +1981,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D30" t="n">
         <v>5.18</v>
@@ -1828,18 +2008,24 @@
         <v>22.24</v>
       </c>
       <c r="K30" t="n">
-        <v>90.66</v>
+        <v>104.96</v>
       </c>
       <c r="L30" t="n">
-        <v>140.24</v>
-      </c>
-      <c r="M30" t="s">
-        <v>23</v>
-      </c>
-      <c r="N30" t="s">
-        <v>18</v>
-      </c>
-      <c r="O30" t="n">
+        <v>143</v>
+      </c>
+      <c r="M30" t="n">
+        <v>143</v>
+      </c>
+      <c r="N30" t="n">
+        <v>143</v>
+      </c>
+      <c r="O30" t="s">
+        <v>25</v>
+      </c>
+      <c r="P30" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q30" t="n">
         <v>4293.75</v>
       </c>
     </row>
@@ -1848,10 +2034,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D31" t="n">
         <v>7.11</v>
@@ -1875,18 +2061,24 @@
         <v>17.45</v>
       </c>
       <c r="K31" t="n">
-        <v>49.13</v>
+        <v>80.93</v>
       </c>
       <c r="L31" t="n">
-        <v>314.41</v>
-      </c>
-      <c r="M31" t="s">
-        <v>22</v>
-      </c>
-      <c r="N31" t="s">
-        <v>19</v>
-      </c>
-      <c r="O31" t="n">
+        <v>318</v>
+      </c>
+      <c r="M31" t="n">
+        <v>313</v>
+      </c>
+      <c r="N31" t="n">
+        <v>322</v>
+      </c>
+      <c r="O31" t="s">
+        <v>24</v>
+      </c>
+      <c r="P31" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q31" t="n">
         <v>3155.92</v>
       </c>
     </row>
@@ -1895,10 +2087,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C32" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D32" t="n">
         <v>5.74</v>
@@ -1922,18 +2114,24 @@
         <v>19.48</v>
       </c>
       <c r="K32" t="n">
-        <v>57.1</v>
+        <v>107.9</v>
       </c>
       <c r="L32" t="n">
-        <v>509.58</v>
-      </c>
-      <c r="M32" t="s">
-        <v>25</v>
-      </c>
-      <c r="N32" t="s">
-        <v>19</v>
-      </c>
-      <c r="O32" t="n">
+        <v>508</v>
+      </c>
+      <c r="M32" t="n">
+        <v>506</v>
+      </c>
+      <c r="N32" t="n">
+        <v>509</v>
+      </c>
+      <c r="O32" t="s">
+        <v>27</v>
+      </c>
+      <c r="P32" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q32" t="n">
         <v>5763.83</v>
       </c>
     </row>
@@ -1942,10 +2140,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C33" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D33" t="n">
         <v>6.58</v>
@@ -1969,18 +2167,24 @@
         <v>23.25</v>
       </c>
       <c r="K33" t="n">
-        <v>66.25</v>
+        <v>101.95</v>
       </c>
       <c r="L33" t="n">
-        <v>353.79</v>
-      </c>
-      <c r="M33" t="s">
-        <v>28</v>
-      </c>
-      <c r="N33" t="s">
-        <v>18</v>
-      </c>
-      <c r="O33" t="n">
+        <v>357</v>
+      </c>
+      <c r="M33" t="n">
+        <v>349</v>
+      </c>
+      <c r="N33" t="n">
+        <v>365</v>
+      </c>
+      <c r="O33" t="s">
+        <v>30</v>
+      </c>
+      <c r="P33" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q33" t="n">
         <v>3189.5</v>
       </c>
     </row>
@@ -1989,10 +2193,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C34" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D34" t="n">
         <v>7.86</v>
@@ -2016,18 +2220,24 @@
         <v>19.78</v>
       </c>
       <c r="K34" t="n">
-        <v>72.81</v>
+        <v>91.51</v>
       </c>
       <c r="L34" t="n">
-        <v>187.13</v>
-      </c>
-      <c r="M34" t="s">
+        <v>187</v>
+      </c>
+      <c r="M34" t="n">
+        <v>186</v>
+      </c>
+      <c r="N34" t="n">
+        <v>187</v>
+      </c>
+      <c r="O34" t="s">
+        <v>23</v>
+      </c>
+      <c r="P34" t="s">
         <v>21</v>
       </c>
-      <c r="N34" t="s">
-        <v>19</v>
-      </c>
-      <c r="O34" t="n">
+      <c r="Q34" t="n">
         <v>9893.73</v>
       </c>
     </row>
@@ -2036,10 +2246,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D35" t="n">
         <v>9.36</v>
@@ -2063,18 +2273,24 @@
         <v>14.22</v>
       </c>
       <c r="K35" t="n">
-        <v>56.02</v>
+        <v>56.92</v>
       </c>
       <c r="L35" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="M35" t="s">
+        <v>9</v>
+      </c>
+      <c r="M35" t="n">
+        <v>8</v>
+      </c>
+      <c r="N35" t="n">
+        <v>10</v>
+      </c>
+      <c r="O35" t="s">
+        <v>23</v>
+      </c>
+      <c r="P35" t="s">
         <v>21</v>
       </c>
-      <c r="N35" t="s">
-        <v>19</v>
-      </c>
-      <c r="O35" t="n">
+      <c r="Q35" t="n">
         <v>3800</v>
       </c>
     </row>
@@ -2083,10 +2299,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C36" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D36" t="n">
         <v>21.28</v>
@@ -2110,18 +2326,24 @@
         <v>15.25</v>
       </c>
       <c r="K36" t="n">
-        <v>101.37</v>
+        <v>106.77</v>
       </c>
       <c r="L36" t="n">
-        <v>59.8</v>
-      </c>
-      <c r="M36" t="s">
-        <v>18</v>
-      </c>
-      <c r="N36" t="s">
-        <v>19</v>
-      </c>
-      <c r="O36" t="n">
+        <v>54</v>
+      </c>
+      <c r="M36" t="n">
+        <v>50</v>
+      </c>
+      <c r="N36" t="n">
+        <v>57</v>
+      </c>
+      <c r="O36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q36" t="n">
         <v>3313.15</v>
       </c>
     </row>
@@ -2130,10 +2352,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C37" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D37" t="n">
         <v>13.47</v>
@@ -2157,18 +2379,24 @@
         <v>11.27</v>
       </c>
       <c r="K37" t="n">
-        <v>59.6</v>
+        <v>61.9</v>
       </c>
       <c r="L37" t="n">
-        <v>21.15</v>
-      </c>
-      <c r="M37" t="s">
+        <v>23</v>
+      </c>
+      <c r="M37" t="n">
         <v>21</v>
       </c>
-      <c r="N37" t="s">
-        <v>19</v>
-      </c>
-      <c r="O37" t="n">
+      <c r="N37" t="n">
+        <v>24</v>
+      </c>
+      <c r="O37" t="s">
+        <v>23</v>
+      </c>
+      <c r="P37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q37" t="n">
         <v>2417.38</v>
       </c>
     </row>
@@ -2177,10 +2405,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C38" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D38" t="n">
         <v>14.1</v>
@@ -2204,18 +2432,24 @@
         <v>14.67</v>
       </c>
       <c r="K38" t="n">
-        <v>75.92</v>
+        <v>89.32</v>
       </c>
       <c r="L38" t="n">
-        <v>142.28</v>
-      </c>
-      <c r="M38" t="s">
-        <v>23</v>
-      </c>
-      <c r="N38" t="s">
-        <v>19</v>
-      </c>
-      <c r="O38" t="n">
+        <v>134</v>
+      </c>
+      <c r="M38" t="n">
+        <v>139</v>
+      </c>
+      <c r="N38" t="n">
+        <v>129</v>
+      </c>
+      <c r="O38" t="s">
+        <v>25</v>
+      </c>
+      <c r="P38" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q38" t="n">
         <v>3791.46</v>
       </c>
     </row>
@@ -2224,10 +2458,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C39" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D39" t="n">
         <v>13.27</v>
@@ -2251,18 +2485,24 @@
         <v>11.56</v>
       </c>
       <c r="K39" t="n">
-        <v>123.21</v>
+        <v>126.61</v>
       </c>
       <c r="L39" t="n">
-        <v>31.09</v>
-      </c>
-      <c r="M39" t="s">
-        <v>17</v>
-      </c>
-      <c r="N39" t="s">
+        <v>34</v>
+      </c>
+      <c r="M39" t="n">
+        <v>39</v>
+      </c>
+      <c r="N39" t="n">
+        <v>29</v>
+      </c>
+      <c r="O39" t="s">
         <v>19</v>
       </c>
-      <c r="O39" t="n">
+      <c r="P39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q39" t="n">
         <v>3772.83</v>
       </c>
     </row>
@@ -2271,10 +2511,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C40" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D40" t="n">
         <v>11.69</v>
@@ -2298,18 +2538,24 @@
         <v>15.01</v>
       </c>
       <c r="K40" t="n">
-        <v>49.56</v>
+        <v>73.16</v>
       </c>
       <c r="L40" t="n">
-        <v>241.38</v>
-      </c>
-      <c r="M40" t="s">
+        <v>236</v>
+      </c>
+      <c r="M40" t="n">
+        <v>234</v>
+      </c>
+      <c r="N40" t="n">
+        <v>237</v>
+      </c>
+      <c r="O40" t="s">
+        <v>23</v>
+      </c>
+      <c r="P40" t="s">
         <v>21</v>
       </c>
-      <c r="N40" t="s">
-        <v>19</v>
-      </c>
-      <c r="O40" t="n">
+      <c r="Q40" t="n">
         <v>5470.43</v>
       </c>
     </row>
@@ -2318,10 +2564,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C41" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D41" t="n">
         <v>7.68</v>
@@ -2345,18 +2591,24 @@
         <v>18.17</v>
       </c>
       <c r="K41" t="n">
-        <v>110.6</v>
+        <v>131</v>
       </c>
       <c r="L41" t="n">
-        <v>204.12</v>
-      </c>
-      <c r="M41" t="s">
-        <v>23</v>
-      </c>
-      <c r="N41" t="s">
-        <v>19</v>
-      </c>
-      <c r="O41" t="n">
+        <v>204</v>
+      </c>
+      <c r="M41" t="n">
+        <v>199</v>
+      </c>
+      <c r="N41" t="n">
+        <v>209</v>
+      </c>
+      <c r="O41" t="s">
+        <v>25</v>
+      </c>
+      <c r="P41" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q41" t="n">
         <v>9791.55</v>
       </c>
     </row>
@@ -2365,10 +2617,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C42" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D42" t="n">
         <v>7.05</v>
@@ -2392,18 +2644,24 @@
         <v>11.85</v>
       </c>
       <c r="K42" t="n">
-        <v>51.99</v>
+        <v>156.89</v>
       </c>
       <c r="L42" t="n">
-        <v>1049.97</v>
-      </c>
-      <c r="M42" t="s">
-        <v>23</v>
-      </c>
-      <c r="N42" t="s">
-        <v>18</v>
-      </c>
-      <c r="O42" t="n">
+        <v>1049</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1046</v>
+      </c>
+      <c r="N42" t="n">
+        <v>1051</v>
+      </c>
+      <c r="O42" t="s">
+        <v>25</v>
+      </c>
+      <c r="P42" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q42" t="n">
         <v>16576.76</v>
       </c>
     </row>
@@ -2412,10 +2670,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C43" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D43" t="n">
         <v>3.99</v>
@@ -2439,18 +2697,24 @@
         <v>12.64</v>
       </c>
       <c r="K43" t="n">
-        <v>52.54</v>
+        <v>94.64</v>
       </c>
       <c r="L43" t="n">
-        <v>420.44</v>
-      </c>
-      <c r="M43" t="s">
-        <v>23</v>
-      </c>
-      <c r="N43" t="s">
-        <v>18</v>
-      </c>
-      <c r="O43" t="n">
+        <v>421</v>
+      </c>
+      <c r="M43" t="n">
+        <v>429</v>
+      </c>
+      <c r="N43" t="n">
+        <v>413</v>
+      </c>
+      <c r="O43" t="s">
+        <v>25</v>
+      </c>
+      <c r="P43" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q43" t="n">
         <v>19059.8</v>
       </c>
     </row>
@@ -2459,10 +2723,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C44" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D44" t="n">
         <v>8.85</v>
@@ -2486,18 +2750,24 @@
         <v>11.43</v>
       </c>
       <c r="K44" t="n">
-        <v>54.27</v>
+        <v>164.17</v>
       </c>
       <c r="L44" t="n">
-        <v>1100.8</v>
-      </c>
-      <c r="M44" t="s">
-        <v>21</v>
-      </c>
-      <c r="N44" t="s">
-        <v>18</v>
-      </c>
-      <c r="O44" t="n">
+        <v>1099</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1100</v>
+      </c>
+      <c r="N44" t="n">
+        <v>1097</v>
+      </c>
+      <c r="O44" t="s">
+        <v>23</v>
+      </c>
+      <c r="P44" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q44" t="n">
         <v>18298.2</v>
       </c>
     </row>
@@ -2506,10 +2776,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C45" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D45" t="n">
         <v>6.97</v>
@@ -2533,18 +2803,24 @@
         <v>11.84</v>
       </c>
       <c r="K45" t="n">
-        <v>59.78</v>
+        <v>100.28</v>
       </c>
       <c r="L45" t="n">
-        <v>409.38</v>
-      </c>
-      <c r="M45" t="s">
-        <v>23</v>
-      </c>
-      <c r="N45" t="s">
-        <v>18</v>
-      </c>
-      <c r="O45" t="n">
+        <v>405</v>
+      </c>
+      <c r="M45" t="n">
+        <v>404</v>
+      </c>
+      <c r="N45" t="n">
+        <v>405</v>
+      </c>
+      <c r="O45" t="s">
+        <v>25</v>
+      </c>
+      <c r="P45" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q45" t="n">
         <v>17423.25</v>
       </c>
     </row>
@@ -2553,10 +2829,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C46" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D46" t="n">
         <v>8.84</v>
@@ -2580,18 +2856,24 @@
         <v>13.09</v>
       </c>
       <c r="K46" t="n">
-        <v>49.7</v>
+        <v>55.9</v>
       </c>
       <c r="L46" t="n">
-        <v>63.24</v>
-      </c>
-      <c r="M46" t="s">
-        <v>26</v>
-      </c>
-      <c r="N46" t="s">
-        <v>18</v>
-      </c>
-      <c r="O46" t="n">
+        <v>62</v>
+      </c>
+      <c r="M46" t="n">
+        <v>58</v>
+      </c>
+      <c r="N46" t="n">
+        <v>65</v>
+      </c>
+      <c r="O46" t="s">
+        <v>28</v>
+      </c>
+      <c r="P46" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q46" t="n">
         <v>20896.77</v>
       </c>
     </row>
@@ -2600,10 +2882,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C47" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D47" t="n">
         <v>7.18</v>
@@ -2627,18 +2909,24 @@
         <v>15.6</v>
       </c>
       <c r="K47" t="n">
-        <v>41.08</v>
+        <v>83.38</v>
       </c>
       <c r="L47" t="n">
-        <v>423.07</v>
-      </c>
-      <c r="M47" t="s">
-        <v>17</v>
-      </c>
-      <c r="N47" t="s">
-        <v>18</v>
-      </c>
-      <c r="O47" t="n">
+        <v>423</v>
+      </c>
+      <c r="M47" t="n">
+        <v>420</v>
+      </c>
+      <c r="N47" t="n">
+        <v>425</v>
+      </c>
+      <c r="O47" t="s">
+        <v>19</v>
+      </c>
+      <c r="P47" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q47" t="n">
         <v>20623.49</v>
       </c>
     </row>
@@ -2647,10 +2935,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C48" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D48" t="n">
         <v>6.6</v>
@@ -2674,18 +2962,24 @@
         <v>19.44</v>
       </c>
       <c r="K48" t="n">
-        <v>49.68</v>
+        <v>104.48</v>
       </c>
       <c r="L48" t="n">
-        <v>550.97</v>
-      </c>
-      <c r="M48" t="s">
-        <v>23</v>
-      </c>
-      <c r="N48" t="s">
-        <v>18</v>
-      </c>
-      <c r="O48" t="n">
+        <v>548</v>
+      </c>
+      <c r="M48" t="n">
+        <v>548</v>
+      </c>
+      <c r="N48" t="n">
+        <v>547</v>
+      </c>
+      <c r="O48" t="s">
+        <v>25</v>
+      </c>
+      <c r="P48" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q48" t="n">
         <v>25149.36</v>
       </c>
     </row>
@@ -2694,10 +2988,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C49" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D49" t="n">
         <v>4.19</v>
@@ -2721,18 +3015,24 @@
         <v>16.07</v>
       </c>
       <c r="K49" t="n">
-        <v>43.28</v>
+        <v>130.18</v>
       </c>
       <c r="L49" t="n">
-        <v>873.28</v>
-      </c>
-      <c r="M49" t="s">
-        <v>23</v>
-      </c>
-      <c r="N49" t="s">
-        <v>19</v>
-      </c>
-      <c r="O49" t="n">
+        <v>869</v>
+      </c>
+      <c r="M49" t="n">
+        <v>872</v>
+      </c>
+      <c r="N49" t="n">
+        <v>866</v>
+      </c>
+      <c r="O49" t="s">
+        <v>25</v>
+      </c>
+      <c r="P49" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q49" t="n">
         <v>21972.23</v>
       </c>
     </row>

--- a/data/fleas_model_data.xlsx
+++ b/data/fleas_model_data.xlsx
@@ -524,7 +524,7 @@
         <v>50.31</v>
       </c>
       <c r="K2" t="n">
-        <v>77.2</v>
+        <v>7.72</v>
       </c>
       <c r="L2" t="n">
         <v>63</v>
@@ -577,7 +577,7 @@
         <v>47.63</v>
       </c>
       <c r="K3" t="n">
-        <v>56.25</v>
+        <v>5.62</v>
       </c>
       <c r="L3" t="n">
         <v>55</v>
@@ -630,7 +630,7 @@
         <v>47.42</v>
       </c>
       <c r="K4" t="n">
-        <v>73.42</v>
+        <v>7.34</v>
       </c>
       <c r="L4" t="n">
         <v>112</v>
@@ -683,7 +683,7 @@
         <v>45.93</v>
       </c>
       <c r="K5" t="n">
-        <v>85.17</v>
+        <v>8.52</v>
       </c>
       <c r="L5" t="n">
         <v>191</v>
@@ -736,7 +736,7 @@
         <v>50.6</v>
       </c>
       <c r="K6" t="n">
-        <v>79.28</v>
+        <v>7.92</v>
       </c>
       <c r="L6" t="n">
         <v>167</v>
@@ -789,7 +789,7 @@
         <v>47.11</v>
       </c>
       <c r="K7" t="n">
-        <v>77.34</v>
+        <v>7.73</v>
       </c>
       <c r="L7" t="n">
         <v>29</v>
@@ -842,7 +842,7 @@
         <v>52.02</v>
       </c>
       <c r="K8" t="n">
-        <v>90.15</v>
+        <v>9.01</v>
       </c>
       <c r="L8" t="n">
         <v>72</v>
@@ -895,7 +895,7 @@
         <v>45.99</v>
       </c>
       <c r="K9" t="n">
-        <v>93.01</v>
+        <v>9.3</v>
       </c>
       <c r="L9" t="n">
         <v>118</v>
@@ -948,7 +948,7 @@
         <v>59.26</v>
       </c>
       <c r="K10" t="n">
-        <v>71.98</v>
+        <v>7.19</v>
       </c>
       <c r="L10" t="n">
         <v>25</v>
@@ -1001,7 +1001,7 @@
         <v>63.54</v>
       </c>
       <c r="K11" t="n">
-        <v>60.27</v>
+        <v>6.02</v>
       </c>
       <c r="L11" t="n">
         <v>31</v>
@@ -1054,7 +1054,7 @@
         <v>61.28</v>
       </c>
       <c r="K12" t="n">
-        <v>53.21</v>
+        <v>5.32</v>
       </c>
       <c r="L12" t="n">
         <v>60</v>
@@ -1107,7 +1107,7 @@
         <v>60.48</v>
       </c>
       <c r="K13" t="n">
-        <v>47.89</v>
+        <v>4.79</v>
       </c>
       <c r="L13" t="n">
         <v>9</v>
@@ -1160,7 +1160,7 @@
         <v>64.77</v>
       </c>
       <c r="K14" t="n">
-        <v>68.54</v>
+        <v>6.85</v>
       </c>
       <c r="L14" t="n">
         <v>87</v>
@@ -1213,7 +1213,7 @@
         <v>57</v>
       </c>
       <c r="K15" t="n">
-        <v>62.11</v>
+        <v>6.21</v>
       </c>
       <c r="L15" t="n">
         <v>23</v>
@@ -1266,7 +1266,7 @@
         <v>59.36</v>
       </c>
       <c r="K16" t="n">
-        <v>68.25</v>
+        <v>6.82</v>
       </c>
       <c r="L16" t="n">
         <v>17</v>
@@ -1319,7 +1319,7 @@
         <v>57.42</v>
       </c>
       <c r="K17" t="n">
-        <v>56.02</v>
+        <v>5.6</v>
       </c>
       <c r="L17" t="n">
         <v>49</v>
@@ -1372,7 +1372,7 @@
         <v>17.16</v>
       </c>
       <c r="K18" t="n">
-        <v>150.38</v>
+        <v>15.03</v>
       </c>
       <c r="L18" t="n">
         <v>473</v>
@@ -1425,7 +1425,7 @@
         <v>21.74</v>
       </c>
       <c r="K19" t="n">
-        <v>94.37</v>
+        <v>9.43</v>
       </c>
       <c r="L19" t="n">
         <v>157</v>
@@ -1478,7 +1478,7 @@
         <v>20.47</v>
       </c>
       <c r="K20" t="n">
-        <v>69.73</v>
+        <v>6.97</v>
       </c>
       <c r="L20" t="n">
         <v>35</v>
@@ -1531,7 +1531,7 @@
         <v>19.09</v>
       </c>
       <c r="K21" t="n">
-        <v>129.65</v>
+        <v>12.97</v>
       </c>
       <c r="L21" t="n">
         <v>249</v>
@@ -1584,7 +1584,7 @@
         <v>22.7</v>
       </c>
       <c r="K22" t="n">
-        <v>82.19</v>
+        <v>8.21</v>
       </c>
       <c r="L22" t="n">
         <v>10</v>
@@ -1637,7 +1637,7 @@
         <v>21.65</v>
       </c>
       <c r="K23" t="n">
-        <v>75.53</v>
+        <v>7.55</v>
       </c>
       <c r="L23" t="n">
         <v>208</v>
@@ -1690,7 +1690,7 @@
         <v>17.59</v>
       </c>
       <c r="K24" t="n">
-        <v>84.8</v>
+        <v>8.48</v>
       </c>
       <c r="L24" t="n">
         <v>106</v>
@@ -1743,7 +1743,7 @@
         <v>18.39</v>
       </c>
       <c r="K25" t="n">
-        <v>111.05</v>
+        <v>11.11</v>
       </c>
       <c r="L25" t="n">
         <v>173</v>
@@ -1796,7 +1796,7 @@
         <v>21.1</v>
       </c>
       <c r="K26" t="n">
-        <v>86.44</v>
+        <v>8.64</v>
       </c>
       <c r="L26" t="n">
         <v>113</v>
@@ -1849,7 +1849,7 @@
         <v>16.98</v>
       </c>
       <c r="K27" t="n">
-        <v>99.36</v>
+        <v>9.93</v>
       </c>
       <c r="L27" t="n">
         <v>595</v>
@@ -1902,7 +1902,7 @@
         <v>20.24</v>
       </c>
       <c r="K28" t="n">
-        <v>225.93</v>
+        <v>22.59</v>
       </c>
       <c r="L28" t="n">
         <v>1351</v>
@@ -1955,7 +1955,7 @@
         <v>21.54</v>
       </c>
       <c r="K29" t="n">
-        <v>120.76</v>
+        <v>12.07</v>
       </c>
       <c r="L29" t="n">
         <v>393</v>
@@ -2008,7 +2008,7 @@
         <v>22.24</v>
       </c>
       <c r="K30" t="n">
-        <v>104.96</v>
+        <v>10.5</v>
       </c>
       <c r="L30" t="n">
         <v>143</v>
@@ -2061,7 +2061,7 @@
         <v>17.45</v>
       </c>
       <c r="K31" t="n">
-        <v>80.93</v>
+        <v>8.09</v>
       </c>
       <c r="L31" t="n">
         <v>318</v>
@@ -2114,7 +2114,7 @@
         <v>19.48</v>
       </c>
       <c r="K32" t="n">
-        <v>107.9</v>
+        <v>10.78</v>
       </c>
       <c r="L32" t="n">
         <v>508</v>
@@ -2167,7 +2167,7 @@
         <v>23.25</v>
       </c>
       <c r="K33" t="n">
-        <v>101.95</v>
+        <v>10.2</v>
       </c>
       <c r="L33" t="n">
         <v>357</v>
@@ -2220,7 +2220,7 @@
         <v>19.78</v>
       </c>
       <c r="K34" t="n">
-        <v>91.51</v>
+        <v>9.15</v>
       </c>
       <c r="L34" t="n">
         <v>187</v>
@@ -2273,7 +2273,7 @@
         <v>14.22</v>
       </c>
       <c r="K35" t="n">
-        <v>56.92</v>
+        <v>5.69</v>
       </c>
       <c r="L35" t="n">
         <v>9</v>
@@ -2326,7 +2326,7 @@
         <v>15.25</v>
       </c>
       <c r="K36" t="n">
-        <v>106.77</v>
+        <v>10.67</v>
       </c>
       <c r="L36" t="n">
         <v>54</v>
@@ -2379,7 +2379,7 @@
         <v>11.27</v>
       </c>
       <c r="K37" t="n">
-        <v>61.9</v>
+        <v>6.18</v>
       </c>
       <c r="L37" t="n">
         <v>23</v>
@@ -2432,7 +2432,7 @@
         <v>14.67</v>
       </c>
       <c r="K38" t="n">
-        <v>89.32</v>
+        <v>8.93</v>
       </c>
       <c r="L38" t="n">
         <v>134</v>
@@ -2485,7 +2485,7 @@
         <v>11.56</v>
       </c>
       <c r="K39" t="n">
-        <v>126.61</v>
+        <v>12.66</v>
       </c>
       <c r="L39" t="n">
         <v>34</v>
@@ -2538,7 +2538,7 @@
         <v>15.01</v>
       </c>
       <c r="K40" t="n">
-        <v>73.16</v>
+        <v>7.31</v>
       </c>
       <c r="L40" t="n">
         <v>236</v>
@@ -2591,7 +2591,7 @@
         <v>18.17</v>
       </c>
       <c r="K41" t="n">
-        <v>131</v>
+        <v>13.1</v>
       </c>
       <c r="L41" t="n">
         <v>204</v>
@@ -2644,7 +2644,7 @@
         <v>11.85</v>
       </c>
       <c r="K42" t="n">
-        <v>156.89</v>
+        <v>15.68</v>
       </c>
       <c r="L42" t="n">
         <v>1049</v>
@@ -2697,7 +2697,7 @@
         <v>12.64</v>
       </c>
       <c r="K43" t="n">
-        <v>94.64</v>
+        <v>9.46</v>
       </c>
       <c r="L43" t="n">
         <v>421</v>
@@ -2750,7 +2750,7 @@
         <v>11.43</v>
       </c>
       <c r="K44" t="n">
-        <v>164.17</v>
+        <v>16.41</v>
       </c>
       <c r="L44" t="n">
         <v>1099</v>
@@ -2803,7 +2803,7 @@
         <v>11.84</v>
       </c>
       <c r="K45" t="n">
-        <v>100.28</v>
+        <v>10.02</v>
       </c>
       <c r="L45" t="n">
         <v>405</v>
@@ -2856,7 +2856,7 @@
         <v>13.09</v>
       </c>
       <c r="K46" t="n">
-        <v>55.9</v>
+        <v>5.59</v>
       </c>
       <c r="L46" t="n">
         <v>62</v>
@@ -2909,7 +2909,7 @@
         <v>15.6</v>
       </c>
       <c r="K47" t="n">
-        <v>83.38</v>
+        <v>8.33</v>
       </c>
       <c r="L47" t="n">
         <v>423</v>
@@ -2962,7 +2962,7 @@
         <v>19.44</v>
       </c>
       <c r="K48" t="n">
-        <v>104.48</v>
+        <v>10.44</v>
       </c>
       <c r="L48" t="n">
         <v>548</v>
@@ -3015,7 +3015,7 @@
         <v>16.07</v>
       </c>
       <c r="K49" t="n">
-        <v>130.18</v>
+        <v>13.02</v>
       </c>
       <c r="L49" t="n">
         <v>869</v>

--- a/data/fleas_model_data.xlsx
+++ b/data/fleas_model_data.xlsx
@@ -524,7 +524,7 @@
         <v>50.31</v>
       </c>
       <c r="K2" t="n">
-        <v>7.72</v>
+        <v>77.2</v>
       </c>
       <c r="L2" t="n">
         <v>63</v>
@@ -577,7 +577,7 @@
         <v>47.63</v>
       </c>
       <c r="K3" t="n">
-        <v>5.62</v>
+        <v>56.25</v>
       </c>
       <c r="L3" t="n">
         <v>55</v>
@@ -630,7 +630,7 @@
         <v>47.42</v>
       </c>
       <c r="K4" t="n">
-        <v>7.34</v>
+        <v>73.42</v>
       </c>
       <c r="L4" t="n">
         <v>112</v>
@@ -683,7 +683,7 @@
         <v>45.93</v>
       </c>
       <c r="K5" t="n">
-        <v>8.52</v>
+        <v>85.17</v>
       </c>
       <c r="L5" t="n">
         <v>191</v>
@@ -736,7 +736,7 @@
         <v>50.6</v>
       </c>
       <c r="K6" t="n">
-        <v>7.92</v>
+        <v>79.28</v>
       </c>
       <c r="L6" t="n">
         <v>167</v>
@@ -789,7 +789,7 @@
         <v>47.11</v>
       </c>
       <c r="K7" t="n">
-        <v>7.73</v>
+        <v>77.34</v>
       </c>
       <c r="L7" t="n">
         <v>29</v>
@@ -842,7 +842,7 @@
         <v>52.02</v>
       </c>
       <c r="K8" t="n">
-        <v>9.01</v>
+        <v>90.15</v>
       </c>
       <c r="L8" t="n">
         <v>72</v>
@@ -895,7 +895,7 @@
         <v>45.99</v>
       </c>
       <c r="K9" t="n">
-        <v>9.3</v>
+        <v>93.01</v>
       </c>
       <c r="L9" t="n">
         <v>118</v>
@@ -948,7 +948,7 @@
         <v>59.26</v>
       </c>
       <c r="K10" t="n">
-        <v>7.19</v>
+        <v>71.98</v>
       </c>
       <c r="L10" t="n">
         <v>25</v>
@@ -1001,7 +1001,7 @@
         <v>63.54</v>
       </c>
       <c r="K11" t="n">
-        <v>6.02</v>
+        <v>60.27</v>
       </c>
       <c r="L11" t="n">
         <v>31</v>
@@ -1054,7 +1054,7 @@
         <v>61.28</v>
       </c>
       <c r="K12" t="n">
-        <v>5.32</v>
+        <v>53.21</v>
       </c>
       <c r="L12" t="n">
         <v>60</v>
@@ -1107,7 +1107,7 @@
         <v>60.48</v>
       </c>
       <c r="K13" t="n">
-        <v>4.79</v>
+        <v>47.89</v>
       </c>
       <c r="L13" t="n">
         <v>9</v>
@@ -1160,7 +1160,7 @@
         <v>64.77</v>
       </c>
       <c r="K14" t="n">
-        <v>6.85</v>
+        <v>68.54</v>
       </c>
       <c r="L14" t="n">
         <v>87</v>
@@ -1213,7 +1213,7 @@
         <v>57</v>
       </c>
       <c r="K15" t="n">
-        <v>6.21</v>
+        <v>62.11</v>
       </c>
       <c r="L15" t="n">
         <v>23</v>
@@ -1266,7 +1266,7 @@
         <v>59.36</v>
       </c>
       <c r="K16" t="n">
-        <v>6.82</v>
+        <v>68.25</v>
       </c>
       <c r="L16" t="n">
         <v>17</v>
@@ -1319,7 +1319,7 @@
         <v>57.42</v>
       </c>
       <c r="K17" t="n">
-        <v>5.6</v>
+        <v>56.02</v>
       </c>
       <c r="L17" t="n">
         <v>49</v>
@@ -1372,7 +1372,7 @@
         <v>17.16</v>
       </c>
       <c r="K18" t="n">
-        <v>15.03</v>
+        <v>150.38</v>
       </c>
       <c r="L18" t="n">
         <v>473</v>
@@ -1425,7 +1425,7 @@
         <v>21.74</v>
       </c>
       <c r="K19" t="n">
-        <v>9.43</v>
+        <v>94.37</v>
       </c>
       <c r="L19" t="n">
         <v>157</v>
@@ -1478,7 +1478,7 @@
         <v>20.47</v>
       </c>
       <c r="K20" t="n">
-        <v>6.97</v>
+        <v>69.73</v>
       </c>
       <c r="L20" t="n">
         <v>35</v>
@@ -1531,7 +1531,7 @@
         <v>19.09</v>
       </c>
       <c r="K21" t="n">
-        <v>12.97</v>
+        <v>129.65</v>
       </c>
       <c r="L21" t="n">
         <v>249</v>
@@ -1584,7 +1584,7 @@
         <v>22.7</v>
       </c>
       <c r="K22" t="n">
-        <v>8.21</v>
+        <v>82.19</v>
       </c>
       <c r="L22" t="n">
         <v>10</v>
@@ -1637,7 +1637,7 @@
         <v>21.65</v>
       </c>
       <c r="K23" t="n">
-        <v>7.55</v>
+        <v>75.53</v>
       </c>
       <c r="L23" t="n">
         <v>208</v>
@@ -1690,7 +1690,7 @@
         <v>17.59</v>
       </c>
       <c r="K24" t="n">
-        <v>8.48</v>
+        <v>84.8</v>
       </c>
       <c r="L24" t="n">
         <v>106</v>
@@ -1743,7 +1743,7 @@
         <v>18.39</v>
       </c>
       <c r="K25" t="n">
-        <v>11.11</v>
+        <v>111.05</v>
       </c>
       <c r="L25" t="n">
         <v>173</v>
@@ -1796,7 +1796,7 @@
         <v>21.1</v>
       </c>
       <c r="K26" t="n">
-        <v>8.64</v>
+        <v>86.44</v>
       </c>
       <c r="L26" t="n">
         <v>113</v>
@@ -1849,7 +1849,7 @@
         <v>16.98</v>
       </c>
       <c r="K27" t="n">
-        <v>9.93</v>
+        <v>99.36</v>
       </c>
       <c r="L27" t="n">
         <v>595</v>
@@ -1902,7 +1902,7 @@
         <v>20.24</v>
       </c>
       <c r="K28" t="n">
-        <v>22.59</v>
+        <v>225.93</v>
       </c>
       <c r="L28" t="n">
         <v>1351</v>
@@ -1955,7 +1955,7 @@
         <v>21.54</v>
       </c>
       <c r="K29" t="n">
-        <v>12.07</v>
+        <v>120.76</v>
       </c>
       <c r="L29" t="n">
         <v>393</v>
@@ -2008,7 +2008,7 @@
         <v>22.24</v>
       </c>
       <c r="K30" t="n">
-        <v>10.5</v>
+        <v>104.96</v>
       </c>
       <c r="L30" t="n">
         <v>143</v>
@@ -2061,7 +2061,7 @@
         <v>17.45</v>
       </c>
       <c r="K31" t="n">
-        <v>8.09</v>
+        <v>80.93</v>
       </c>
       <c r="L31" t="n">
         <v>318</v>
@@ -2114,7 +2114,7 @@
         <v>19.48</v>
       </c>
       <c r="K32" t="n">
-        <v>10.78</v>
+        <v>107.9</v>
       </c>
       <c r="L32" t="n">
         <v>508</v>
@@ -2167,7 +2167,7 @@
         <v>23.25</v>
       </c>
       <c r="K33" t="n">
-        <v>10.2</v>
+        <v>101.95</v>
       </c>
       <c r="L33" t="n">
         <v>357</v>
@@ -2220,7 +2220,7 @@
         <v>19.78</v>
       </c>
       <c r="K34" t="n">
-        <v>9.15</v>
+        <v>91.51</v>
       </c>
       <c r="L34" t="n">
         <v>187</v>
@@ -2273,7 +2273,7 @@
         <v>14.22</v>
       </c>
       <c r="K35" t="n">
-        <v>5.69</v>
+        <v>56.92</v>
       </c>
       <c r="L35" t="n">
         <v>9</v>
@@ -2326,7 +2326,7 @@
         <v>15.25</v>
       </c>
       <c r="K36" t="n">
-        <v>10.67</v>
+        <v>106.77</v>
       </c>
       <c r="L36" t="n">
         <v>54</v>
@@ -2379,7 +2379,7 @@
         <v>11.27</v>
       </c>
       <c r="K37" t="n">
-        <v>6.18</v>
+        <v>61.9</v>
       </c>
       <c r="L37" t="n">
         <v>23</v>
@@ -2432,7 +2432,7 @@
         <v>14.67</v>
       </c>
       <c r="K38" t="n">
-        <v>8.93</v>
+        <v>89.32</v>
       </c>
       <c r="L38" t="n">
         <v>134</v>
@@ -2485,7 +2485,7 @@
         <v>11.56</v>
       </c>
       <c r="K39" t="n">
-        <v>12.66</v>
+        <v>126.61</v>
       </c>
       <c r="L39" t="n">
         <v>34</v>
@@ -2538,7 +2538,7 @@
         <v>15.01</v>
       </c>
       <c r="K40" t="n">
-        <v>7.31</v>
+        <v>73.16</v>
       </c>
       <c r="L40" t="n">
         <v>236</v>
@@ -2591,7 +2591,7 @@
         <v>18.17</v>
       </c>
       <c r="K41" t="n">
-        <v>13.1</v>
+        <v>131</v>
       </c>
       <c r="L41" t="n">
         <v>204</v>
@@ -2644,7 +2644,7 @@
         <v>11.85</v>
       </c>
       <c r="K42" t="n">
-        <v>15.68</v>
+        <v>156.89</v>
       </c>
       <c r="L42" t="n">
         <v>1049</v>
@@ -2697,7 +2697,7 @@
         <v>12.64</v>
       </c>
       <c r="K43" t="n">
-        <v>9.46</v>
+        <v>94.64</v>
       </c>
       <c r="L43" t="n">
         <v>421</v>
@@ -2750,7 +2750,7 @@
         <v>11.43</v>
       </c>
       <c r="K44" t="n">
-        <v>16.41</v>
+        <v>164.17</v>
       </c>
       <c r="L44" t="n">
         <v>1099</v>
@@ -2803,7 +2803,7 @@
         <v>11.84</v>
       </c>
       <c r="K45" t="n">
-        <v>10.02</v>
+        <v>100.28</v>
       </c>
       <c r="L45" t="n">
         <v>405</v>
@@ -2856,7 +2856,7 @@
         <v>13.09</v>
       </c>
       <c r="K46" t="n">
-        <v>5.59</v>
+        <v>55.9</v>
       </c>
       <c r="L46" t="n">
         <v>62</v>
@@ -2909,7 +2909,7 @@
         <v>15.6</v>
       </c>
       <c r="K47" t="n">
-        <v>8.33</v>
+        <v>83.38</v>
       </c>
       <c r="L47" t="n">
         <v>423</v>
@@ -2962,7 +2962,7 @@
         <v>19.44</v>
       </c>
       <c r="K48" t="n">
-        <v>10.44</v>
+        <v>104.48</v>
       </c>
       <c r="L48" t="n">
         <v>548</v>
@@ -3015,7 +3015,7 @@
         <v>16.07</v>
       </c>
       <c r="K49" t="n">
-        <v>13.02</v>
+        <v>130.18</v>
       </c>
       <c r="L49" t="n">
         <v>869</v>
